--- a/Documents/report.xlsx
+++ b/Documents/report.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\SkyDrive\School\CS499\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\Michael\dev\ParallelRayTracer\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,9 +15,6 @@
     <sheet name="Report" sheetId="1" r:id="rId1"/>
     <sheet name="Time" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="log" localSheetId="1">Time!$A$1:$C$26</definedName>
-  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,27 +24,8 @@
 </workbook>
 </file>
 
-<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="log" type="6" refreshedVersion="5" deleted="1" background="1" saveData="1">
-    <textPr prompt="0" codePage="437" sourceFile="C:\cygwin64\home\Michael\dev\ParallelRayTracer\log.csv" tab="0" comma="1">
-      <textFields count="3">
-        <textField/>
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-    <extLst>
-      <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
-        <x15:connection id="" excludeFromRefreshAll="1"/>
-      </ext>
-    </extLst>
-  </connection>
-</connections>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="32">
   <si>
     <t>Michael Warren</t>
   </si>
@@ -119,15 +97,6 @@
     <t>---</t>
   </si>
   <si>
-    <t>Accomplishments: Proposal for new project has been accepted</t>
-  </si>
-  <si>
-    <t>Problems: Had to start a new project.</t>
-  </si>
-  <si>
-    <t>Changes in Scope, Schedule, and Cost: New project Cluster computing/parallel programming</t>
-  </si>
-  <si>
     <t>Confessional</t>
   </si>
   <si>
@@ -137,13 +106,25 @@
     <t>Total anticipated actual hours:</t>
   </si>
   <si>
-    <t>On schedule</t>
+    <t>in Progress</t>
+  </si>
+  <si>
+    <t>Ahead by 3 hours</t>
   </si>
   <si>
     <t xml:space="preserve">Scripture
 " 15 For behold, we are in bondage to the [senior project] and are taxed with a tax which is grievous to be borne..." - Mosiah 7:15
-" 14 Now I say unto you that ye must repent, and be born again; for the Spirit saith if ye are not born again ye cannot inherit the kingdom of heaven; " Alma 7:14
+"12 But I was racked with eternal torment, for my soul was harrowed up to the greatest degree and racked with all my sins. " Alma 36:12
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accomplishments: Lots of reasearch done already. Requierments are started as well. </t>
+  </si>
+  <si>
+    <t>Problems: Baby not letting me or my wife sleep as much as we want.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Changes in Scope, Schedule, and Cost: </t>
   </si>
 </sst>
 </file>
@@ -538,10 +519,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="log" growShrinkType="overwriteClear" fillFormulas="1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -810,7 +787,7 @@
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -852,7 +829,7 @@
       <c r="J2" s="36"/>
       <c r="K2" s="36"/>
       <c r="M2" s="1">
-        <v>41702</v>
+        <v>41713</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -941,7 +918,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="6">
         <f>SUMIF(Time!A:A,A5,Time!D:D)</f>
-        <v>2.8802777777777777</v>
+        <v>13.417777777777777</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -949,13 +926,15 @@
         <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C6" s="4">
         <v>41729</v>
       </c>
       <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="E6" s="4">
+        <v>41713</v>
+      </c>
       <c r="F6" s="4">
         <v>41733</v>
       </c>
@@ -967,7 +946,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="6">
         <f>SUMIF(Time!A:A,A6,Time!D:D)</f>
-        <v>0</v>
+        <v>1.6902777777777775</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1132,12 +1111,12 @@
       <c r="J12" s="5"/>
       <c r="K12" s="6">
         <f>SUM(K4:K11)</f>
-        <v>17.045277777777777</v>
+        <v>29.273055555555555</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
@@ -1165,7 +1144,7 @@
     </row>
     <row r="15" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
@@ -1193,7 +1172,7 @@
     </row>
     <row r="17" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
@@ -1221,7 +1200,7 @@
     </row>
     <row r="19" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -1236,11 +1215,11 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B20" s="13">
         <f>SUMIFS(Time!D:D,Time!B:B,"&gt;="&amp;M2)</f>
-        <v>17.045277777777777</v>
+        <v>12.22777777777778</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
@@ -1254,7 +1233,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B21" s="14">
         <v>156</v>
@@ -1271,7 +1250,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -1312,7 +1291,7 @@
     </row>
     <row r="25" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B25" s="25"/>
       <c r="C25" s="25"/>
@@ -1436,10 +1415,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1475,7 +1454,7 @@
         <v>41704.125</v>
       </c>
       <c r="D2" s="16">
-        <f t="shared" ref="D2:D25" si="0">IFERROR(MINUTE(C2-B2)/60+HOUR(C2-B2)+SECOND(C2-B2)/3600,0)</f>
+        <f t="shared" ref="D2:D56" si="0">IFERROR(MINUTE(C2-B2)/60+HOUR(C2-B2)+SECOND(C2-B2)/3600,0)</f>
         <v>3</v>
       </c>
     </row>
@@ -1825,9 +1804,469 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="16"/>
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="1">
+        <v>41713.515601851854</v>
+      </c>
+      <c r="C26" s="1">
+        <v>41713.573229166665</v>
+      </c>
+      <c r="D26" s="16">
+        <f t="shared" si="0"/>
+        <v>1.3830555555555555</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="1">
+        <v>41713.577719907407</v>
+      </c>
+      <c r="C27" s="1">
+        <v>41713.632222222222</v>
+      </c>
+      <c r="D27" s="16">
+        <f t="shared" si="0"/>
+        <v>1.3080555555555555</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="1">
+        <v>41713.640868055554</v>
+      </c>
+      <c r="C28" s="1">
+        <v>41713.703414351854</v>
+      </c>
+      <c r="D28" s="16">
+        <f t="shared" si="0"/>
+        <v>1.5011111111111111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="1">
+        <v>41713.70517361111</v>
+      </c>
+      <c r="C29" s="1">
+        <v>41713.720752314817</v>
+      </c>
+      <c r="D29" s="16">
+        <f t="shared" si="0"/>
+        <v>0.37388888888888888</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="1">
+        <v>41713.720983796295</v>
+      </c>
+      <c r="C30" s="1">
+        <v>41713.728819444441</v>
+      </c>
+      <c r="D30" s="16">
+        <f t="shared" si="0"/>
+        <v>0.18805555555555553</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="1">
+        <v>41713.72928240741</v>
+      </c>
+      <c r="C31" s="1">
+        <v>41713.730532407404</v>
+      </c>
+      <c r="D31" s="16">
+        <f t="shared" si="0"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="1">
+        <v>41713.73060185185</v>
+      </c>
+      <c r="C32" s="1">
+        <v>41713.748333333337</v>
+      </c>
+      <c r="D32" s="16">
+        <f t="shared" si="0"/>
+        <v>0.42555555555555558</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="1">
+        <v>41713.748402777775</v>
+      </c>
+      <c r="C33" s="1">
+        <v>41713.748495370368</v>
+      </c>
+      <c r="D33" s="16">
+        <f t="shared" si="0"/>
+        <v>2.2222222222222222E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="1">
+        <v>41715.791180555556</v>
+      </c>
+      <c r="C34" s="1">
+        <v>41715.7966087963</v>
+      </c>
+      <c r="D34" s="16">
+        <f t="shared" si="0"/>
+        <v>0.13027777777777777</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="1">
+        <v>41715.79996527778</v>
+      </c>
+      <c r="C35" s="1">
+        <v>41715.807303240741</v>
+      </c>
+      <c r="D35" s="16">
+        <f t="shared" si="0"/>
+        <v>0.17611111111111111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" s="1">
+        <v>41715.807743055557</v>
+      </c>
+      <c r="C36" s="1">
+        <v>41715.815370370372</v>
+      </c>
+      <c r="D36" s="16">
+        <f t="shared" si="0"/>
+        <v>0.18305555555555555</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="1">
+        <v>41715.815578703703</v>
+      </c>
+      <c r="C37" s="1">
+        <v>41715.824884259258</v>
+      </c>
+      <c r="D37" s="16">
+        <f t="shared" si="0"/>
+        <v>0.22333333333333333</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="1">
+        <v>41715.829351851855</v>
+      </c>
+      <c r="C38" s="1">
+        <v>41715.835335648146</v>
+      </c>
+      <c r="D38" s="16">
+        <f t="shared" si="0"/>
+        <v>0.14361111111111111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="1">
+        <v>41715.845879629633</v>
+      </c>
+      <c r="C39" s="1">
+        <v>41715.857349537036</v>
+      </c>
+      <c r="D39" s="16">
+        <f t="shared" si="0"/>
+        <v>0.27527777777777779</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" s="1">
+        <v>41715.858807870369</v>
+      </c>
+      <c r="C40" s="1">
+        <v>41715.861932870372</v>
+      </c>
+      <c r="D40" s="16">
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" s="1">
+        <v>41715.864108796297</v>
+      </c>
+      <c r="C41" s="1">
+        <v>41715.869189814817</v>
+      </c>
+      <c r="D41" s="16">
+        <f t="shared" si="0"/>
+        <v>0.12194444444444445</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" s="1">
+        <v>41715.871111111112</v>
+      </c>
+      <c r="C42" s="1">
+        <v>41715.891273148147</v>
+      </c>
+      <c r="D42" s="16">
+        <f t="shared" si="0"/>
+        <v>0.48388888888888887</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" s="1">
+        <v>41715.891435185185</v>
+      </c>
+      <c r="C43" s="1">
+        <v>41715.899571759262</v>
+      </c>
+      <c r="D43" s="16">
+        <f t="shared" si="0"/>
+        <v>0.19527777777777777</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="1">
+        <v>41716.757418981484</v>
+      </c>
+      <c r="C44" s="1">
+        <v>41716.77915509259</v>
+      </c>
+      <c r="D44" s="16">
+        <f t="shared" si="0"/>
+        <v>0.52166666666666672</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="1">
+        <v>41716.780740740738</v>
+      </c>
+      <c r="C45" s="1">
+        <v>41716.797280092593</v>
+      </c>
+      <c r="D45" s="16">
+        <f t="shared" si="0"/>
+        <v>0.39694444444444449</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="1">
+        <v>41716.798055555555</v>
+      </c>
+      <c r="C46" s="1">
+        <v>41716.814398148148</v>
+      </c>
+      <c r="D46" s="16">
+        <f t="shared" si="0"/>
+        <v>0.39222222222222225</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="1">
+        <v>41716.815648148149</v>
+      </c>
+      <c r="C47" s="1">
+        <v>41716.815729166665</v>
+      </c>
+      <c r="D47" s="16">
+        <f t="shared" si="0"/>
+        <v>1.9444444444444444E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="1">
+        <v>41716.820902777778</v>
+      </c>
+      <c r="C48" s="1">
+        <v>41716.824953703705</v>
+      </c>
+      <c r="D48" s="16">
+        <f t="shared" si="0"/>
+        <v>9.722222222222221E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" s="1">
+        <v>41716.851666666669</v>
+      </c>
+      <c r="C49" s="1">
+        <v>41716.896493055552</v>
+      </c>
+      <c r="D49" s="16">
+        <f t="shared" si="0"/>
+        <v>1.0758333333333334</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" s="1">
+        <v>41717.782754629632</v>
+      </c>
+      <c r="C50" s="1">
+        <v>41717.786817129629</v>
+      </c>
+      <c r="D50" s="16">
+        <f t="shared" si="0"/>
+        <v>9.7499999999999989E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" s="1">
+        <v>41717.787893518522</v>
+      </c>
+      <c r="C51" s="1">
+        <v>41717.789687500001</v>
+      </c>
+      <c r="D51" s="16">
+        <f t="shared" si="0"/>
+        <v>4.3055555555555555E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" s="1">
+        <v>41717.799791666665</v>
+      </c>
+      <c r="C52" s="1">
+        <v>41717.817499999997</v>
+      </c>
+      <c r="D52" s="16">
+        <f t="shared" si="0"/>
+        <v>0.42500000000000004</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" s="1">
+        <v>41717.826655092591</v>
+      </c>
+      <c r="C53" s="1">
+        <v>41717.899189814816</v>
+      </c>
+      <c r="D53" s="16">
+        <f t="shared" si="0"/>
+        <v>1.7408333333333335</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" s="1">
+        <v>41717.899317129632</v>
+      </c>
+      <c r="C54" s="1">
+        <v>41717.902754629627</v>
+      </c>
+      <c r="D54" s="16">
+        <f t="shared" si="0"/>
+        <v>8.2500000000000004E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" s="1">
+        <v>41717.90284722222</v>
+      </c>
+      <c r="C55" s="1">
+        <v>41717.908275462964</v>
+      </c>
+      <c r="D55" s="16">
+        <f t="shared" si="0"/>
+        <v>0.13027777777777777</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" s="1">
+        <v>41717.908865740741</v>
+      </c>
+      <c r="C56" s="1">
+        <v>41717.908993055556</v>
+      </c>
+      <c r="D56" s="16">
+        <f t="shared" si="0"/>
+        <v>3.0555555555555557E-3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/report.xlsx
+++ b/Documents/report.xlsx
@@ -15,6 +15,9 @@
     <sheet name="Report" sheetId="1" r:id="rId1"/>
     <sheet name="Time" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="log" localSheetId="1">Time!$A$1:$C$62</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,8 +27,22 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="log" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr prompt="0" codePage="437" sourceFile="C:\cygwin64\home\Michael\dev\ParallelRayTracer\log.csv" tab="0" comma="1">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="32">
   <si>
     <t>Michael Warren</t>
   </si>
@@ -519,6 +536,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="log" growShrinkType="overwriteClear" fillFormulas="1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -787,7 +808,7 @@
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -829,7 +850,7 @@
       <c r="J2" s="36"/>
       <c r="K2" s="36"/>
       <c r="M2" s="1">
-        <v>41713</v>
+        <v>41718</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -918,7 +939,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="6">
         <f>SUMIF(Time!A:A,A5,Time!D:D)</f>
-        <v>13.417777777777777</v>
+        <v>16.593333333333334</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -946,7 +967,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="6">
         <f>SUMIF(Time!A:A,A6,Time!D:D)</f>
-        <v>1.6902777777777775</v>
+        <v>2.9663888888888885</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1111,7 +1132,7 @@
       <c r="J12" s="5"/>
       <c r="K12" s="6">
         <f>SUM(K4:K11)</f>
-        <v>29.273055555555555</v>
+        <v>33.724722222222219</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1219,7 +1240,7 @@
       </c>
       <c r="B20" s="13">
         <f>SUMIFS(Time!D:D,Time!B:B,"&gt;="&amp;M2)</f>
-        <v>12.22777777777778</v>
+        <v>4.4516666666666671</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
@@ -1415,11 +1436,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
-    </sheetView>
+    <sheetView topLeftCell="A31" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1454,7 +1473,7 @@
         <v>41704.125</v>
       </c>
       <c r="D2" s="16">
-        <f t="shared" ref="D2:D56" si="0">IFERROR(MINUTE(C2-B2)/60+HOUR(C2-B2)+SECOND(C2-B2)/3600,0)</f>
+        <f t="shared" ref="D2:D62" si="0">IFERROR(MINUTE(C2-B2)/60+HOUR(C2-B2)+SECOND(C2-B2)/3600,0)</f>
         <v>3</v>
       </c>
     </row>
@@ -2266,6 +2285,94 @@
       <c r="D56" s="16">
         <f t="shared" si="0"/>
         <v>3.0555555555555557E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" s="1">
+        <v>41718.823206018518</v>
+      </c>
+      <c r="C57" s="1">
+        <v>41718.846122685187</v>
+      </c>
+      <c r="D57" s="16">
+        <f t="shared" si="0"/>
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" s="1">
+        <v>41718.846319444441</v>
+      </c>
+      <c r="C58" s="1">
+        <v>41718.897256944445</v>
+      </c>
+      <c r="D58" s="16">
+        <f t="shared" si="0"/>
+        <v>1.2225000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59" s="1">
+        <v>41720.644143518519</v>
+      </c>
+      <c r="C59" s="1">
+        <v>41720.646377314813</v>
+      </c>
+      <c r="D59" s="16">
+        <f t="shared" si="0"/>
+        <v>5.3611111111111116E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" s="1">
+        <v>41720.646458333336</v>
+      </c>
+      <c r="C60" s="1">
+        <v>41720.71539351852</v>
+      </c>
+      <c r="D60" s="16">
+        <f t="shared" si="0"/>
+        <v>1.6544444444444444</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61" s="1">
+        <v>41720.72351851852</v>
+      </c>
+      <c r="C61" s="1">
+        <v>41720.763981481483</v>
+      </c>
+      <c r="D61" s="16">
+        <f t="shared" si="0"/>
+        <v>0.97111111111111115</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62" s="1">
+        <v>41720.764502314814</v>
+      </c>
+      <c r="C62" s="1"/>
+      <c r="D62" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/report.xlsx
+++ b/Documents/report.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
     <sheet name="Time" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="log" localSheetId="1">Time!$A$1:$C$62</definedName>
+    <definedName name="log" localSheetId="1">Time!$A$1:$C$80</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +29,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="log" type="6" refreshedVersion="5" background="1" saveData="1">
+  <connection id="1" name="log" type="6" refreshedVersion="5" deleted="1" background="1" saveData="1">
     <textPr prompt="0" codePage="437" sourceFile="C:\cygwin64\home\Michael\dev\ParallelRayTracer\log.csv" tab="0" comma="1">
       <textFields count="3">
         <textField/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="32">
   <si>
     <t>Michael Warren</t>
   </si>
@@ -123,25 +123,25 @@
     <t>Total anticipated actual hours:</t>
   </si>
   <si>
-    <t>in Progress</t>
-  </si>
-  <si>
-    <t>Ahead by 3 hours</t>
+    <t xml:space="preserve">Changes in Scope, Schedule, and Cost: </t>
   </si>
   <si>
     <t xml:space="preserve">Scripture
 " 15 For behold, we are in bondage to the [senior project] and are taxed with a tax which is grievous to be borne..." - Mosiah 7:15
-"12 But I was racked with eternal torment, for my soul was harrowed up to the greatest degree and racked with all my sins. " Alma 36:12
+"The sleep of a labouring man is sweet, whether he eat little or much: but the abundance of the rich will not suffer him to sleep. " Ecclesiastes 5:12
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Accomplishments: Lots of reasearch done already. Requierments are started as well. </t>
-  </si>
-  <si>
-    <t>Problems: Baby not letting me or my wife sleep as much as we want.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Changes in Scope, Schedule, and Cost: </t>
+    <t>Accomplishments: Lots of reasearch done already. Requierments are done. Design is started.</t>
+  </si>
+  <si>
+    <t>Problems: Baby not letting me or my wife sleep as much as we want. Going out of town this weekend. Some more research may be required.</t>
+  </si>
+  <si>
+    <t>On schedule for hours</t>
+  </si>
+  <si>
+    <t>Will try to catch up on some time lost this week so I can be ahead of hours again. (scheduleStatus = min(scheduleHoursStatus, scheduleDateStatus))</t>
   </si>
 </sst>
 </file>
@@ -807,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -939,7 +939,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="6">
         <f>SUMIF(Time!A:A,A5,Time!D:D)</f>
-        <v>16.593333333333334</v>
+        <v>20.096111111111117</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -947,7 +947,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C6" s="4">
         <v>41729</v>
@@ -960,14 +960,16 @@
         <v>41733</v>
       </c>
       <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="H6" s="4">
+        <v>41724</v>
+      </c>
       <c r="I6" s="5">
         <v>6</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="6">
         <f>SUMIF(Time!A:A,A6,Time!D:D)</f>
-        <v>2.9663888888888885</v>
+        <v>3.7972222222222216</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -975,13 +977,15 @@
         <v>16</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" s="4">
         <v>41733</v>
       </c>
       <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="E7" s="4">
+        <v>41724</v>
+      </c>
       <c r="F7" s="4">
         <v>41740</v>
       </c>
@@ -993,7 +997,7 @@
       <c r="J7" s="5"/>
       <c r="K7" s="6">
         <f>SUMIF(Time!A:A,A7,Time!D:D)</f>
-        <v>0</v>
+        <v>1.7286111111111109</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1132,12 +1136,12 @@
       <c r="J12" s="5"/>
       <c r="K12" s="6">
         <f>SUM(K4:K11)</f>
-        <v>33.724722222222219</v>
+        <v>39.786944444444458</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
@@ -1165,7 +1169,7 @@
     </row>
     <row r="15" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
@@ -1193,7 +1197,7 @@
     </row>
     <row r="17" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
@@ -1240,7 +1244,7 @@
       </c>
       <c r="B20" s="13">
         <f>SUMIFS(Time!D:D,Time!B:B,"&gt;="&amp;M2)</f>
-        <v>4.4516666666666671</v>
+        <v>10.513888888888891</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
@@ -1271,7 +1275,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -1285,7 +1289,9 @@
       <c r="K22" s="15"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
+      <c r="A23" s="18" t="s">
+        <v>31</v>
+      </c>
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
@@ -1312,7 +1318,7 @@
     </row>
     <row r="25" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" s="25"/>
       <c r="C25" s="25"/>
@@ -1431,14 +1437,17 @@
     <mergeCell ref="A13:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1473,7 +1482,7 @@
         <v>41704.125</v>
       </c>
       <c r="D2" s="16">
-        <f t="shared" ref="D2:D62" si="0">IFERROR(MINUTE(C2-B2)/60+HOUR(C2-B2)+SECOND(C2-B2)/3600,0)</f>
+        <f t="shared" ref="D2:D65" si="0">IFERROR(MINUTE(C2-B2)/60+HOUR(C2-B2)+SECOND(C2-B2)/3600,0)</f>
         <v>3</v>
       </c>
     </row>
@@ -2369,10 +2378,282 @@
       <c r="B62" s="1">
         <v>41720.764502314814</v>
       </c>
-      <c r="C62" s="1"/>
+      <c r="C62" s="1">
+        <v>41720.765486111108</v>
+      </c>
       <c r="D62" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.361111111111111E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63" s="1">
+        <v>41720.769178240742</v>
+      </c>
+      <c r="C63" s="1">
+        <v>41720.786099537036</v>
+      </c>
+      <c r="D63" s="16">
+        <f t="shared" si="0"/>
+        <v>0.40611111111111114</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>12</v>
+      </c>
+      <c r="B64" s="1">
+        <v>41720.812916666669</v>
+      </c>
+      <c r="C64" s="1">
+        <v>41720.823854166665</v>
+      </c>
+      <c r="D64" s="16">
+        <f t="shared" si="0"/>
+        <v>0.26250000000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>12</v>
+      </c>
+      <c r="B65" s="1">
+        <v>41720.860671296294</v>
+      </c>
+      <c r="C65" s="1">
+        <v>41720.891828703701</v>
+      </c>
+      <c r="D65" s="16">
+        <f t="shared" si="0"/>
+        <v>0.74777777777777776</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>14</v>
+      </c>
+      <c r="B66" s="1">
+        <v>41722.833854166667</v>
+      </c>
+      <c r="C66" s="1">
+        <v>41722.834305555552</v>
+      </c>
+      <c r="D66" s="16">
+        <f t="shared" ref="D66:D80" si="1">IFERROR(MINUTE(C66-B66)/60+HOUR(C66-B66)+SECOND(C66-B66)/3600,0)</f>
+        <v>1.0833333333333334E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>14</v>
+      </c>
+      <c r="B67" s="1">
+        <v>41722.837152777778</v>
+      </c>
+      <c r="C67" s="1">
+        <v>41722.844814814816</v>
+      </c>
+      <c r="D67" s="16">
+        <f t="shared" si="1"/>
+        <v>0.18388888888888888</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>14</v>
+      </c>
+      <c r="B68" s="1">
+        <v>41722.848564814813</v>
+      </c>
+      <c r="C68" s="1">
+        <v>41722.849340277775</v>
+      </c>
+      <c r="D68" s="16">
+        <f t="shared" si="1"/>
+        <v>1.861111111111111E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>12</v>
+      </c>
+      <c r="B69" s="1">
+        <v>41723.780300925922</v>
+      </c>
+      <c r="C69" s="1">
+        <v>41723.781597222223</v>
+      </c>
+      <c r="D69" s="16">
+        <f t="shared" si="1"/>
+        <v>3.111111111111111E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>12</v>
+      </c>
+      <c r="B70" s="1">
+        <v>41723.782210648147</v>
+      </c>
+      <c r="C70" s="1">
+        <v>41723.838020833333</v>
+      </c>
+      <c r="D70" s="16">
+        <f t="shared" si="1"/>
+        <v>1.3394444444444444</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>14</v>
+      </c>
+      <c r="B71" s="1">
+        <v>41723.838125000002</v>
+      </c>
+      <c r="C71" s="1">
+        <v>41723.842615740738</v>
+      </c>
+      <c r="D71" s="16">
+        <f t="shared" si="1"/>
+        <v>0.10777777777777778</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>14</v>
+      </c>
+      <c r="B72" s="1">
+        <v>41723.858171296299</v>
+      </c>
+      <c r="C72" s="1">
+        <v>41723.861539351848</v>
+      </c>
+      <c r="D72" s="16">
+        <f t="shared" si="1"/>
+        <v>8.0833333333333326E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>14</v>
+      </c>
+      <c r="B73" s="1">
+        <v>41723.891516203701</v>
+      </c>
+      <c r="C73" s="1">
+        <v>41723.909386574072</v>
+      </c>
+      <c r="D73" s="16">
+        <f t="shared" si="1"/>
+        <v>0.42888888888888893</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>16</v>
+      </c>
+      <c r="B74" s="1">
+        <v>41723.909409722219</v>
+      </c>
+      <c r="C74" s="1">
+        <v>41723.911620370367</v>
+      </c>
+      <c r="D74" s="16">
+        <f t="shared" si="1"/>
+        <v>5.3055555555555557E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>16</v>
+      </c>
+      <c r="B75" s="1">
+        <v>41724.770567129628</v>
+      </c>
+      <c r="C75" s="1">
+        <v>41724.771319444444</v>
+      </c>
+      <c r="D75" s="16">
+        <f t="shared" si="1"/>
+        <v>1.8055555555555554E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>16</v>
+      </c>
+      <c r="B76" s="1">
+        <v>41724.772870370369</v>
+      </c>
+      <c r="C76" s="1">
+        <v>41724.787222222221</v>
+      </c>
+      <c r="D76" s="16">
+        <f t="shared" si="1"/>
+        <v>0.34444444444444444</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>12</v>
+      </c>
+      <c r="B77" s="1">
+        <v>41724.787245370368</v>
+      </c>
+      <c r="C77" s="1">
+        <v>41724.797222222223</v>
+      </c>
+      <c r="D77" s="16">
+        <f t="shared" si="1"/>
+        <v>0.23944444444444446</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>12</v>
+      </c>
+      <c r="B78" s="1">
+        <v>41724.798703703702</v>
+      </c>
+      <c r="C78" s="1">
+        <v>41724.817569444444</v>
+      </c>
+      <c r="D78" s="16">
+        <f t="shared" si="1"/>
+        <v>0.45277777777777778</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>16</v>
+      </c>
+      <c r="B79" s="1">
+        <v>41724.817685185182</v>
+      </c>
+      <c r="C79" s="1">
+        <v>41724.848043981481</v>
+      </c>
+      <c r="D79" s="16">
+        <f t="shared" si="1"/>
+        <v>0.7286111111111111</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>16</v>
+      </c>
+      <c r="B80" s="1">
+        <v>41724.867314814815</v>
+      </c>
+      <c r="C80" s="1">
+        <v>41724.89166666667</v>
+      </c>
+      <c r="D80" s="16">
+        <f t="shared" si="1"/>
+        <v>0.58444444444444443</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/report.xlsx
+++ b/Documents/report.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
     <sheet name="Time" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="log" localSheetId="1">Time!$A$1:$C$80</definedName>
+    <definedName name="log_2" localSheetId="1">Time!$A$1:$C$94</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,8 +29,8 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="log" type="6" refreshedVersion="5" deleted="1" background="1" saveData="1">
-    <textPr prompt="0" codePage="437" sourceFile="C:\cygwin64\home\Michael\dev\ParallelRayTracer\log.csv" tab="0" comma="1">
+  <connection id="1" name="log" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\cygwin64\home\Michael\dev\ParallelRayTracer\log.csv" tab="0" comma="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="32">
   <si>
     <t>Michael Warren</t>
   </si>
@@ -148,8 +148,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="dd/mm\ h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -438,7 +439,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -460,6 +461,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -539,7 +541,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="log" growShrinkType="overwriteClear" fillFormulas="1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="log_2" growShrinkType="overwriteClear" fillFormulas="1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -807,8 +809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:K32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -828,34 +830,34 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36" t="s">
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36" t="s">
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
       <c r="M2" s="1">
-        <v>41718</v>
+        <v>41724.893750000003</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
@@ -938,8 +940,8 @@
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="6">
-        <f>SUMIF(Time!A:A,A5,Time!D:D)</f>
-        <v>20.096111111111117</v>
+        <f ca="1">SUMIF(Time!A:A,A5,Time!D:D)</f>
+        <v>22.042777777777783</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -997,7 +999,7 @@
       <c r="J7" s="5"/>
       <c r="K7" s="6">
         <f>SUMIF(Time!A:A,A7,Time!D:D)</f>
-        <v>1.7286111111111109</v>
+        <v>7.9541666666666675</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1005,7 +1007,7 @@
         <v>17</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8" s="4">
         <v>41740</v>
@@ -1031,7 +1033,7 @@
         <v>18</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C9" s="4">
         <v>41753</v>
@@ -1135,93 +1137,93 @@
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="6">
-        <f>SUM(K4:K11)</f>
-        <v>39.786944444444458</v>
+        <f ca="1">SUM(K4:K11)</f>
+        <v>47.959166666666668</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
     </row>
     <row r="14" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
     </row>
     <row r="15" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
     </row>
     <row r="16" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
     </row>
     <row r="17" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
     </row>
     <row r="18" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
@@ -1243,8 +1245,8 @@
         <v>24</v>
       </c>
       <c r="B20" s="13">
-        <f>SUMIFS(Time!D:D,Time!B:B,"&gt;="&amp;M2)</f>
-        <v>10.513888888888891</v>
+        <f ca="1">SUMIFS(Time!D:D,Time!B:B,"&gt;="&amp;M2)</f>
+        <v>8.1722222222222225</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
@@ -1289,138 +1291,138 @@
       <c r="K22" s="15"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="21"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="21"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="23"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="24"/>
     </row>
     <row r="25" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="27"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="27"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="29"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="30"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="29"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="30"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="27"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="29"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="30"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="27"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="29"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="30"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="29"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="30"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="29"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="30"/>
     </row>
     <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="30"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="32"/>
+      <c r="A32" s="31"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="33"/>
     </row>
     <row r="33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -1443,16 +1445,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:D94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="17" style="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1460,10 +1462,10 @@
       <c r="A1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="17">
         <v>41703</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="17">
         <v>41703.083333333336</v>
       </c>
       <c r="D1" s="16">
@@ -1475,10 +1477,10 @@
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="17">
         <v>41704</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="17">
         <v>41704.125</v>
       </c>
       <c r="D2" s="16">
@@ -1490,10 +1492,10 @@
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="17">
         <v>41705</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="17">
         <v>41705.003472222219</v>
       </c>
       <c r="D3" s="16">
@@ -1505,10 +1507,10 @@
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="17">
         <v>41706.342199074075</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="17">
         <v>41706.345081018517</v>
       </c>
       <c r="D4" s="16">
@@ -1520,10 +1522,10 @@
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="17">
         <v>41706.351979166669</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="17">
         <v>41706.35832175926</v>
       </c>
       <c r="D5" s="16">
@@ -1535,10 +1537,10 @@
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="17">
         <v>41706.551990740743</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="17">
         <v>41706.615694444445</v>
       </c>
       <c r="D6" s="16">
@@ -1550,10 +1552,10 @@
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="17">
         <v>41706.637696759259</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="17">
         <v>41706.661921296298</v>
       </c>
       <c r="D7" s="16">
@@ -1565,10 +1567,10 @@
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="17">
         <v>41706.663194444445</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="17">
         <v>41706.674907407411</v>
       </c>
       <c r="D8" s="16">
@@ -1580,10 +1582,10 @@
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="17">
         <v>41706.674907407411</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="17">
         <v>41706.675300925926</v>
       </c>
       <c r="D9" s="16">
@@ -1595,10 +1597,10 @@
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="17">
         <v>41706.683437500003</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="17">
         <v>41706.718923611108</v>
       </c>
       <c r="D10" s="16">
@@ -1610,10 +1612,10 @@
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="17">
         <v>41706.726064814815</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="17">
         <v>41706.762129629627</v>
       </c>
       <c r="D11" s="16">
@@ -1625,10 +1627,10 @@
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="17">
         <v>41706.868067129632</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="17">
         <v>41706.919120370374</v>
       </c>
       <c r="D12" s="16">
@@ -1640,10 +1642,10 @@
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="17">
         <v>41708.818229166667</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="17">
         <v>41708.821111111109</v>
       </c>
       <c r="D13" s="16">
@@ -1655,10 +1657,10 @@
       <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="17">
         <v>41708.833333333336</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="17">
         <v>41708.871087962965</v>
       </c>
       <c r="D14" s="16">
@@ -1670,10 +1672,10 @@
       <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="17">
         <v>41708.875636574077</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="17">
         <v>41708.888611111113</v>
       </c>
       <c r="D15" s="16">
@@ -1685,10 +1687,10 @@
       <c r="A16" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="17">
         <v>41708.889062499999</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="17">
         <v>41708.891516203701</v>
       </c>
       <c r="D16" s="16">
@@ -1700,10 +1702,10 @@
       <c r="A17" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="17">
         <v>41709.76053240741</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="17">
         <v>41709.779062499998</v>
       </c>
       <c r="D17" s="16">
@@ -1715,10 +1717,10 @@
       <c r="A18" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="17">
         <v>41709.779108796298</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="17">
         <v>41709.821388888886</v>
       </c>
       <c r="D18" s="16">
@@ -1730,10 +1732,10 @@
       <c r="A19" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="17">
         <v>41709.826388888891</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="17">
         <v>41709.856053240743</v>
       </c>
       <c r="D19" s="16">
@@ -1745,10 +1747,10 @@
       <c r="A20" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="17">
         <v>41710.793715277781</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="17">
         <v>41710.812291666669</v>
       </c>
       <c r="D20" s="16">
@@ -1760,10 +1762,10 @@
       <c r="A21" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="17">
         <v>41710.813634259262</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="17">
         <v>41710.81759259259</v>
       </c>
       <c r="D21" s="16">
@@ -1775,10 +1777,10 @@
       <c r="A22" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="17">
         <v>41710.817696759259</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="17">
         <v>41710.848356481481</v>
       </c>
       <c r="D22" s="16">
@@ -1790,10 +1792,10 @@
       <c r="A23" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="17">
         <v>41710.868043981478</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="17">
         <v>41710.902800925927</v>
       </c>
       <c r="D23" s="16">
@@ -1805,10 +1807,10 @@
       <c r="A24" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="17">
         <v>41711.776192129626</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="17">
         <v>41711.807118055556</v>
       </c>
       <c r="D24" s="16">
@@ -1820,10 +1822,10 @@
       <c r="A25" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="17">
         <v>41711.888275462959</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="17">
         <v>41711.889409722222</v>
       </c>
       <c r="D25" s="16">
@@ -1835,10 +1837,10 @@
       <c r="A26" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="17">
         <v>41713.515601851854</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="17">
         <v>41713.573229166665</v>
       </c>
       <c r="D26" s="16">
@@ -1850,10 +1852,10 @@
       <c r="A27" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="17">
         <v>41713.577719907407</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="17">
         <v>41713.632222222222</v>
       </c>
       <c r="D27" s="16">
@@ -1865,10 +1867,10 @@
       <c r="A28" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="17">
         <v>41713.640868055554</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="17">
         <v>41713.703414351854</v>
       </c>
       <c r="D28" s="16">
@@ -1880,10 +1882,10 @@
       <c r="A29" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="17">
         <v>41713.70517361111</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="17">
         <v>41713.720752314817</v>
       </c>
       <c r="D29" s="16">
@@ -1895,10 +1897,10 @@
       <c r="A30" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="17">
         <v>41713.720983796295</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="17">
         <v>41713.728819444441</v>
       </c>
       <c r="D30" s="16">
@@ -1910,10 +1912,10 @@
       <c r="A31" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="17">
         <v>41713.72928240741</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="17">
         <v>41713.730532407404</v>
       </c>
       <c r="D31" s="16">
@@ -1925,10 +1927,10 @@
       <c r="A32" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="17">
         <v>41713.73060185185</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="17">
         <v>41713.748333333337</v>
       </c>
       <c r="D32" s="16">
@@ -1940,10 +1942,10 @@
       <c r="A33" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="17">
         <v>41713.748402777775</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="17">
         <v>41713.748495370368</v>
       </c>
       <c r="D33" s="16">
@@ -1955,10 +1957,10 @@
       <c r="A34" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="17">
         <v>41715.791180555556</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="17">
         <v>41715.7966087963</v>
       </c>
       <c r="D34" s="16">
@@ -1970,10 +1972,10 @@
       <c r="A35" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="17">
         <v>41715.79996527778</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="17">
         <v>41715.807303240741</v>
       </c>
       <c r="D35" s="16">
@@ -1985,10 +1987,10 @@
       <c r="A36" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="17">
         <v>41715.807743055557</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="17">
         <v>41715.815370370372</v>
       </c>
       <c r="D36" s="16">
@@ -2000,10 +2002,10 @@
       <c r="A37" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="17">
         <v>41715.815578703703</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="17">
         <v>41715.824884259258</v>
       </c>
       <c r="D37" s="16">
@@ -2015,10 +2017,10 @@
       <c r="A38" t="s">
         <v>12</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="17">
         <v>41715.829351851855</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="17">
         <v>41715.835335648146</v>
       </c>
       <c r="D38" s="16">
@@ -2030,10 +2032,10 @@
       <c r="A39" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="17">
         <v>41715.845879629633</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="17">
         <v>41715.857349537036</v>
       </c>
       <c r="D39" s="16">
@@ -2045,10 +2047,10 @@
       <c r="A40" t="s">
         <v>14</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="17">
         <v>41715.858807870369</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="17">
         <v>41715.861932870372</v>
       </c>
       <c r="D40" s="16">
@@ -2060,10 +2062,10 @@
       <c r="A41" t="s">
         <v>14</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="17">
         <v>41715.864108796297</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="17">
         <v>41715.869189814817</v>
       </c>
       <c r="D41" s="16">
@@ -2075,10 +2077,10 @@
       <c r="A42" t="s">
         <v>14</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="17">
         <v>41715.871111111112</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="17">
         <v>41715.891273148147</v>
       </c>
       <c r="D42" s="16">
@@ -2090,10 +2092,10 @@
       <c r="A43" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="17">
         <v>41715.891435185185</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="17">
         <v>41715.899571759262</v>
       </c>
       <c r="D43" s="16">
@@ -2105,10 +2107,10 @@
       <c r="A44" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="17">
         <v>41716.757418981484</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="17">
         <v>41716.77915509259</v>
       </c>
       <c r="D44" s="16">
@@ -2120,10 +2122,10 @@
       <c r="A45" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="17">
         <v>41716.780740740738</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="17">
         <v>41716.797280092593</v>
       </c>
       <c r="D45" s="16">
@@ -2135,10 +2137,10 @@
       <c r="A46" t="s">
         <v>12</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="17">
         <v>41716.798055555555</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="17">
         <v>41716.814398148148</v>
       </c>
       <c r="D46" s="16">
@@ -2150,10 +2152,10 @@
       <c r="A47" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="17">
         <v>41716.815648148149</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="17">
         <v>41716.815729166665</v>
       </c>
       <c r="D47" s="16">
@@ -2165,10 +2167,10 @@
       <c r="A48" t="s">
         <v>12</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="17">
         <v>41716.820902777778</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="17">
         <v>41716.824953703705</v>
       </c>
       <c r="D48" s="16">
@@ -2180,10 +2182,10 @@
       <c r="A49" t="s">
         <v>12</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="17">
         <v>41716.851666666669</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="17">
         <v>41716.896493055552</v>
       </c>
       <c r="D49" s="16">
@@ -2195,10 +2197,10 @@
       <c r="A50" t="s">
         <v>12</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="17">
         <v>41717.782754629632</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="17">
         <v>41717.786817129629</v>
       </c>
       <c r="D50" s="16">
@@ -2210,10 +2212,10 @@
       <c r="A51" t="s">
         <v>12</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" s="17">
         <v>41717.787893518522</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="17">
         <v>41717.789687500001</v>
       </c>
       <c r="D51" s="16">
@@ -2225,10 +2227,10 @@
       <c r="A52" t="s">
         <v>12</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="17">
         <v>41717.799791666665</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52" s="17">
         <v>41717.817499999997</v>
       </c>
       <c r="D52" s="16">
@@ -2240,10 +2242,10 @@
       <c r="A53" t="s">
         <v>12</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53" s="17">
         <v>41717.826655092591</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53" s="17">
         <v>41717.899189814816</v>
       </c>
       <c r="D53" s="16">
@@ -2255,10 +2257,10 @@
       <c r="A54" t="s">
         <v>14</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54" s="17">
         <v>41717.899317129632</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54" s="17">
         <v>41717.902754629627</v>
       </c>
       <c r="D54" s="16">
@@ -2270,10 +2272,10 @@
       <c r="A55" t="s">
         <v>14</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55" s="17">
         <v>41717.90284722222</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55" s="17">
         <v>41717.908275462964</v>
       </c>
       <c r="D55" s="16">
@@ -2285,10 +2287,10 @@
       <c r="A56" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56" s="17">
         <v>41717.908865740741</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56" s="17">
         <v>41717.908993055556</v>
       </c>
       <c r="D56" s="16">
@@ -2300,10 +2302,10 @@
       <c r="A57" t="s">
         <v>12</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57" s="17">
         <v>41718.823206018518</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57" s="17">
         <v>41718.846122685187</v>
       </c>
       <c r="D57" s="16">
@@ -2315,10 +2317,10 @@
       <c r="A58" t="s">
         <v>14</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58" s="17">
         <v>41718.846319444441</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58" s="17">
         <v>41718.897256944445</v>
       </c>
       <c r="D58" s="16">
@@ -2330,10 +2332,10 @@
       <c r="A59" t="s">
         <v>14</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59" s="17">
         <v>41720.644143518519</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59" s="17">
         <v>41720.646377314813</v>
       </c>
       <c r="D59" s="16">
@@ -2345,10 +2347,10 @@
       <c r="A60" t="s">
         <v>12</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60" s="17">
         <v>41720.646458333336</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60" s="17">
         <v>41720.71539351852</v>
       </c>
       <c r="D60" s="16">
@@ -2360,10 +2362,10 @@
       <c r="A61" t="s">
         <v>12</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61" s="17">
         <v>41720.72351851852</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61" s="17">
         <v>41720.763981481483</v>
       </c>
       <c r="D61" s="16">
@@ -2375,10 +2377,10 @@
       <c r="A62" t="s">
         <v>12</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62" s="17">
         <v>41720.764502314814</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62" s="17">
         <v>41720.765486111108</v>
       </c>
       <c r="D62" s="16">
@@ -2390,10 +2392,10 @@
       <c r="A63" t="s">
         <v>12</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63" s="17">
         <v>41720.769178240742</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63" s="17">
         <v>41720.786099537036</v>
       </c>
       <c r="D63" s="16">
@@ -2405,10 +2407,10 @@
       <c r="A64" t="s">
         <v>12</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64" s="17">
         <v>41720.812916666669</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64" s="17">
         <v>41720.823854166665</v>
       </c>
       <c r="D64" s="16">
@@ -2420,10 +2422,10 @@
       <c r="A65" t="s">
         <v>12</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65" s="17">
         <v>41720.860671296294</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65" s="17">
         <v>41720.891828703701</v>
       </c>
       <c r="D65" s="16">
@@ -2435,14 +2437,14 @@
       <c r="A66" t="s">
         <v>14</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66" s="17">
         <v>41722.833854166667</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C66" s="17">
         <v>41722.834305555552</v>
       </c>
       <c r="D66" s="16">
-        <f t="shared" ref="D66:D80" si="1">IFERROR(MINUTE(C66-B66)/60+HOUR(C66-B66)+SECOND(C66-B66)/3600,0)</f>
+        <f t="shared" ref="D66:D94" si="1">IFERROR(MINUTE(C66-B66)/60+HOUR(C66-B66)+SECOND(C66-B66)/3600,0)</f>
         <v>1.0833333333333334E-2</v>
       </c>
     </row>
@@ -2450,10 +2452,10 @@
       <c r="A67" t="s">
         <v>14</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67" s="17">
         <v>41722.837152777778</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C67" s="17">
         <v>41722.844814814816</v>
       </c>
       <c r="D67" s="16">
@@ -2465,10 +2467,10 @@
       <c r="A68" t="s">
         <v>14</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B68" s="17">
         <v>41722.848564814813</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C68" s="17">
         <v>41722.849340277775</v>
       </c>
       <c r="D68" s="16">
@@ -2480,10 +2482,10 @@
       <c r="A69" t="s">
         <v>12</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B69" s="17">
         <v>41723.780300925922</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C69" s="17">
         <v>41723.781597222223</v>
       </c>
       <c r="D69" s="16">
@@ -2495,10 +2497,10 @@
       <c r="A70" t="s">
         <v>12</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B70" s="17">
         <v>41723.782210648147</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C70" s="17">
         <v>41723.838020833333</v>
       </c>
       <c r="D70" s="16">
@@ -2510,10 +2512,10 @@
       <c r="A71" t="s">
         <v>14</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B71" s="17">
         <v>41723.838125000002</v>
       </c>
-      <c r="C71" s="1">
+      <c r="C71" s="17">
         <v>41723.842615740738</v>
       </c>
       <c r="D71" s="16">
@@ -2525,10 +2527,10 @@
       <c r="A72" t="s">
         <v>14</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B72" s="17">
         <v>41723.858171296299</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C72" s="17">
         <v>41723.861539351848</v>
       </c>
       <c r="D72" s="16">
@@ -2540,10 +2542,10 @@
       <c r="A73" t="s">
         <v>14</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B73" s="17">
         <v>41723.891516203701</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C73" s="17">
         <v>41723.909386574072</v>
       </c>
       <c r="D73" s="16">
@@ -2555,10 +2557,10 @@
       <c r="A74" t="s">
         <v>16</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B74" s="17">
         <v>41723.909409722219</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C74" s="17">
         <v>41723.911620370367</v>
       </c>
       <c r="D74" s="16">
@@ -2570,10 +2572,10 @@
       <c r="A75" t="s">
         <v>16</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B75" s="17">
         <v>41724.770567129628</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C75" s="17">
         <v>41724.771319444444</v>
       </c>
       <c r="D75" s="16">
@@ -2585,10 +2587,10 @@
       <c r="A76" t="s">
         <v>16</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B76" s="17">
         <v>41724.772870370369</v>
       </c>
-      <c r="C76" s="1">
+      <c r="C76" s="17">
         <v>41724.787222222221</v>
       </c>
       <c r="D76" s="16">
@@ -2600,10 +2602,10 @@
       <c r="A77" t="s">
         <v>12</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B77" s="17">
         <v>41724.787245370368</v>
       </c>
-      <c r="C77" s="1">
+      <c r="C77" s="17">
         <v>41724.797222222223</v>
       </c>
       <c r="D77" s="16">
@@ -2615,10 +2617,10 @@
       <c r="A78" t="s">
         <v>12</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B78" s="17">
         <v>41724.798703703702</v>
       </c>
-      <c r="C78" s="1">
+      <c r="C78" s="17">
         <v>41724.817569444444</v>
       </c>
       <c r="D78" s="16">
@@ -2630,10 +2632,10 @@
       <c r="A79" t="s">
         <v>16</v>
       </c>
-      <c r="B79" s="1">
+      <c r="B79" s="17">
         <v>41724.817685185182</v>
       </c>
-      <c r="C79" s="1">
+      <c r="C79" s="17">
         <v>41724.848043981481</v>
       </c>
       <c r="D79" s="16">
@@ -2645,10 +2647,10 @@
       <c r="A80" t="s">
         <v>16</v>
       </c>
-      <c r="B80" s="1">
+      <c r="B80" s="17">
         <v>41724.867314814815</v>
       </c>
-      <c r="C80" s="1">
+      <c r="C80" s="17">
         <v>41724.89166666667</v>
       </c>
       <c r="D80" s="16">
@@ -2656,7 +2658,219 @@
         <v>0.58444444444444443</v>
       </c>
     </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>12</v>
+      </c>
+      <c r="B81" s="17">
+        <v>41726.239930555559</v>
+      </c>
+      <c r="C81" s="17">
+        <v>41726.255104166667</v>
+      </c>
+      <c r="D81" s="16">
+        <f t="shared" si="1"/>
+        <v>0.36416666666666664</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>16</v>
+      </c>
+      <c r="B82" s="17">
+        <v>41726.255115740743</v>
+      </c>
+      <c r="C82" s="17">
+        <v>41726.272037037037</v>
+      </c>
+      <c r="D82" s="16">
+        <f t="shared" si="1"/>
+        <v>0.40611111111111114</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>16</v>
+      </c>
+      <c r="B83" s="17">
+        <v>41726.530868055554</v>
+      </c>
+      <c r="C83" s="17">
+        <v>41726.534108796295</v>
+      </c>
+      <c r="D83" s="16">
+        <f t="shared" si="1"/>
+        <v>7.7777777777777779E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>12</v>
+      </c>
+      <c r="B84" s="17">
+        <v>41726.534189814818</v>
+      </c>
+      <c r="C84" s="17">
+        <v>41726.554456018515</v>
+      </c>
+      <c r="D84" s="16">
+        <f t="shared" si="1"/>
+        <v>0.48638888888888887</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>12</v>
+      </c>
+      <c r="B85" s="17">
+        <v>41726.559305555558</v>
+      </c>
+      <c r="C85" s="17">
+        <v>41726.580914351849</v>
+      </c>
+      <c r="D85" s="16">
+        <f t="shared" si="1"/>
+        <v>0.51861111111111113</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>16</v>
+      </c>
+      <c r="B86" s="17">
+        <v>41727.557962962965</v>
+      </c>
+      <c r="C86" s="17">
+        <v>41727.58625</v>
+      </c>
+      <c r="D86" s="16">
+        <f t="shared" si="1"/>
+        <v>0.67888888888888888</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>16</v>
+      </c>
+      <c r="B87" s="17">
+        <v>41727.620462962965</v>
+      </c>
+      <c r="C87" s="17">
+        <v>41727.656990740739</v>
+      </c>
+      <c r="D87" s="16">
+        <f t="shared" si="1"/>
+        <v>0.87666666666666671</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>16</v>
+      </c>
+      <c r="B88" s="17">
+        <v>41727.667754629627</v>
+      </c>
+      <c r="C88" s="17">
+        <v>41727.677118055559</v>
+      </c>
+      <c r="D88" s="16">
+        <f t="shared" si="1"/>
+        <v>0.22472222222222224</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>16</v>
+      </c>
+      <c r="B89" s="17">
+        <v>41729.423993055556</v>
+      </c>
+      <c r="C89" s="17">
+        <v>41729.509421296294</v>
+      </c>
+      <c r="D89" s="16">
+        <f t="shared" si="1"/>
+        <v>2.0502777777777776</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>16</v>
+      </c>
+      <c r="B90" s="17">
+        <v>41730.765289351853</v>
+      </c>
+      <c r="C90" s="17">
+        <v>41730.81459490741</v>
+      </c>
+      <c r="D90" s="16">
+        <f t="shared" si="1"/>
+        <v>1.1833333333333333</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>16</v>
+      </c>
+      <c r="B91" s="17">
+        <v>41730.817442129628</v>
+      </c>
+      <c r="C91" s="17">
+        <v>41730.834224537037</v>
+      </c>
+      <c r="D91" s="16">
+        <f t="shared" si="1"/>
+        <v>0.40277777777777779</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>16</v>
+      </c>
+      <c r="B92" s="17">
+        <v>41730.83666666667</v>
+      </c>
+      <c r="C92" s="17">
+        <v>41730.850208333337</v>
+      </c>
+      <c r="D92" s="16">
+        <f t="shared" si="1"/>
+        <v>0.32500000000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>12</v>
+      </c>
+      <c r="B93" s="17">
+        <v>41730.850208333337</v>
+      </c>
+      <c r="C93" s="17">
+        <v>41730.852569444447</v>
+      </c>
+      <c r="D93" s="16">
+        <f t="shared" si="1"/>
+        <v>5.6666666666666671E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>12</v>
+      </c>
+      <c r="B94" s="17">
+        <v>41730.875092592592</v>
+      </c>
+      <c r="C94" s="17">
+        <f ca="1">NOW()</f>
+        <v>41730.896799074071</v>
+      </c>
+      <c r="D94" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documents/report.xlsx
+++ b/Documents/report.xlsx
@@ -9,15 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
     <sheet name="Time" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="log_2" localSheetId="1">Time!$A$1:$C$94</definedName>
-  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,22 +24,8 @@
 </workbook>
 </file>
 
-<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="log" type="6" refreshedVersion="5" background="1" saveData="1">
-    <textPr codePage="437" sourceFile="C:\cygwin64\home\Michael\dev\ParallelRayTracer\log.csv" tab="0" comma="1">
-      <textFields count="3">
-        <textField/>
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-</connections>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="32">
   <si>
     <t>Michael Warren</t>
   </si>
@@ -96,9 +79,6 @@
     <t>Design</t>
   </si>
   <si>
-    <t>Math Unit Test  and code</t>
-  </si>
-  <si>
     <t>Sequential Ray Tracer Tests and code</t>
   </si>
   <si>
@@ -124,24 +104,27 @@
   </si>
   <si>
     <t xml:space="preserve">Changes in Scope, Schedule, and Cost: </t>
+  </si>
+  <si>
+    <t>On schedule for hours</t>
+  </si>
+  <si>
+    <t>Math Unit Test and code</t>
   </si>
   <si>
     <t xml:space="preserve">Scripture
 " 15 For behold, we are in bondage to the [senior project] and are taxed with a tax which is grievous to be borne..." - Mosiah 7:15
-"The sleep of a labouring man is sweet, whether he eat little or much: but the abundance of the rich will not suffer him to sleep. " Ecclesiastes 5:12
+"Even the youths shall faint and be weary, and the young men shall utterly fall: " Isaiah 40:30
 </t>
   </si>
   <si>
-    <t>Accomplishments: Lots of reasearch done already. Requierments are done. Design is started.</t>
-  </si>
-  <si>
-    <t>Problems: Baby not letting me or my wife sleep as much as we want. Going out of town this weekend. Some more research may be required.</t>
-  </si>
-  <si>
-    <t>On schedule for hours</t>
-  </si>
-  <si>
-    <t>Will try to catch up on some time lost this week so I can be ahead of hours again. (scheduleStatus = min(scheduleHoursStatus, scheduleDateStatus))</t>
+    <t>Problems: Baby not letting me or my wife sleep as much as we want. When out of town this weekend. Some more research may be required. Due to finding great math library may not spend lots of time on math unit tests. Hopefully other areas will absorb more time.</t>
+  </si>
+  <si>
+    <t>Accomplishments: First of many unit tests have been written, good start on Sequential Ray tracer, found great math library that should do most everything I need done. Managed not to get behind on hours. Design mostly finished.</t>
+  </si>
+  <si>
+    <t>Will try to catch up on some time lost this week so I can be ahead of hours again.</t>
   </si>
 </sst>
 </file>
@@ -540,10 +523,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="log_2" growShrinkType="overwriteClear" fillFormulas="1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -809,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -940,8 +919,8 @@
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="6">
-        <f ca="1">SUMIF(Time!A:A,A5,Time!D:D)</f>
-        <v>22.042777777777783</v>
+        <f>SUMIF(Time!A:A,A5,Time!D:D)</f>
+        <v>22.930277777777786</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -999,12 +978,12 @@
       <c r="J7" s="5"/>
       <c r="K7" s="6">
         <f>SUMIF(Time!A:A,A7,Time!D:D)</f>
-        <v>7.9541666666666675</v>
+        <v>8.2722222222222239</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>13</v>
@@ -1013,7 +992,9 @@
         <v>41740</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="E8" s="4">
+        <v>41730</v>
+      </c>
       <c r="F8" s="4">
         <v>41753</v>
       </c>
@@ -1025,12 +1006,12 @@
       <c r="J8" s="5"/>
       <c r="K8" s="6">
         <f>SUMIF(Time!A:A,A8,Time!D:D)</f>
-        <v>0</v>
+        <v>0.11833333333333333</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>13</v>
@@ -1039,7 +1020,9 @@
         <v>41753</v>
       </c>
       <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="E9" s="4">
+        <v>41730</v>
+      </c>
       <c r="F9" s="4">
         <v>41764</v>
       </c>
@@ -1051,12 +1034,12 @@
       <c r="J9" s="5"/>
       <c r="K9" s="6">
         <f>SUMIF(Time!A:A,A9,Time!D:D)</f>
-        <v>0</v>
+        <v>2.3405555555555555</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>15</v>
@@ -1082,7 +1065,7 @@
     </row>
     <row r="11" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>15</v>
@@ -1108,28 +1091,28 @@
     </row>
     <row r="12" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>22</v>
-      </c>
       <c r="C12" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I12" s="5">
         <f>SUM(I4:I11)</f>
@@ -1137,13 +1120,13 @@
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="6">
-        <f ca="1">SUM(K4:K11)</f>
-        <v>47.959166666666668</v>
+        <f>SUM(K4:K11)</f>
+        <v>51.623611111111117</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
@@ -1199,7 +1182,7 @@
     </row>
     <row r="17" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -1227,7 +1210,7 @@
     </row>
     <row r="19" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -1242,11 +1225,11 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" s="13">
-        <f ca="1">SUMIFS(Time!D:D,Time!B:B,"&gt;="&amp;M2)</f>
-        <v>8.1722222222222225</v>
+        <f>SUMIFS(Time!D:D,Time!B:B,"&gt;="&amp;M2)</f>
+        <v>11.836666666666668</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
@@ -1260,7 +1243,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21" s="14">
         <v>156</v>
@@ -1277,7 +1260,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -1320,7 +1303,7 @@
     </row>
     <row r="25" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" s="26"/>
       <c r="C25" s="26"/>
@@ -1445,15 +1428,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D94"/>
+  <dimension ref="A1:D106"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="D94" sqref="D94"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="17" style="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -2444,7 +2427,7 @@
         <v>41722.834305555552</v>
       </c>
       <c r="D66" s="16">
-        <f t="shared" ref="D66:D94" si="1">IFERROR(MINUTE(C66-B66)/60+HOUR(C66-B66)+SECOND(C66-B66)/3600,0)</f>
+        <f t="shared" ref="D66:D106" si="1">IFERROR(MINUTE(C66-B66)/60+HOUR(C66-B66)+SECOND(C66-B66)/3600,0)</f>
         <v>1.0833333333333334E-2</v>
       </c>
     </row>
@@ -2861,12 +2844,191 @@
         <v>41730.875092592592</v>
       </c>
       <c r="C94" s="17">
-        <f ca="1">NOW()</f>
-        <v>41730.896799074071</v>
+        <v>41730.887291666666</v>
       </c>
       <c r="D94" s="16">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.52083333333333337</v>
+        <f t="shared" si="1"/>
+        <v>0.29277777777777775</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>27</v>
+      </c>
+      <c r="B95" s="17">
+        <v>41730.887291666666</v>
+      </c>
+      <c r="C95" s="17">
+        <v>41730.892222222225</v>
+      </c>
+      <c r="D95" s="16">
+        <f t="shared" si="1"/>
+        <v>0.11833333333333333</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>17</v>
+      </c>
+      <c r="B96" s="17">
+        <v>41730.892222222225</v>
+      </c>
+      <c r="C96" s="17">
+        <v>41730.908935185187</v>
+      </c>
+      <c r="D96" s="16">
+        <f t="shared" si="1"/>
+        <v>0.40111111111111114</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>16</v>
+      </c>
+      <c r="B97" s="17">
+        <v>41731.749699074076</v>
+      </c>
+      <c r="C97" s="17">
+        <v>41731.751331018517</v>
+      </c>
+      <c r="D97" s="16">
+        <f t="shared" si="1"/>
+        <v>3.9166666666666669E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>12</v>
+      </c>
+      <c r="B98" s="17">
+        <v>41731.751331018517</v>
+      </c>
+      <c r="C98" s="17">
+        <v>41731.755520833336</v>
+      </c>
+      <c r="D98" s="16">
+        <f t="shared" si="1"/>
+        <v>0.10055555555555556</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>17</v>
+      </c>
+      <c r="B99" s="17">
+        <v>41731.755532407406</v>
+      </c>
+      <c r="C99" s="17">
+        <v>41731.778969907406</v>
+      </c>
+      <c r="D99" s="16">
+        <f t="shared" si="1"/>
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>12</v>
+      </c>
+      <c r="B100" s="17">
+        <v>41731.778969907406</v>
+      </c>
+      <c r="C100" s="17">
+        <v>41731.804942129631</v>
+      </c>
+      <c r="D100" s="16">
+        <f t="shared" si="1"/>
+        <v>0.62333333333333341</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>16</v>
+      </c>
+      <c r="B101" s="17">
+        <v>41731.804942129631</v>
+      </c>
+      <c r="C101" s="17">
+        <v>41731.811168981483</v>
+      </c>
+      <c r="D101" s="16">
+        <f t="shared" si="1"/>
+        <v>0.14944444444444444</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>17</v>
+      </c>
+      <c r="B102" s="17">
+        <v>41731.811168981483</v>
+      </c>
+      <c r="C102" s="17">
+        <v>41731.828935185185</v>
+      </c>
+      <c r="D102" s="16">
+        <f t="shared" si="1"/>
+        <v>0.42638888888888893</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>17</v>
+      </c>
+      <c r="B103" s="17">
+        <v>41731.832708333335</v>
+      </c>
+      <c r="C103" s="17">
+        <v>41731.847071759257</v>
+      </c>
+      <c r="D103" s="16">
+        <f t="shared" si="1"/>
+        <v>0.34472222222222221</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>17</v>
+      </c>
+      <c r="B104" s="17">
+        <v>41731.867361111108</v>
+      </c>
+      <c r="C104" s="17">
+        <v>41731.892604166664</v>
+      </c>
+      <c r="D104" s="16">
+        <f t="shared" si="1"/>
+        <v>0.60583333333333333</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>16</v>
+      </c>
+      <c r="B105" s="17">
+        <v>41731.892604166664</v>
+      </c>
+      <c r="C105" s="17">
+        <v>41731.897997685184</v>
+      </c>
+      <c r="D105" s="16">
+        <f t="shared" si="1"/>
+        <v>0.12944444444444445</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>12</v>
+      </c>
+      <c r="B106" s="17">
+        <v>41731.898009259261</v>
+      </c>
+      <c r="C106" s="17">
+        <v>41731.9143287037</v>
+      </c>
+      <c r="D106" s="16">
+        <f t="shared" si="1"/>
+        <v>0.39166666666666672</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/report.xlsx
+++ b/Documents/report.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -788,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1430,8 +1430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documents/report.xlsx
+++ b/Documents/report.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="33">
   <si>
     <t>Michael Warren</t>
   </si>
@@ -106,9 +106,6 @@
     <t xml:space="preserve">Changes in Scope, Schedule, and Cost: </t>
   </si>
   <si>
-    <t>On schedule for hours</t>
-  </si>
-  <si>
     <t>Math Unit Test and code</t>
   </si>
   <si>
@@ -118,13 +115,19 @@
 </t>
   </si>
   <si>
-    <t>Problems: Baby not letting me or my wife sleep as much as we want. When out of town this weekend. Some more research may be required. Due to finding great math library may not spend lots of time on math unit tests. Hopefully other areas will absorb more time.</t>
+    <t>Behind Schedule (behind 1 hour)</t>
   </si>
   <si>
-    <t>Accomplishments: First of many unit tests have been written, good start on Sequential Ray tracer, found great math library that should do most everything I need done. Managed not to get behind on hours. Design mostly finished.</t>
+    <t>Will try to catch up on some time lost this weekend since I planned to take the whole weekend off any ways.</t>
   </si>
   <si>
-    <t>Will try to catch up on some time lost this week so I can be ahead of hours again.</t>
+    <t>Accomplishments: Finished initial design (few tweaks may be made). Found some math stuff to test. General Confrence was awesome. Planned for this Saturday off in initial estimates. Started to be allowed to let baby sleep at night.</t>
+  </si>
+  <si>
+    <t>Problems: Baby not letting me or my wife sleep as much as we want every other day in the week. Going out of town this weekend. (but that should not be bad).</t>
+  </si>
+  <si>
+    <t>Report as of</t>
   </si>
 </sst>
 </file>
@@ -786,10 +789,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:K16"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,17 +801,21 @@
     <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="M1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>2</v>
       </c>
@@ -831,10 +838,13 @@
       <c r="J2" s="37"/>
       <c r="K2" s="37"/>
       <c r="M2" s="1">
-        <v>41724.893750000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>41731.935416666667</v>
+      </c>
+      <c r="N2" s="1">
+        <v>41738.878807870373</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="35"/>
       <c r="B3" s="36"/>
       <c r="C3" s="2" t="s">
@@ -865,7 +875,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -895,7 +905,7 @@
         <v>14.164999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -920,10 +930,10 @@
       <c r="J5" s="5"/>
       <c r="K5" s="6">
         <f>SUMIF(Time!A:A,A5,Time!D:D)</f>
-        <v>22.930277777777786</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>26.804166666666674</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -953,7 +963,7 @@
         <v>3.7972222222222216</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
@@ -971,7 +981,9 @@
         <v>41740</v>
       </c>
       <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="H7" s="4">
+        <v>41738</v>
+      </c>
       <c r="I7" s="5">
         <v>12</v>
       </c>
@@ -981,9 +993,9 @@
         <v>8.2722222222222239</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>13</v>
@@ -1006,10 +1018,10 @@
       <c r="J8" s="5"/>
       <c r="K8" s="6">
         <f>SUMIF(Time!A:A,A8,Time!D:D)</f>
-        <v>0.11833333333333333</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3.395</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
@@ -1034,10 +1046,10 @@
       <c r="J9" s="5"/>
       <c r="K9" s="6">
         <f>SUMIF(Time!A:A,A9,Time!D:D)</f>
-        <v>2.3405555555555555</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>5.5855555555555547</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
@@ -1063,7 +1075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -1089,7 +1101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>20</v>
       </c>
@@ -1121,10 +1133,10 @@
       <c r="J12" s="5"/>
       <c r="K12" s="6">
         <f>SUM(K4:K11)</f>
-        <v>51.623611111111117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>62.019166666666678</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
         <v>30</v>
       </c>
@@ -1139,7 +1151,7 @@
       <c r="J13" s="18"/>
       <c r="K13" s="18"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="18"/>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
@@ -1152,9 +1164,9 @@
       <c r="J14" s="18"/>
       <c r="K14" s="18"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
@@ -1167,7 +1179,7 @@
       <c r="J15" s="18"/>
       <c r="K15" s="18"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -1229,7 +1241,7 @@
       </c>
       <c r="B20" s="13">
         <f>SUMIFS(Time!D:D,Time!B:B,"&gt;="&amp;M2)</f>
-        <v>11.836666666666668</v>
+        <v>10.395555555555553</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
@@ -1260,7 +1272,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -1275,7 +1287,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B23" s="20"/>
       <c r="C23" s="20"/>
@@ -1303,7 +1315,7 @@
     </row>
     <row r="25" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" s="26"/>
       <c r="C25" s="26"/>
@@ -1428,10 +1440,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D106"/>
+  <dimension ref="A1:D127"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
+    <sheetView topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="C127" sqref="C127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2427,7 +2439,7 @@
         <v>41722.834305555552</v>
       </c>
       <c r="D66" s="16">
-        <f t="shared" ref="D66:D106" si="1">IFERROR(MINUTE(C66-B66)/60+HOUR(C66-B66)+SECOND(C66-B66)/3600,0)</f>
+        <f t="shared" ref="D66:D127" si="1">IFERROR(MINUTE(C66-B66)/60+HOUR(C66-B66)+SECOND(C66-B66)/3600,0)</f>
         <v>1.0833333333333334E-2</v>
       </c>
     </row>
@@ -2853,7 +2865,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B95" s="17">
         <v>41730.887291666666</v>
@@ -3029,6 +3041,321 @@
       <c r="D106" s="16">
         <f t="shared" si="1"/>
         <v>0.39166666666666672</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>17</v>
+      </c>
+      <c r="B107" s="17">
+        <v>41734.503229166665</v>
+      </c>
+      <c r="C107" s="17">
+        <v>41734.506712962961</v>
+      </c>
+      <c r="D107" s="16">
+        <f t="shared" si="1"/>
+        <v>8.3611111111111108E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>26</v>
+      </c>
+      <c r="B108" s="17">
+        <v>41734.506724537037</v>
+      </c>
+      <c r="C108" s="17">
+        <v>41734.520868055559</v>
+      </c>
+      <c r="D108" s="16">
+        <f t="shared" si="1"/>
+        <v>0.33944444444444444</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>17</v>
+      </c>
+      <c r="B109" s="17">
+        <v>41734.520879629628</v>
+      </c>
+      <c r="C109" s="17">
+        <v>41734.547037037039</v>
+      </c>
+      <c r="D109" s="16">
+        <f t="shared" si="1"/>
+        <v>0.62777777777777777</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>12</v>
+      </c>
+      <c r="B110" s="17">
+        <v>41734.547037037039</v>
+      </c>
+      <c r="C110" s="17">
+        <v>41734.584108796298</v>
+      </c>
+      <c r="D110" s="16">
+        <f t="shared" si="1"/>
+        <v>0.88972222222222219</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>17</v>
+      </c>
+      <c r="B111" s="17">
+        <v>41734.584108796298</v>
+      </c>
+      <c r="C111" s="17">
+        <v>41734.587500000001</v>
+      </c>
+      <c r="D111" s="16">
+        <f t="shared" si="1"/>
+        <v>8.1388888888888886E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>17</v>
+      </c>
+      <c r="B112" s="17">
+        <v>41734.588125000002</v>
+      </c>
+      <c r="C112" s="17">
+        <v>41734.608668981484</v>
+      </c>
+      <c r="D112" s="16">
+        <f t="shared" si="1"/>
+        <v>0.49305555555555558</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>17</v>
+      </c>
+      <c r="B113" s="17">
+        <v>41734.608981481484</v>
+      </c>
+      <c r="C113" s="17">
+        <v>41734.616053240738</v>
+      </c>
+      <c r="D113" s="16">
+        <f t="shared" si="1"/>
+        <v>0.16972222222222222</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>17</v>
+      </c>
+      <c r="B114" s="17">
+        <v>41734.618368055555</v>
+      </c>
+      <c r="C114" s="17">
+        <v>41734.631608796299</v>
+      </c>
+      <c r="D114" s="16">
+        <f t="shared" si="1"/>
+        <v>0.31777777777777777</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>17</v>
+      </c>
+      <c r="B115" s="17">
+        <v>41734.632384259261</v>
+      </c>
+      <c r="C115" s="17">
+        <v>41734.657233796293</v>
+      </c>
+      <c r="D115" s="16">
+        <f t="shared" si="1"/>
+        <v>0.59638888888888897</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>17</v>
+      </c>
+      <c r="B116" s="17">
+        <v>41734.662800925929</v>
+      </c>
+      <c r="C116" s="17">
+        <v>41734.685081018521</v>
+      </c>
+      <c r="D116" s="16">
+        <f t="shared" si="1"/>
+        <v>0.53472222222222221</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>17</v>
+      </c>
+      <c r="B117" s="17">
+        <v>41734.692870370367</v>
+      </c>
+      <c r="C117" s="17">
+        <v>41734.700868055559</v>
+      </c>
+      <c r="D117" s="16">
+        <f t="shared" si="1"/>
+        <v>0.19194444444444442</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>17</v>
+      </c>
+      <c r="B118" s="17">
+        <v>41736.897430555553</v>
+      </c>
+      <c r="C118" s="17">
+        <v>41736.90347222222</v>
+      </c>
+      <c r="D118" s="16">
+        <f t="shared" si="1"/>
+        <v>0.14499999999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>17</v>
+      </c>
+      <c r="B119" s="17">
+        <v>41737.775752314818</v>
+      </c>
+      <c r="C119" s="17">
+        <v>41737.775902777779</v>
+      </c>
+      <c r="D119" s="16">
+        <f t="shared" si="1"/>
+        <v>3.6111111111111109E-3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>12</v>
+      </c>
+      <c r="B120" s="17">
+        <v>41737.775902777779</v>
+      </c>
+      <c r="C120" s="17">
+        <v>41737.793912037036</v>
+      </c>
+      <c r="D120" s="16">
+        <f t="shared" si="1"/>
+        <v>0.43222222222222223</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>12</v>
+      </c>
+      <c r="B121" s="17">
+        <v>41737.79619212963</v>
+      </c>
+      <c r="C121" s="17">
+        <v>41737.859594907408</v>
+      </c>
+      <c r="D121" s="16">
+        <f t="shared" si="1"/>
+        <v>1.5216666666666665</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>26</v>
+      </c>
+      <c r="B122" s="17">
+        <v>41737.859618055554</v>
+      </c>
+      <c r="C122" s="17">
+        <v>41737.860972222225</v>
+      </c>
+      <c r="D122" s="16">
+        <f t="shared" si="1"/>
+        <v>3.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>26</v>
+      </c>
+      <c r="B123" s="17">
+        <v>41737.880543981482</v>
+      </c>
+      <c r="C123" s="17">
+        <v>41737.881261574075</v>
+      </c>
+      <c r="D123" s="16">
+        <f t="shared" si="1"/>
+        <v>1.7222222222222222E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>26</v>
+      </c>
+      <c r="B124" s="17">
+        <v>41737.882893518516</v>
+      </c>
+      <c r="C124" s="17">
+        <v>41737.921203703707</v>
+      </c>
+      <c r="D124" s="16">
+        <f t="shared" si="1"/>
+        <v>0.9194444444444444</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>26</v>
+      </c>
+      <c r="B125" s="17">
+        <v>41738.751921296294</v>
+      </c>
+      <c r="C125" s="17">
+        <v>41738.798680555556</v>
+      </c>
+      <c r="D125" s="16">
+        <f t="shared" si="1"/>
+        <v>1.1222222222222222</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>12</v>
+      </c>
+      <c r="B126" s="17">
+        <v>41738.798680555556</v>
+      </c>
+      <c r="C126" s="17">
+        <v>41738.841608796298</v>
+      </c>
+      <c r="D126" s="16">
+        <f t="shared" si="1"/>
+        <v>1.0302777777777776</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>26</v>
+      </c>
+      <c r="B127" s="17">
+        <v>41738.843564814815</v>
+      </c>
+      <c r="C127" s="17">
+        <v>41738.878807870373</v>
+      </c>
+      <c r="D127" s="16">
+        <f t="shared" si="1"/>
+        <v>0.84583333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/report.xlsx
+++ b/Documents/report.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="32">
   <si>
     <t>Michael Warren</t>
   </si>
@@ -109,34 +109,33 @@
     <t>Math Unit Test and code</t>
   </si>
   <si>
+    <t>Report as of</t>
+  </si>
+  <si>
+    <t>On Schedule</t>
+  </si>
+  <si>
+    <t>Accomplishments: Unit tests for hit functions on Box and shpere are done and passing. Managed to get back on schedule mainly because schedule included travels on Saturday. Baby sleeping through the night. =D Marking end of research. May need a little more for later but calling it good for now.</t>
+  </si>
+  <si>
+    <t>Problems: Should have scheduled Monday off to reduce stress after travels. More planned travels this weekend.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Scripture
 " 15 For behold, we are in bondage to the [senior project] and are taxed with a tax which is grievous to be borne..." - Mosiah 7:15
-"Even the youths shall faint and be weary, and the young men shall utterly fall: " Isaiah 40:30
+" 20 ¶And it came to pass the third day, which was Pharaoh’s birthday, that he made a feast unto all his servants: and he lifted up the head of the chief butler and of the chief baker among his servants.
+ 21 And he restored the chief butler unto his butlership again; and he gave the cup into Pharaoh’s hand:" Genisis 40:20-21
 </t>
-  </si>
-  <si>
-    <t>Behind Schedule (behind 1 hour)</t>
-  </si>
-  <si>
-    <t>Will try to catch up on some time lost this weekend since I planned to take the whole weekend off any ways.</t>
-  </si>
-  <si>
-    <t>Accomplishments: Finished initial design (few tweaks may be made). Found some math stuff to test. General Confrence was awesome. Planned for this Saturday off in initial estimates. Started to be allowed to let baby sleep at night.</t>
-  </si>
-  <si>
-    <t>Problems: Baby not letting me or my wife sleep as much as we want every other day in the week. Going out of town this weekend. (but that should not be bad).</t>
-  </si>
-  <si>
-    <t>Report as of</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="dd/mm\ h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="168" formatCode="m/d/yyyy\ h:mm\ AM/PM"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -427,7 +426,6 @@
   </cellStyleXfs>
   <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -508,6 +506,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -792,7 +791,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -800,8 +799,7 @@
     <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -812,612 +810,612 @@
         <v>1</v>
       </c>
       <c r="N1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37" t="s">
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37" t="s">
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="M2" s="1">
-        <v>41731.935416666667</v>
-      </c>
-      <c r="N2" s="1">
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="M2" s="37">
         <v>41738.878807870373</v>
       </c>
+      <c r="N2" s="37">
+        <v>41745.894872685189</v>
+      </c>
     </row>
     <row r="3" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="35"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="2" t="s">
+      <c r="A3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>41704</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3">
         <v>41704</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>41711</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4">
+      <c r="G4" s="3"/>
+      <c r="H4" s="3">
         <v>41710</v>
       </c>
-      <c r="I4" s="5">
-        <v>12</v>
-      </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="6">
+      <c r="I4" s="4">
+        <v>12</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="5">
         <f>SUMIF(Time!A:A,A4,Time!D:D)</f>
         <v>14.164999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>41711</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3">
         <v>41710</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>41729</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="5">
+      <c r="G5" s="3"/>
+      <c r="H5" s="3">
+        <v>41745</v>
+      </c>
+      <c r="I5" s="4">
         <v>30</v>
       </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="6">
+      <c r="J5" s="4"/>
+      <c r="K5" s="5">
         <f>SUMIF(Time!A:A,A5,Time!D:D)</f>
-        <v>26.804166666666674</v>
+        <v>27.455277777777784</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>41729</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3">
         <v>41713</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>41733</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4">
+      <c r="G6" s="3"/>
+      <c r="H6" s="3">
         <v>41724</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <v>6</v>
       </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="6">
+      <c r="J6" s="4"/>
+      <c r="K6" s="5">
         <f>SUMIF(Time!A:A,A6,Time!D:D)</f>
         <v>3.7972222222222216</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>41733</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3">
         <v>41724</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>41740</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4">
+      <c r="G7" s="3"/>
+      <c r="H7" s="3">
         <v>41738</v>
       </c>
-      <c r="I7" s="5">
-        <v>12</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="6">
+      <c r="I7" s="4">
+        <v>12</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="5">
         <f>SUMIF(Time!A:A,A7,Time!D:D)</f>
         <v>8.2722222222222239</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>41740</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3">
         <v>41730</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>41753</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="5">
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="4">
         <v>18</v>
       </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="6">
+      <c r="J8" s="4"/>
+      <c r="K8" s="5">
         <f>SUMIF(Time!A:A,A8,Time!D:D)</f>
-        <v>3.395</v>
+        <v>5.2519444444444447</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>41753</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3">
         <v>41730</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>41764</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="5">
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="4">
         <v>18</v>
       </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="6">
+      <c r="J9" s="4"/>
+      <c r="K9" s="5">
         <f>SUMIF(Time!A:A,A9,Time!D:D)</f>
-        <v>5.5855555555555547</v>
+        <v>12.414999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>41764</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3">
         <v>41774</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="5">
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="4">
         <v>18</v>
       </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="6">
+      <c r="J10" s="4"/>
+      <c r="K10" s="5">
         <f>SUMIF(Time!A:A,A10,Time!D:D)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>41774</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3">
         <v>41799</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="5">
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="4">
         <v>42</v>
       </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="6">
+      <c r="J11" s="4"/>
+      <c r="K11" s="5">
         <f>SUMIF(Time!A:A,A11,Time!D:D)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="4">
         <f>SUM(I4:I11)</f>
         <v>156</v>
       </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="6">
+      <c r="J12" s="4"/>
+      <c r="K12" s="5">
         <f>SUM(K4:K11)</f>
-        <v>62.019166666666678</v>
+        <v>71.356666666666683</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+    </row>
+    <row r="14" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+    </row>
+    <row r="15" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-    </row>
-    <row r="14" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-    </row>
-    <row r="15" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+    </row>
+    <row r="16" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+    </row>
+    <row r="17" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+    </row>
+    <row r="18" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="10"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="12">
+        <f>SUMIFS(Time!D:D,Time!B:B,"&gt;="&amp;M2)</f>
+        <v>9.3375000000000004</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="14"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="13">
+        <v>156</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="14"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="14"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="18"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="20"/>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="21"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="23"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-    </row>
-    <row r="16" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-    </row>
-    <row r="17" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-    </row>
-    <row r="18" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-    </row>
-    <row r="19" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="11"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="13">
-        <f>SUMIFS(Time!D:D,Time!B:B,"&gt;="&amp;M2)</f>
-        <v>10.395555555555553</v>
-      </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="15"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="14">
-        <v>156</v>
-      </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="15"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="15"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="21"/>
-    </row>
-    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="22"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="24"/>
-    </row>
-    <row r="25" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="27"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="26"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="30"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="29"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="28"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="30"/>
+      <c r="A27" s="27"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="29"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="28"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="30"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="29"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="28"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="30"/>
+      <c r="A29" s="27"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="29"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="28"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="30"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="29"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="28"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="30"/>
+      <c r="A31" s="27"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="29"/>
     </row>
     <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="31"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="32"/>
-      <c r="K32" s="33"/>
+      <c r="A32" s="30"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="32"/>
     </row>
     <row r="33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -1440,16 +1438,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D127"/>
+  <dimension ref="A1:D140"/>
   <sheetViews>
-    <sheetView topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="C127" sqref="C127"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="C139" sqref="C139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="17" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="17" style="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1457,13 +1455,13 @@
       <c r="A1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="17">
+      <c r="B1" s="16">
         <v>41703</v>
       </c>
-      <c r="C1" s="17">
+      <c r="C1" s="16">
         <v>41703.083333333336</v>
       </c>
-      <c r="D1" s="16">
+      <c r="D1" s="15">
         <f>IFERROR(MINUTE(C1-B1)/60+HOUR(C1-B1)+SECOND(C1-B1)/3600,0)</f>
         <v>2</v>
       </c>
@@ -1472,13 +1470,13 @@
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="16">
         <v>41704</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="16">
         <v>41704.125</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="15">
         <f t="shared" ref="D2:D65" si="0">IFERROR(MINUTE(C2-B2)/60+HOUR(C2-B2)+SECOND(C2-B2)/3600,0)</f>
         <v>3</v>
       </c>
@@ -1487,13 +1485,13 @@
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="16">
         <v>41705</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="16">
         <v>41705.003472222219</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="15">
         <f t="shared" si="0"/>
         <v>8.3333333333333329E-2</v>
       </c>
@@ -1502,13 +1500,13 @@
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="16">
         <v>41706.342199074075</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="16">
         <v>41706.345081018517</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="15">
         <f t="shared" si="0"/>
         <v>6.9166666666666668E-2</v>
       </c>
@@ -1517,13 +1515,13 @@
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="16">
         <v>41706.351979166669</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="16">
         <v>41706.35832175926</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="15">
         <f t="shared" si="0"/>
         <v>0.1522222222222222</v>
       </c>
@@ -1532,13 +1530,13 @@
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="16">
         <v>41706.551990740743</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="16">
         <v>41706.615694444445</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="15">
         <f t="shared" si="0"/>
         <v>1.5288888888888887</v>
       </c>
@@ -1547,13 +1545,13 @@
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="16">
         <v>41706.637696759259</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="16">
         <v>41706.661921296298</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="15">
         <f t="shared" si="0"/>
         <v>0.58138888888888884</v>
       </c>
@@ -1562,13 +1560,13 @@
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="16">
         <v>41706.663194444445</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="16">
         <v>41706.674907407411</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="15">
         <f t="shared" si="0"/>
         <v>0.28111111111111109</v>
       </c>
@@ -1577,13 +1575,13 @@
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="16">
         <v>41706.674907407411</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="16">
         <v>41706.675300925926</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="15">
         <f t="shared" si="0"/>
         <v>9.4444444444444445E-3</v>
       </c>
@@ -1592,13 +1590,13 @@
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="16">
         <v>41706.683437500003</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="16">
         <v>41706.718923611108</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="15">
         <f t="shared" si="0"/>
         <v>0.85166666666666668</v>
       </c>
@@ -1607,13 +1605,13 @@
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="16">
         <v>41706.726064814815</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="16">
         <v>41706.762129629627</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="15">
         <f t="shared" si="0"/>
         <v>0.86555555555555552</v>
       </c>
@@ -1622,13 +1620,13 @@
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="16">
         <v>41706.868067129632</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="16">
         <v>41706.919120370374</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="15">
         <f t="shared" si="0"/>
         <v>1.2252777777777779</v>
       </c>
@@ -1637,13 +1635,13 @@
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="16">
         <v>41708.818229166667</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="16">
         <v>41708.821111111109</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="15">
         <f t="shared" si="0"/>
         <v>6.9166666666666668E-2</v>
       </c>
@@ -1652,13 +1650,13 @@
       <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="16">
         <v>41708.833333333336</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="16">
         <v>41708.871087962965</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="15">
         <f t="shared" si="0"/>
         <v>0.90611111111111109</v>
       </c>
@@ -1667,13 +1665,13 @@
       <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="16">
         <v>41708.875636574077</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="16">
         <v>41708.888611111113</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="15">
         <f t="shared" si="0"/>
         <v>0.31138888888888888</v>
       </c>
@@ -1682,13 +1680,13 @@
       <c r="A16" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="16">
         <v>41708.889062499999</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="16">
         <v>41708.891516203701</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="15">
         <f t="shared" si="0"/>
         <v>5.8888888888888893E-2</v>
       </c>
@@ -1697,13 +1695,13 @@
       <c r="A17" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="16">
         <v>41709.76053240741</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="16">
         <v>41709.779062499998</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="15">
         <f t="shared" si="0"/>
         <v>0.44472222222222224</v>
       </c>
@@ -1712,13 +1710,13 @@
       <c r="A18" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="16">
         <v>41709.779108796298</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="16">
         <v>41709.821388888886</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="15">
         <f t="shared" si="0"/>
         <v>1.0147222222222223</v>
       </c>
@@ -1727,13 +1725,13 @@
       <c r="A19" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="16">
         <v>41709.826388888891</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="16">
         <v>41709.856053240743</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="15">
         <f t="shared" si="0"/>
         <v>0.71194444444444438</v>
       </c>
@@ -1742,13 +1740,13 @@
       <c r="A20" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="17">
+      <c r="B20" s="16">
         <v>41710.793715277781</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="16">
         <v>41710.812291666669</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="15">
         <f t="shared" si="0"/>
         <v>0.44583333333333336</v>
       </c>
@@ -1757,13 +1755,13 @@
       <c r="A21" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="17">
+      <c r="B21" s="16">
         <v>41710.813634259262</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C21" s="16">
         <v>41710.81759259259</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="15">
         <f t="shared" si="0"/>
         <v>9.5000000000000001E-2</v>
       </c>
@@ -1772,13 +1770,13 @@
       <c r="A22" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="17">
+      <c r="B22" s="16">
         <v>41710.817696759259</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="16">
         <v>41710.848356481481</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="15">
         <f t="shared" si="0"/>
         <v>0.73583333333333323</v>
       </c>
@@ -1787,13 +1785,13 @@
       <c r="A23" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="17">
+      <c r="B23" s="16">
         <v>41710.868043981478</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C23" s="16">
         <v>41710.902800925927</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="15">
         <f t="shared" si="0"/>
         <v>0.83416666666666672</v>
       </c>
@@ -1802,13 +1800,13 @@
       <c r="A24" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="17">
+      <c r="B24" s="16">
         <v>41711.776192129626</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="16">
         <v>41711.807118055556</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D24" s="15">
         <f t="shared" si="0"/>
         <v>0.74222222222222212</v>
       </c>
@@ -1817,13 +1815,13 @@
       <c r="A25" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="17">
+      <c r="B25" s="16">
         <v>41711.888275462959</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C25" s="16">
         <v>41711.889409722222</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D25" s="15">
         <f t="shared" si="0"/>
         <v>2.7222222222222224E-2</v>
       </c>
@@ -1832,13 +1830,13 @@
       <c r="A26" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="17">
+      <c r="B26" s="16">
         <v>41713.515601851854</v>
       </c>
-      <c r="C26" s="17">
+      <c r="C26" s="16">
         <v>41713.573229166665</v>
       </c>
-      <c r="D26" s="16">
+      <c r="D26" s="15">
         <f t="shared" si="0"/>
         <v>1.3830555555555555</v>
       </c>
@@ -1847,13 +1845,13 @@
       <c r="A27" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="17">
+      <c r="B27" s="16">
         <v>41713.577719907407</v>
       </c>
-      <c r="C27" s="17">
+      <c r="C27" s="16">
         <v>41713.632222222222</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D27" s="15">
         <f t="shared" si="0"/>
         <v>1.3080555555555555</v>
       </c>
@@ -1862,13 +1860,13 @@
       <c r="A28" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="17">
+      <c r="B28" s="16">
         <v>41713.640868055554</v>
       </c>
-      <c r="C28" s="17">
+      <c r="C28" s="16">
         <v>41713.703414351854</v>
       </c>
-      <c r="D28" s="16">
+      <c r="D28" s="15">
         <f t="shared" si="0"/>
         <v>1.5011111111111111</v>
       </c>
@@ -1877,13 +1875,13 @@
       <c r="A29" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="17">
+      <c r="B29" s="16">
         <v>41713.70517361111</v>
       </c>
-      <c r="C29" s="17">
+      <c r="C29" s="16">
         <v>41713.720752314817</v>
       </c>
-      <c r="D29" s="16">
+      <c r="D29" s="15">
         <f t="shared" si="0"/>
         <v>0.37388888888888888</v>
       </c>
@@ -1892,13 +1890,13 @@
       <c r="A30" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="17">
+      <c r="B30" s="16">
         <v>41713.720983796295</v>
       </c>
-      <c r="C30" s="17">
+      <c r="C30" s="16">
         <v>41713.728819444441</v>
       </c>
-      <c r="D30" s="16">
+      <c r="D30" s="15">
         <f t="shared" si="0"/>
         <v>0.18805555555555553</v>
       </c>
@@ -1907,13 +1905,13 @@
       <c r="A31" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="17">
+      <c r="B31" s="16">
         <v>41713.72928240741</v>
       </c>
-      <c r="C31" s="17">
+      <c r="C31" s="16">
         <v>41713.730532407404</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D31" s="15">
         <f t="shared" si="0"/>
         <v>0.03</v>
       </c>
@@ -1922,13 +1920,13 @@
       <c r="A32" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="17">
+      <c r="B32" s="16">
         <v>41713.73060185185</v>
       </c>
-      <c r="C32" s="17">
+      <c r="C32" s="16">
         <v>41713.748333333337</v>
       </c>
-      <c r="D32" s="16">
+      <c r="D32" s="15">
         <f t="shared" si="0"/>
         <v>0.42555555555555558</v>
       </c>
@@ -1937,13 +1935,13 @@
       <c r="A33" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="17">
+      <c r="B33" s="16">
         <v>41713.748402777775</v>
       </c>
-      <c r="C33" s="17">
+      <c r="C33" s="16">
         <v>41713.748495370368</v>
       </c>
-      <c r="D33" s="16">
+      <c r="D33" s="15">
         <f t="shared" si="0"/>
         <v>2.2222222222222222E-3</v>
       </c>
@@ -1952,13 +1950,13 @@
       <c r="A34" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="17">
+      <c r="B34" s="16">
         <v>41715.791180555556</v>
       </c>
-      <c r="C34" s="17">
+      <c r="C34" s="16">
         <v>41715.7966087963</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D34" s="15">
         <f t="shared" si="0"/>
         <v>0.13027777777777777</v>
       </c>
@@ -1967,13 +1965,13 @@
       <c r="A35" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="17">
+      <c r="B35" s="16">
         <v>41715.79996527778</v>
       </c>
-      <c r="C35" s="17">
+      <c r="C35" s="16">
         <v>41715.807303240741</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="15">
         <f t="shared" si="0"/>
         <v>0.17611111111111111</v>
       </c>
@@ -1982,13 +1980,13 @@
       <c r="A36" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="17">
+      <c r="B36" s="16">
         <v>41715.807743055557</v>
       </c>
-      <c r="C36" s="17">
+      <c r="C36" s="16">
         <v>41715.815370370372</v>
       </c>
-      <c r="D36" s="16">
+      <c r="D36" s="15">
         <f t="shared" si="0"/>
         <v>0.18305555555555555</v>
       </c>
@@ -1997,13 +1995,13 @@
       <c r="A37" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="17">
+      <c r="B37" s="16">
         <v>41715.815578703703</v>
       </c>
-      <c r="C37" s="17">
+      <c r="C37" s="16">
         <v>41715.824884259258</v>
       </c>
-      <c r="D37" s="16">
+      <c r="D37" s="15">
         <f t="shared" si="0"/>
         <v>0.22333333333333333</v>
       </c>
@@ -2012,13 +2010,13 @@
       <c r="A38" t="s">
         <v>12</v>
       </c>
-      <c r="B38" s="17">
+      <c r="B38" s="16">
         <v>41715.829351851855</v>
       </c>
-      <c r="C38" s="17">
+      <c r="C38" s="16">
         <v>41715.835335648146</v>
       </c>
-      <c r="D38" s="16">
+      <c r="D38" s="15">
         <f t="shared" si="0"/>
         <v>0.14361111111111111</v>
       </c>
@@ -2027,13 +2025,13 @@
       <c r="A39" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="17">
+      <c r="B39" s="16">
         <v>41715.845879629633</v>
       </c>
-      <c r="C39" s="17">
+      <c r="C39" s="16">
         <v>41715.857349537036</v>
       </c>
-      <c r="D39" s="16">
+      <c r="D39" s="15">
         <f t="shared" si="0"/>
         <v>0.27527777777777779</v>
       </c>
@@ -2042,13 +2040,13 @@
       <c r="A40" t="s">
         <v>14</v>
       </c>
-      <c r="B40" s="17">
+      <c r="B40" s="16">
         <v>41715.858807870369</v>
       </c>
-      <c r="C40" s="17">
+      <c r="C40" s="16">
         <v>41715.861932870372</v>
       </c>
-      <c r="D40" s="16">
+      <c r="D40" s="15">
         <f t="shared" si="0"/>
         <v>7.4999999999999997E-2</v>
       </c>
@@ -2057,13 +2055,13 @@
       <c r="A41" t="s">
         <v>14</v>
       </c>
-      <c r="B41" s="17">
+      <c r="B41" s="16">
         <v>41715.864108796297</v>
       </c>
-      <c r="C41" s="17">
+      <c r="C41" s="16">
         <v>41715.869189814817</v>
       </c>
-      <c r="D41" s="16">
+      <c r="D41" s="15">
         <f t="shared" si="0"/>
         <v>0.12194444444444445</v>
       </c>
@@ -2072,13 +2070,13 @@
       <c r="A42" t="s">
         <v>14</v>
       </c>
-      <c r="B42" s="17">
+      <c r="B42" s="16">
         <v>41715.871111111112</v>
       </c>
-      <c r="C42" s="17">
+      <c r="C42" s="16">
         <v>41715.891273148147</v>
       </c>
-      <c r="D42" s="16">
+      <c r="D42" s="15">
         <f t="shared" si="0"/>
         <v>0.48388888888888887</v>
       </c>
@@ -2087,13 +2085,13 @@
       <c r="A43" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="17">
+      <c r="B43" s="16">
         <v>41715.891435185185</v>
       </c>
-      <c r="C43" s="17">
+      <c r="C43" s="16">
         <v>41715.899571759262</v>
       </c>
-      <c r="D43" s="16">
+      <c r="D43" s="15">
         <f t="shared" si="0"/>
         <v>0.19527777777777777</v>
       </c>
@@ -2102,13 +2100,13 @@
       <c r="A44" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="17">
+      <c r="B44" s="16">
         <v>41716.757418981484</v>
       </c>
-      <c r="C44" s="17">
+      <c r="C44" s="16">
         <v>41716.77915509259</v>
       </c>
-      <c r="D44" s="16">
+      <c r="D44" s="15">
         <f t="shared" si="0"/>
         <v>0.52166666666666672</v>
       </c>
@@ -2117,13 +2115,13 @@
       <c r="A45" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="17">
+      <c r="B45" s="16">
         <v>41716.780740740738</v>
       </c>
-      <c r="C45" s="17">
+      <c r="C45" s="16">
         <v>41716.797280092593</v>
       </c>
-      <c r="D45" s="16">
+      <c r="D45" s="15">
         <f t="shared" si="0"/>
         <v>0.39694444444444449</v>
       </c>
@@ -2132,13 +2130,13 @@
       <c r="A46" t="s">
         <v>12</v>
       </c>
-      <c r="B46" s="17">
+      <c r="B46" s="16">
         <v>41716.798055555555</v>
       </c>
-      <c r="C46" s="17">
+      <c r="C46" s="16">
         <v>41716.814398148148</v>
       </c>
-      <c r="D46" s="16">
+      <c r="D46" s="15">
         <f t="shared" si="0"/>
         <v>0.39222222222222225</v>
       </c>
@@ -2147,13 +2145,13 @@
       <c r="A47" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="17">
+      <c r="B47" s="16">
         <v>41716.815648148149</v>
       </c>
-      <c r="C47" s="17">
+      <c r="C47" s="16">
         <v>41716.815729166665</v>
       </c>
-      <c r="D47" s="16">
+      <c r="D47" s="15">
         <f t="shared" si="0"/>
         <v>1.9444444444444444E-3</v>
       </c>
@@ -2162,13 +2160,13 @@
       <c r="A48" t="s">
         <v>12</v>
       </c>
-      <c r="B48" s="17">
+      <c r="B48" s="16">
         <v>41716.820902777778</v>
       </c>
-      <c r="C48" s="17">
+      <c r="C48" s="16">
         <v>41716.824953703705</v>
       </c>
-      <c r="D48" s="16">
+      <c r="D48" s="15">
         <f t="shared" si="0"/>
         <v>9.722222222222221E-2</v>
       </c>
@@ -2177,13 +2175,13 @@
       <c r="A49" t="s">
         <v>12</v>
       </c>
-      <c r="B49" s="17">
+      <c r="B49" s="16">
         <v>41716.851666666669</v>
       </c>
-      <c r="C49" s="17">
+      <c r="C49" s="16">
         <v>41716.896493055552</v>
       </c>
-      <c r="D49" s="16">
+      <c r="D49" s="15">
         <f t="shared" si="0"/>
         <v>1.0758333333333334</v>
       </c>
@@ -2192,13 +2190,13 @@
       <c r="A50" t="s">
         <v>12</v>
       </c>
-      <c r="B50" s="17">
+      <c r="B50" s="16">
         <v>41717.782754629632</v>
       </c>
-      <c r="C50" s="17">
+      <c r="C50" s="16">
         <v>41717.786817129629</v>
       </c>
-      <c r="D50" s="16">
+      <c r="D50" s="15">
         <f t="shared" si="0"/>
         <v>9.7499999999999989E-2</v>
       </c>
@@ -2207,13 +2205,13 @@
       <c r="A51" t="s">
         <v>12</v>
       </c>
-      <c r="B51" s="17">
+      <c r="B51" s="16">
         <v>41717.787893518522</v>
       </c>
-      <c r="C51" s="17">
+      <c r="C51" s="16">
         <v>41717.789687500001</v>
       </c>
-      <c r="D51" s="16">
+      <c r="D51" s="15">
         <f t="shared" si="0"/>
         <v>4.3055555555555555E-2</v>
       </c>
@@ -2222,13 +2220,13 @@
       <c r="A52" t="s">
         <v>12</v>
       </c>
-      <c r="B52" s="17">
+      <c r="B52" s="16">
         <v>41717.799791666665</v>
       </c>
-      <c r="C52" s="17">
+      <c r="C52" s="16">
         <v>41717.817499999997</v>
       </c>
-      <c r="D52" s="16">
+      <c r="D52" s="15">
         <f t="shared" si="0"/>
         <v>0.42500000000000004</v>
       </c>
@@ -2237,13 +2235,13 @@
       <c r="A53" t="s">
         <v>12</v>
       </c>
-      <c r="B53" s="17">
+      <c r="B53" s="16">
         <v>41717.826655092591</v>
       </c>
-      <c r="C53" s="17">
+      <c r="C53" s="16">
         <v>41717.899189814816</v>
       </c>
-      <c r="D53" s="16">
+      <c r="D53" s="15">
         <f t="shared" si="0"/>
         <v>1.7408333333333335</v>
       </c>
@@ -2252,13 +2250,13 @@
       <c r="A54" t="s">
         <v>14</v>
       </c>
-      <c r="B54" s="17">
+      <c r="B54" s="16">
         <v>41717.899317129632</v>
       </c>
-      <c r="C54" s="17">
+      <c r="C54" s="16">
         <v>41717.902754629627</v>
       </c>
-      <c r="D54" s="16">
+      <c r="D54" s="15">
         <f t="shared" si="0"/>
         <v>8.2500000000000004E-2</v>
       </c>
@@ -2267,13 +2265,13 @@
       <c r="A55" t="s">
         <v>14</v>
       </c>
-      <c r="B55" s="17">
+      <c r="B55" s="16">
         <v>41717.90284722222</v>
       </c>
-      <c r="C55" s="17">
+      <c r="C55" s="16">
         <v>41717.908275462964</v>
       </c>
-      <c r="D55" s="16">
+      <c r="D55" s="15">
         <f t="shared" si="0"/>
         <v>0.13027777777777777</v>
       </c>
@@ -2282,13 +2280,13 @@
       <c r="A56" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="17">
+      <c r="B56" s="16">
         <v>41717.908865740741</v>
       </c>
-      <c r="C56" s="17">
+      <c r="C56" s="16">
         <v>41717.908993055556</v>
       </c>
-      <c r="D56" s="16">
+      <c r="D56" s="15">
         <f t="shared" si="0"/>
         <v>3.0555555555555557E-3</v>
       </c>
@@ -2297,13 +2295,13 @@
       <c r="A57" t="s">
         <v>12</v>
       </c>
-      <c r="B57" s="17">
+      <c r="B57" s="16">
         <v>41718.823206018518</v>
       </c>
-      <c r="C57" s="17">
+      <c r="C57" s="16">
         <v>41718.846122685187</v>
       </c>
-      <c r="D57" s="16">
+      <c r="D57" s="15">
         <f t="shared" si="0"/>
         <v>0.55000000000000004</v>
       </c>
@@ -2312,13 +2310,13 @@
       <c r="A58" t="s">
         <v>14</v>
       </c>
-      <c r="B58" s="17">
+      <c r="B58" s="16">
         <v>41718.846319444441</v>
       </c>
-      <c r="C58" s="17">
+      <c r="C58" s="16">
         <v>41718.897256944445</v>
       </c>
-      <c r="D58" s="16">
+      <c r="D58" s="15">
         <f t="shared" si="0"/>
         <v>1.2225000000000001</v>
       </c>
@@ -2327,13 +2325,13 @@
       <c r="A59" t="s">
         <v>14</v>
       </c>
-      <c r="B59" s="17">
+      <c r="B59" s="16">
         <v>41720.644143518519</v>
       </c>
-      <c r="C59" s="17">
+      <c r="C59" s="16">
         <v>41720.646377314813</v>
       </c>
-      <c r="D59" s="16">
+      <c r="D59" s="15">
         <f t="shared" si="0"/>
         <v>5.3611111111111116E-2</v>
       </c>
@@ -2342,13 +2340,13 @@
       <c r="A60" t="s">
         <v>12</v>
       </c>
-      <c r="B60" s="17">
+      <c r="B60" s="16">
         <v>41720.646458333336</v>
       </c>
-      <c r="C60" s="17">
+      <c r="C60" s="16">
         <v>41720.71539351852</v>
       </c>
-      <c r="D60" s="16">
+      <c r="D60" s="15">
         <f t="shared" si="0"/>
         <v>1.6544444444444444</v>
       </c>
@@ -2357,13 +2355,13 @@
       <c r="A61" t="s">
         <v>12</v>
       </c>
-      <c r="B61" s="17">
+      <c r="B61" s="16">
         <v>41720.72351851852</v>
       </c>
-      <c r="C61" s="17">
+      <c r="C61" s="16">
         <v>41720.763981481483</v>
       </c>
-      <c r="D61" s="16">
+      <c r="D61" s="15">
         <f t="shared" si="0"/>
         <v>0.97111111111111115</v>
       </c>
@@ -2372,13 +2370,13 @@
       <c r="A62" t="s">
         <v>12</v>
       </c>
-      <c r="B62" s="17">
+      <c r="B62" s="16">
         <v>41720.764502314814</v>
       </c>
-      <c r="C62" s="17">
+      <c r="C62" s="16">
         <v>41720.765486111108</v>
       </c>
-      <c r="D62" s="16">
+      <c r="D62" s="15">
         <f t="shared" si="0"/>
         <v>2.361111111111111E-2</v>
       </c>
@@ -2387,13 +2385,13 @@
       <c r="A63" t="s">
         <v>12</v>
       </c>
-      <c r="B63" s="17">
+      <c r="B63" s="16">
         <v>41720.769178240742</v>
       </c>
-      <c r="C63" s="17">
+      <c r="C63" s="16">
         <v>41720.786099537036</v>
       </c>
-      <c r="D63" s="16">
+      <c r="D63" s="15">
         <f t="shared" si="0"/>
         <v>0.40611111111111114</v>
       </c>
@@ -2402,13 +2400,13 @@
       <c r="A64" t="s">
         <v>12</v>
       </c>
-      <c r="B64" s="17">
+      <c r="B64" s="16">
         <v>41720.812916666669</v>
       </c>
-      <c r="C64" s="17">
+      <c r="C64" s="16">
         <v>41720.823854166665</v>
       </c>
-      <c r="D64" s="16">
+      <c r="D64" s="15">
         <f t="shared" si="0"/>
         <v>0.26250000000000001</v>
       </c>
@@ -2417,13 +2415,13 @@
       <c r="A65" t="s">
         <v>12</v>
       </c>
-      <c r="B65" s="17">
+      <c r="B65" s="16">
         <v>41720.860671296294</v>
       </c>
-      <c r="C65" s="17">
+      <c r="C65" s="16">
         <v>41720.891828703701</v>
       </c>
-      <c r="D65" s="16">
+      <c r="D65" s="15">
         <f t="shared" si="0"/>
         <v>0.74777777777777776</v>
       </c>
@@ -2432,14 +2430,14 @@
       <c r="A66" t="s">
         <v>14</v>
       </c>
-      <c r="B66" s="17">
+      <c r="B66" s="16">
         <v>41722.833854166667</v>
       </c>
-      <c r="C66" s="17">
+      <c r="C66" s="16">
         <v>41722.834305555552</v>
       </c>
-      <c r="D66" s="16">
-        <f t="shared" ref="D66:D127" si="1">IFERROR(MINUTE(C66-B66)/60+HOUR(C66-B66)+SECOND(C66-B66)/3600,0)</f>
+      <c r="D66" s="15">
+        <f t="shared" ref="D66:D129" si="1">IFERROR(MINUTE(C66-B66)/60+HOUR(C66-B66)+SECOND(C66-B66)/3600,0)</f>
         <v>1.0833333333333334E-2</v>
       </c>
     </row>
@@ -2447,13 +2445,13 @@
       <c r="A67" t="s">
         <v>14</v>
       </c>
-      <c r="B67" s="17">
+      <c r="B67" s="16">
         <v>41722.837152777778</v>
       </c>
-      <c r="C67" s="17">
+      <c r="C67" s="16">
         <v>41722.844814814816</v>
       </c>
-      <c r="D67" s="16">
+      <c r="D67" s="15">
         <f t="shared" si="1"/>
         <v>0.18388888888888888</v>
       </c>
@@ -2462,13 +2460,13 @@
       <c r="A68" t="s">
         <v>14</v>
       </c>
-      <c r="B68" s="17">
+      <c r="B68" s="16">
         <v>41722.848564814813</v>
       </c>
-      <c r="C68" s="17">
+      <c r="C68" s="16">
         <v>41722.849340277775</v>
       </c>
-      <c r="D68" s="16">
+      <c r="D68" s="15">
         <f t="shared" si="1"/>
         <v>1.861111111111111E-2</v>
       </c>
@@ -2477,13 +2475,13 @@
       <c r="A69" t="s">
         <v>12</v>
       </c>
-      <c r="B69" s="17">
+      <c r="B69" s="16">
         <v>41723.780300925922</v>
       </c>
-      <c r="C69" s="17">
+      <c r="C69" s="16">
         <v>41723.781597222223</v>
       </c>
-      <c r="D69" s="16">
+      <c r="D69" s="15">
         <f t="shared" si="1"/>
         <v>3.111111111111111E-2</v>
       </c>
@@ -2492,13 +2490,13 @@
       <c r="A70" t="s">
         <v>12</v>
       </c>
-      <c r="B70" s="17">
+      <c r="B70" s="16">
         <v>41723.782210648147</v>
       </c>
-      <c r="C70" s="17">
+      <c r="C70" s="16">
         <v>41723.838020833333</v>
       </c>
-      <c r="D70" s="16">
+      <c r="D70" s="15">
         <f t="shared" si="1"/>
         <v>1.3394444444444444</v>
       </c>
@@ -2507,13 +2505,13 @@
       <c r="A71" t="s">
         <v>14</v>
       </c>
-      <c r="B71" s="17">
+      <c r="B71" s="16">
         <v>41723.838125000002</v>
       </c>
-      <c r="C71" s="17">
+      <c r="C71" s="16">
         <v>41723.842615740738</v>
       </c>
-      <c r="D71" s="16">
+      <c r="D71" s="15">
         <f t="shared" si="1"/>
         <v>0.10777777777777778</v>
       </c>
@@ -2522,13 +2520,13 @@
       <c r="A72" t="s">
         <v>14</v>
       </c>
-      <c r="B72" s="17">
+      <c r="B72" s="16">
         <v>41723.858171296299</v>
       </c>
-      <c r="C72" s="17">
+      <c r="C72" s="16">
         <v>41723.861539351848</v>
       </c>
-      <c r="D72" s="16">
+      <c r="D72" s="15">
         <f t="shared" si="1"/>
         <v>8.0833333333333326E-2</v>
       </c>
@@ -2537,13 +2535,13 @@
       <c r="A73" t="s">
         <v>14</v>
       </c>
-      <c r="B73" s="17">
+      <c r="B73" s="16">
         <v>41723.891516203701</v>
       </c>
-      <c r="C73" s="17">
+      <c r="C73" s="16">
         <v>41723.909386574072</v>
       </c>
-      <c r="D73" s="16">
+      <c r="D73" s="15">
         <f t="shared" si="1"/>
         <v>0.42888888888888893</v>
       </c>
@@ -2552,13 +2550,13 @@
       <c r="A74" t="s">
         <v>16</v>
       </c>
-      <c r="B74" s="17">
+      <c r="B74" s="16">
         <v>41723.909409722219</v>
       </c>
-      <c r="C74" s="17">
+      <c r="C74" s="16">
         <v>41723.911620370367</v>
       </c>
-      <c r="D74" s="16">
+      <c r="D74" s="15">
         <f t="shared" si="1"/>
         <v>5.3055555555555557E-2</v>
       </c>
@@ -2567,13 +2565,13 @@
       <c r="A75" t="s">
         <v>16</v>
       </c>
-      <c r="B75" s="17">
+      <c r="B75" s="16">
         <v>41724.770567129628</v>
       </c>
-      <c r="C75" s="17">
+      <c r="C75" s="16">
         <v>41724.771319444444</v>
       </c>
-      <c r="D75" s="16">
+      <c r="D75" s="15">
         <f t="shared" si="1"/>
         <v>1.8055555555555554E-2</v>
       </c>
@@ -2582,13 +2580,13 @@
       <c r="A76" t="s">
         <v>16</v>
       </c>
-      <c r="B76" s="17">
+      <c r="B76" s="16">
         <v>41724.772870370369</v>
       </c>
-      <c r="C76" s="17">
+      <c r="C76" s="16">
         <v>41724.787222222221</v>
       </c>
-      <c r="D76" s="16">
+      <c r="D76" s="15">
         <f t="shared" si="1"/>
         <v>0.34444444444444444</v>
       </c>
@@ -2597,13 +2595,13 @@
       <c r="A77" t="s">
         <v>12</v>
       </c>
-      <c r="B77" s="17">
+      <c r="B77" s="16">
         <v>41724.787245370368</v>
       </c>
-      <c r="C77" s="17">
+      <c r="C77" s="16">
         <v>41724.797222222223</v>
       </c>
-      <c r="D77" s="16">
+      <c r="D77" s="15">
         <f t="shared" si="1"/>
         <v>0.23944444444444446</v>
       </c>
@@ -2612,13 +2610,13 @@
       <c r="A78" t="s">
         <v>12</v>
       </c>
-      <c r="B78" s="17">
+      <c r="B78" s="16">
         <v>41724.798703703702</v>
       </c>
-      <c r="C78" s="17">
+      <c r="C78" s="16">
         <v>41724.817569444444</v>
       </c>
-      <c r="D78" s="16">
+      <c r="D78" s="15">
         <f t="shared" si="1"/>
         <v>0.45277777777777778</v>
       </c>
@@ -2627,13 +2625,13 @@
       <c r="A79" t="s">
         <v>16</v>
       </c>
-      <c r="B79" s="17">
+      <c r="B79" s="16">
         <v>41724.817685185182</v>
       </c>
-      <c r="C79" s="17">
+      <c r="C79" s="16">
         <v>41724.848043981481</v>
       </c>
-      <c r="D79" s="16">
+      <c r="D79" s="15">
         <f t="shared" si="1"/>
         <v>0.7286111111111111</v>
       </c>
@@ -2642,13 +2640,13 @@
       <c r="A80" t="s">
         <v>16</v>
       </c>
-      <c r="B80" s="17">
+      <c r="B80" s="16">
         <v>41724.867314814815</v>
       </c>
-      <c r="C80" s="17">
+      <c r="C80" s="16">
         <v>41724.89166666667</v>
       </c>
-      <c r="D80" s="16">
+      <c r="D80" s="15">
         <f t="shared" si="1"/>
         <v>0.58444444444444443</v>
       </c>
@@ -2657,13 +2655,13 @@
       <c r="A81" t="s">
         <v>12</v>
       </c>
-      <c r="B81" s="17">
+      <c r="B81" s="16">
         <v>41726.239930555559</v>
       </c>
-      <c r="C81" s="17">
+      <c r="C81" s="16">
         <v>41726.255104166667</v>
       </c>
-      <c r="D81" s="16">
+      <c r="D81" s="15">
         <f t="shared" si="1"/>
         <v>0.36416666666666664</v>
       </c>
@@ -2672,13 +2670,13 @@
       <c r="A82" t="s">
         <v>16</v>
       </c>
-      <c r="B82" s="17">
+      <c r="B82" s="16">
         <v>41726.255115740743</v>
       </c>
-      <c r="C82" s="17">
+      <c r="C82" s="16">
         <v>41726.272037037037</v>
       </c>
-      <c r="D82" s="16">
+      <c r="D82" s="15">
         <f t="shared" si="1"/>
         <v>0.40611111111111114</v>
       </c>
@@ -2687,13 +2685,13 @@
       <c r="A83" t="s">
         <v>16</v>
       </c>
-      <c r="B83" s="17">
+      <c r="B83" s="16">
         <v>41726.530868055554</v>
       </c>
-      <c r="C83" s="17">
+      <c r="C83" s="16">
         <v>41726.534108796295</v>
       </c>
-      <c r="D83" s="16">
+      <c r="D83" s="15">
         <f t="shared" si="1"/>
         <v>7.7777777777777779E-2</v>
       </c>
@@ -2702,13 +2700,13 @@
       <c r="A84" t="s">
         <v>12</v>
       </c>
-      <c r="B84" s="17">
+      <c r="B84" s="16">
         <v>41726.534189814818</v>
       </c>
-      <c r="C84" s="17">
+      <c r="C84" s="16">
         <v>41726.554456018515</v>
       </c>
-      <c r="D84" s="16">
+      <c r="D84" s="15">
         <f t="shared" si="1"/>
         <v>0.48638888888888887</v>
       </c>
@@ -2717,13 +2715,13 @@
       <c r="A85" t="s">
         <v>12</v>
       </c>
-      <c r="B85" s="17">
+      <c r="B85" s="16">
         <v>41726.559305555558</v>
       </c>
-      <c r="C85" s="17">
+      <c r="C85" s="16">
         <v>41726.580914351849</v>
       </c>
-      <c r="D85" s="16">
+      <c r="D85" s="15">
         <f t="shared" si="1"/>
         <v>0.51861111111111113</v>
       </c>
@@ -2732,13 +2730,13 @@
       <c r="A86" t="s">
         <v>16</v>
       </c>
-      <c r="B86" s="17">
+      <c r="B86" s="16">
         <v>41727.557962962965</v>
       </c>
-      <c r="C86" s="17">
+      <c r="C86" s="16">
         <v>41727.58625</v>
       </c>
-      <c r="D86" s="16">
+      <c r="D86" s="15">
         <f t="shared" si="1"/>
         <v>0.67888888888888888</v>
       </c>
@@ -2747,13 +2745,13 @@
       <c r="A87" t="s">
         <v>16</v>
       </c>
-      <c r="B87" s="17">
+      <c r="B87" s="16">
         <v>41727.620462962965</v>
       </c>
-      <c r="C87" s="17">
+      <c r="C87" s="16">
         <v>41727.656990740739</v>
       </c>
-      <c r="D87" s="16">
+      <c r="D87" s="15">
         <f t="shared" si="1"/>
         <v>0.87666666666666671</v>
       </c>
@@ -2762,13 +2760,13 @@
       <c r="A88" t="s">
         <v>16</v>
       </c>
-      <c r="B88" s="17">
+      <c r="B88" s="16">
         <v>41727.667754629627</v>
       </c>
-      <c r="C88" s="17">
+      <c r="C88" s="16">
         <v>41727.677118055559</v>
       </c>
-      <c r="D88" s="16">
+      <c r="D88" s="15">
         <f t="shared" si="1"/>
         <v>0.22472222222222224</v>
       </c>
@@ -2777,13 +2775,13 @@
       <c r="A89" t="s">
         <v>16</v>
       </c>
-      <c r="B89" s="17">
+      <c r="B89" s="16">
         <v>41729.423993055556</v>
       </c>
-      <c r="C89" s="17">
+      <c r="C89" s="16">
         <v>41729.509421296294</v>
       </c>
-      <c r="D89" s="16">
+      <c r="D89" s="15">
         <f t="shared" si="1"/>
         <v>2.0502777777777776</v>
       </c>
@@ -2792,13 +2790,13 @@
       <c r="A90" t="s">
         <v>16</v>
       </c>
-      <c r="B90" s="17">
+      <c r="B90" s="16">
         <v>41730.765289351853</v>
       </c>
-      <c r="C90" s="17">
+      <c r="C90" s="16">
         <v>41730.81459490741</v>
       </c>
-      <c r="D90" s="16">
+      <c r="D90" s="15">
         <f t="shared" si="1"/>
         <v>1.1833333333333333</v>
       </c>
@@ -2807,13 +2805,13 @@
       <c r="A91" t="s">
         <v>16</v>
       </c>
-      <c r="B91" s="17">
+      <c r="B91" s="16">
         <v>41730.817442129628</v>
       </c>
-      <c r="C91" s="17">
+      <c r="C91" s="16">
         <v>41730.834224537037</v>
       </c>
-      <c r="D91" s="16">
+      <c r="D91" s="15">
         <f t="shared" si="1"/>
         <v>0.40277777777777779</v>
       </c>
@@ -2822,13 +2820,13 @@
       <c r="A92" t="s">
         <v>16</v>
       </c>
-      <c r="B92" s="17">
+      <c r="B92" s="16">
         <v>41730.83666666667</v>
       </c>
-      <c r="C92" s="17">
+      <c r="C92" s="16">
         <v>41730.850208333337</v>
       </c>
-      <c r="D92" s="16">
+      <c r="D92" s="15">
         <f t="shared" si="1"/>
         <v>0.32500000000000001</v>
       </c>
@@ -2837,13 +2835,13 @@
       <c r="A93" t="s">
         <v>12</v>
       </c>
-      <c r="B93" s="17">
+      <c r="B93" s="16">
         <v>41730.850208333337</v>
       </c>
-      <c r="C93" s="17">
+      <c r="C93" s="16">
         <v>41730.852569444447</v>
       </c>
-      <c r="D93" s="16">
+      <c r="D93" s="15">
         <f t="shared" si="1"/>
         <v>5.6666666666666671E-2</v>
       </c>
@@ -2852,13 +2850,13 @@
       <c r="A94" t="s">
         <v>12</v>
       </c>
-      <c r="B94" s="17">
+      <c r="B94" s="16">
         <v>41730.875092592592</v>
       </c>
-      <c r="C94" s="17">
+      <c r="C94" s="16">
         <v>41730.887291666666</v>
       </c>
-      <c r="D94" s="16">
+      <c r="D94" s="15">
         <f t="shared" si="1"/>
         <v>0.29277777777777775</v>
       </c>
@@ -2867,13 +2865,13 @@
       <c r="A95" t="s">
         <v>26</v>
       </c>
-      <c r="B95" s="17">
+      <c r="B95" s="16">
         <v>41730.887291666666</v>
       </c>
-      <c r="C95" s="17">
+      <c r="C95" s="16">
         <v>41730.892222222225</v>
       </c>
-      <c r="D95" s="16">
+      <c r="D95" s="15">
         <f t="shared" si="1"/>
         <v>0.11833333333333333</v>
       </c>
@@ -2882,13 +2880,13 @@
       <c r="A96" t="s">
         <v>17</v>
       </c>
-      <c r="B96" s="17">
+      <c r="B96" s="16">
         <v>41730.892222222225</v>
       </c>
-      <c r="C96" s="17">
+      <c r="C96" s="16">
         <v>41730.908935185187</v>
       </c>
-      <c r="D96" s="16">
+      <c r="D96" s="15">
         <f t="shared" si="1"/>
         <v>0.40111111111111114</v>
       </c>
@@ -2897,13 +2895,13 @@
       <c r="A97" t="s">
         <v>16</v>
       </c>
-      <c r="B97" s="17">
+      <c r="B97" s="16">
         <v>41731.749699074076</v>
       </c>
-      <c r="C97" s="17">
+      <c r="C97" s="16">
         <v>41731.751331018517</v>
       </c>
-      <c r="D97" s="16">
+      <c r="D97" s="15">
         <f t="shared" si="1"/>
         <v>3.9166666666666669E-2</v>
       </c>
@@ -2912,13 +2910,13 @@
       <c r="A98" t="s">
         <v>12</v>
       </c>
-      <c r="B98" s="17">
+      <c r="B98" s="16">
         <v>41731.751331018517</v>
       </c>
-      <c r="C98" s="17">
+      <c r="C98" s="16">
         <v>41731.755520833336</v>
       </c>
-      <c r="D98" s="16">
+      <c r="D98" s="15">
         <f t="shared" si="1"/>
         <v>0.10055555555555556</v>
       </c>
@@ -2927,13 +2925,13 @@
       <c r="A99" t="s">
         <v>17</v>
       </c>
-      <c r="B99" s="17">
+      <c r="B99" s="16">
         <v>41731.755532407406</v>
       </c>
-      <c r="C99" s="17">
+      <c r="C99" s="16">
         <v>41731.778969907406</v>
       </c>
-      <c r="D99" s="16">
+      <c r="D99" s="15">
         <f t="shared" si="1"/>
         <v>0.5625</v>
       </c>
@@ -2942,13 +2940,13 @@
       <c r="A100" t="s">
         <v>12</v>
       </c>
-      <c r="B100" s="17">
+      <c r="B100" s="16">
         <v>41731.778969907406</v>
       </c>
-      <c r="C100" s="17">
+      <c r="C100" s="16">
         <v>41731.804942129631</v>
       </c>
-      <c r="D100" s="16">
+      <c r="D100" s="15">
         <f t="shared" si="1"/>
         <v>0.62333333333333341</v>
       </c>
@@ -2957,13 +2955,13 @@
       <c r="A101" t="s">
         <v>16</v>
       </c>
-      <c r="B101" s="17">
+      <c r="B101" s="16">
         <v>41731.804942129631</v>
       </c>
-      <c r="C101" s="17">
+      <c r="C101" s="16">
         <v>41731.811168981483</v>
       </c>
-      <c r="D101" s="16">
+      <c r="D101" s="15">
         <f t="shared" si="1"/>
         <v>0.14944444444444444</v>
       </c>
@@ -2972,13 +2970,13 @@
       <c r="A102" t="s">
         <v>17</v>
       </c>
-      <c r="B102" s="17">
+      <c r="B102" s="16">
         <v>41731.811168981483</v>
       </c>
-      <c r="C102" s="17">
+      <c r="C102" s="16">
         <v>41731.828935185185</v>
       </c>
-      <c r="D102" s="16">
+      <c r="D102" s="15">
         <f t="shared" si="1"/>
         <v>0.42638888888888893</v>
       </c>
@@ -2987,13 +2985,13 @@
       <c r="A103" t="s">
         <v>17</v>
       </c>
-      <c r="B103" s="17">
+      <c r="B103" s="16">
         <v>41731.832708333335</v>
       </c>
-      <c r="C103" s="17">
+      <c r="C103" s="16">
         <v>41731.847071759257</v>
       </c>
-      <c r="D103" s="16">
+      <c r="D103" s="15">
         <f t="shared" si="1"/>
         <v>0.34472222222222221</v>
       </c>
@@ -3002,13 +3000,13 @@
       <c r="A104" t="s">
         <v>17</v>
       </c>
-      <c r="B104" s="17">
+      <c r="B104" s="16">
         <v>41731.867361111108</v>
       </c>
-      <c r="C104" s="17">
+      <c r="C104" s="16">
         <v>41731.892604166664</v>
       </c>
-      <c r="D104" s="16">
+      <c r="D104" s="15">
         <f t="shared" si="1"/>
         <v>0.60583333333333333</v>
       </c>
@@ -3017,13 +3015,13 @@
       <c r="A105" t="s">
         <v>16</v>
       </c>
-      <c r="B105" s="17">
+      <c r="B105" s="16">
         <v>41731.892604166664</v>
       </c>
-      <c r="C105" s="17">
+      <c r="C105" s="16">
         <v>41731.897997685184</v>
       </c>
-      <c r="D105" s="16">
+      <c r="D105" s="15">
         <f t="shared" si="1"/>
         <v>0.12944444444444445</v>
       </c>
@@ -3032,13 +3030,13 @@
       <c r="A106" t="s">
         <v>12</v>
       </c>
-      <c r="B106" s="17">
+      <c r="B106" s="16">
         <v>41731.898009259261</v>
       </c>
-      <c r="C106" s="17">
+      <c r="C106" s="16">
         <v>41731.9143287037</v>
       </c>
-      <c r="D106" s="16">
+      <c r="D106" s="15">
         <f t="shared" si="1"/>
         <v>0.39166666666666672</v>
       </c>
@@ -3047,13 +3045,13 @@
       <c r="A107" t="s">
         <v>17</v>
       </c>
-      <c r="B107" s="17">
+      <c r="B107" s="16">
         <v>41734.503229166665</v>
       </c>
-      <c r="C107" s="17">
+      <c r="C107" s="16">
         <v>41734.506712962961</v>
       </c>
-      <c r="D107" s="16">
+      <c r="D107" s="15">
         <f t="shared" si="1"/>
         <v>8.3611111111111108E-2</v>
       </c>
@@ -3062,13 +3060,13 @@
       <c r="A108" t="s">
         <v>26</v>
       </c>
-      <c r="B108" s="17">
+      <c r="B108" s="16">
         <v>41734.506724537037</v>
       </c>
-      <c r="C108" s="17">
+      <c r="C108" s="16">
         <v>41734.520868055559</v>
       </c>
-      <c r="D108" s="16">
+      <c r="D108" s="15">
         <f t="shared" si="1"/>
         <v>0.33944444444444444</v>
       </c>
@@ -3077,13 +3075,13 @@
       <c r="A109" t="s">
         <v>17</v>
       </c>
-      <c r="B109" s="17">
+      <c r="B109" s="16">
         <v>41734.520879629628</v>
       </c>
-      <c r="C109" s="17">
+      <c r="C109" s="16">
         <v>41734.547037037039</v>
       </c>
-      <c r="D109" s="16">
+      <c r="D109" s="15">
         <f t="shared" si="1"/>
         <v>0.62777777777777777</v>
       </c>
@@ -3092,13 +3090,13 @@
       <c r="A110" t="s">
         <v>12</v>
       </c>
-      <c r="B110" s="17">
+      <c r="B110" s="16">
         <v>41734.547037037039</v>
       </c>
-      <c r="C110" s="17">
+      <c r="C110" s="16">
         <v>41734.584108796298</v>
       </c>
-      <c r="D110" s="16">
+      <c r="D110" s="15">
         <f t="shared" si="1"/>
         <v>0.88972222222222219</v>
       </c>
@@ -3107,13 +3105,13 @@
       <c r="A111" t="s">
         <v>17</v>
       </c>
-      <c r="B111" s="17">
+      <c r="B111" s="16">
         <v>41734.584108796298</v>
       </c>
-      <c r="C111" s="17">
+      <c r="C111" s="16">
         <v>41734.587500000001</v>
       </c>
-      <c r="D111" s="16">
+      <c r="D111" s="15">
         <f t="shared" si="1"/>
         <v>8.1388888888888886E-2</v>
       </c>
@@ -3122,13 +3120,13 @@
       <c r="A112" t="s">
         <v>17</v>
       </c>
-      <c r="B112" s="17">
+      <c r="B112" s="16">
         <v>41734.588125000002</v>
       </c>
-      <c r="C112" s="17">
+      <c r="C112" s="16">
         <v>41734.608668981484</v>
       </c>
-      <c r="D112" s="16">
+      <c r="D112" s="15">
         <f t="shared" si="1"/>
         <v>0.49305555555555558</v>
       </c>
@@ -3137,13 +3135,13 @@
       <c r="A113" t="s">
         <v>17</v>
       </c>
-      <c r="B113" s="17">
+      <c r="B113" s="16">
         <v>41734.608981481484</v>
       </c>
-      <c r="C113" s="17">
+      <c r="C113" s="16">
         <v>41734.616053240738</v>
       </c>
-      <c r="D113" s="16">
+      <c r="D113" s="15">
         <f t="shared" si="1"/>
         <v>0.16972222222222222</v>
       </c>
@@ -3152,13 +3150,13 @@
       <c r="A114" t="s">
         <v>17</v>
       </c>
-      <c r="B114" s="17">
+      <c r="B114" s="16">
         <v>41734.618368055555</v>
       </c>
-      <c r="C114" s="17">
+      <c r="C114" s="16">
         <v>41734.631608796299</v>
       </c>
-      <c r="D114" s="16">
+      <c r="D114" s="15">
         <f t="shared" si="1"/>
         <v>0.31777777777777777</v>
       </c>
@@ -3167,13 +3165,13 @@
       <c r="A115" t="s">
         <v>17</v>
       </c>
-      <c r="B115" s="17">
+      <c r="B115" s="16">
         <v>41734.632384259261</v>
       </c>
-      <c r="C115" s="17">
+      <c r="C115" s="16">
         <v>41734.657233796293</v>
       </c>
-      <c r="D115" s="16">
+      <c r="D115" s="15">
         <f t="shared" si="1"/>
         <v>0.59638888888888897</v>
       </c>
@@ -3182,13 +3180,13 @@
       <c r="A116" t="s">
         <v>17</v>
       </c>
-      <c r="B116" s="17">
+      <c r="B116" s="16">
         <v>41734.662800925929</v>
       </c>
-      <c r="C116" s="17">
+      <c r="C116" s="16">
         <v>41734.685081018521</v>
       </c>
-      <c r="D116" s="16">
+      <c r="D116" s="15">
         <f t="shared" si="1"/>
         <v>0.53472222222222221</v>
       </c>
@@ -3197,13 +3195,13 @@
       <c r="A117" t="s">
         <v>17</v>
       </c>
-      <c r="B117" s="17">
+      <c r="B117" s="16">
         <v>41734.692870370367</v>
       </c>
-      <c r="C117" s="17">
+      <c r="C117" s="16">
         <v>41734.700868055559</v>
       </c>
-      <c r="D117" s="16">
+      <c r="D117" s="15">
         <f t="shared" si="1"/>
         <v>0.19194444444444442</v>
       </c>
@@ -3212,13 +3210,13 @@
       <c r="A118" t="s">
         <v>17</v>
       </c>
-      <c r="B118" s="17">
+      <c r="B118" s="16">
         <v>41736.897430555553</v>
       </c>
-      <c r="C118" s="17">
+      <c r="C118" s="16">
         <v>41736.90347222222</v>
       </c>
-      <c r="D118" s="16">
+      <c r="D118" s="15">
         <f t="shared" si="1"/>
         <v>0.14499999999999999</v>
       </c>
@@ -3227,13 +3225,13 @@
       <c r="A119" t="s">
         <v>17</v>
       </c>
-      <c r="B119" s="17">
+      <c r="B119" s="16">
         <v>41737.775752314818</v>
       </c>
-      <c r="C119" s="17">
+      <c r="C119" s="16">
         <v>41737.775902777779</v>
       </c>
-      <c r="D119" s="16">
+      <c r="D119" s="15">
         <f t="shared" si="1"/>
         <v>3.6111111111111109E-3</v>
       </c>
@@ -3242,13 +3240,13 @@
       <c r="A120" t="s">
         <v>12</v>
       </c>
-      <c r="B120" s="17">
+      <c r="B120" s="16">
         <v>41737.775902777779</v>
       </c>
-      <c r="C120" s="17">
+      <c r="C120" s="16">
         <v>41737.793912037036</v>
       </c>
-      <c r="D120" s="16">
+      <c r="D120" s="15">
         <f t="shared" si="1"/>
         <v>0.43222222222222223</v>
       </c>
@@ -3257,13 +3255,13 @@
       <c r="A121" t="s">
         <v>12</v>
       </c>
-      <c r="B121" s="17">
+      <c r="B121" s="16">
         <v>41737.79619212963</v>
       </c>
-      <c r="C121" s="17">
+      <c r="C121" s="16">
         <v>41737.859594907408</v>
       </c>
-      <c r="D121" s="16">
+      <c r="D121" s="15">
         <f t="shared" si="1"/>
         <v>1.5216666666666665</v>
       </c>
@@ -3272,13 +3270,13 @@
       <c r="A122" t="s">
         <v>26</v>
       </c>
-      <c r="B122" s="17">
+      <c r="B122" s="16">
         <v>41737.859618055554</v>
       </c>
-      <c r="C122" s="17">
+      <c r="C122" s="16">
         <v>41737.860972222225</v>
       </c>
-      <c r="D122" s="16">
+      <c r="D122" s="15">
         <f t="shared" si="1"/>
         <v>3.2500000000000001E-2</v>
       </c>
@@ -3287,13 +3285,13 @@
       <c r="A123" t="s">
         <v>26</v>
       </c>
-      <c r="B123" s="17">
+      <c r="B123" s="16">
         <v>41737.880543981482</v>
       </c>
-      <c r="C123" s="17">
+      <c r="C123" s="16">
         <v>41737.881261574075</v>
       </c>
-      <c r="D123" s="16">
+      <c r="D123" s="15">
         <f t="shared" si="1"/>
         <v>1.7222222222222222E-2</v>
       </c>
@@ -3302,13 +3300,13 @@
       <c r="A124" t="s">
         <v>26</v>
       </c>
-      <c r="B124" s="17">
+      <c r="B124" s="16">
         <v>41737.882893518516</v>
       </c>
-      <c r="C124" s="17">
+      <c r="C124" s="16">
         <v>41737.921203703707</v>
       </c>
-      <c r="D124" s="16">
+      <c r="D124" s="15">
         <f t="shared" si="1"/>
         <v>0.9194444444444444</v>
       </c>
@@ -3317,13 +3315,13 @@
       <c r="A125" t="s">
         <v>26</v>
       </c>
-      <c r="B125" s="17">
+      <c r="B125" s="16">
         <v>41738.751921296294</v>
       </c>
-      <c r="C125" s="17">
+      <c r="C125" s="16">
         <v>41738.798680555556</v>
       </c>
-      <c r="D125" s="16">
+      <c r="D125" s="15">
         <f t="shared" si="1"/>
         <v>1.1222222222222222</v>
       </c>
@@ -3332,13 +3330,13 @@
       <c r="A126" t="s">
         <v>12</v>
       </c>
-      <c r="B126" s="17">
+      <c r="B126" s="16">
         <v>41738.798680555556</v>
       </c>
-      <c r="C126" s="17">
+      <c r="C126" s="16">
         <v>41738.841608796298</v>
       </c>
-      <c r="D126" s="16">
+      <c r="D126" s="15">
         <f t="shared" si="1"/>
         <v>1.0302777777777776</v>
       </c>
@@ -3347,16 +3345,199 @@
       <c r="A127" t="s">
         <v>26</v>
       </c>
-      <c r="B127" s="17">
+      <c r="B127" s="16">
         <v>41738.843564814815</v>
       </c>
-      <c r="C127" s="17">
+      <c r="C127" s="16">
         <v>41738.878807870373</v>
       </c>
-      <c r="D127" s="16">
+      <c r="D127" s="15">
         <f t="shared" si="1"/>
         <v>0.84583333333333333</v>
       </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>26</v>
+      </c>
+      <c r="B128" s="16">
+        <v>41738.87909722222</v>
+      </c>
+      <c r="C128" s="16">
+        <v>41738.89371527778</v>
+      </c>
+      <c r="D128" s="15">
+        <f t="shared" si="1"/>
+        <v>0.35083333333333333</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>17</v>
+      </c>
+      <c r="B129" s="16">
+        <v>41739.798310185186</v>
+      </c>
+      <c r="C129" s="16">
+        <v>41739.825636574074</v>
+      </c>
+      <c r="D129" s="15">
+        <f t="shared" si="1"/>
+        <v>0.65583333333333338</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>17</v>
+      </c>
+      <c r="B130" s="16">
+        <v>41739.857858796298</v>
+      </c>
+      <c r="C130" s="16">
+        <v>41739.92328703704</v>
+      </c>
+      <c r="D130" s="15">
+        <f t="shared" ref="D130:D140" si="2">IFERROR(MINUTE(C130-B130)/60+HOUR(C130-B130)+SECOND(C130-B130)/3600,0)</f>
+        <v>1.5702777777777777</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>17</v>
+      </c>
+      <c r="B131" s="16">
+        <v>41744.756944444445</v>
+      </c>
+      <c r="C131" s="16">
+        <v>41744.765034722222</v>
+      </c>
+      <c r="D131" s="15">
+        <f t="shared" si="2"/>
+        <v>0.19416666666666665</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>17</v>
+      </c>
+      <c r="B132" s="16">
+        <v>41744.768113425926</v>
+      </c>
+      <c r="C132" s="16">
+        <v>41744.773263888892</v>
+      </c>
+      <c r="D132" s="15">
+        <f t="shared" si="2"/>
+        <v>0.12361111111111112</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>26</v>
+      </c>
+      <c r="B133" s="16">
+        <v>41744.773263888892</v>
+      </c>
+      <c r="C133" s="16">
+        <v>41744.835856481484</v>
+      </c>
+      <c r="D133" s="15">
+        <f t="shared" si="2"/>
+        <v>1.5022222222222221</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>17</v>
+      </c>
+      <c r="B134" s="16">
+        <v>41744.840752314813</v>
+      </c>
+      <c r="C134" s="16">
+        <v>41744.884664351855</v>
+      </c>
+      <c r="D134" s="15">
+        <f t="shared" si="2"/>
+        <v>1.0538888888888889</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>26</v>
+      </c>
+      <c r="B135" s="16">
+        <v>41744.884664351855</v>
+      </c>
+      <c r="C135" s="16">
+        <v>41744.884826388887</v>
+      </c>
+      <c r="D135" s="15">
+        <f t="shared" si="2"/>
+        <v>3.8888888888888888E-3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>12</v>
+      </c>
+      <c r="B136" s="16">
+        <v>41744.884826388887</v>
+      </c>
+      <c r="C136" s="16">
+        <v>41744.911956018521</v>
+      </c>
+      <c r="D136" s="15">
+        <f t="shared" si="2"/>
+        <v>0.65111111111111108</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>17</v>
+      </c>
+      <c r="B137" s="16">
+        <v>41744.911782407406</v>
+      </c>
+      <c r="C137" s="16">
+        <v>41744.921493055554</v>
+      </c>
+      <c r="D137" s="15">
+        <f t="shared" si="2"/>
+        <v>0.23305555555555557</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>17</v>
+      </c>
+      <c r="B138" s="16">
+        <v>41745.762870370374</v>
+      </c>
+      <c r="C138" s="16">
+        <v>41745.850358796299</v>
+      </c>
+      <c r="D138" s="15">
+        <f t="shared" si="2"/>
+        <v>2.0997222222222223</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>17</v>
+      </c>
+      <c r="B139" s="16">
+        <v>41745.857418981483</v>
+      </c>
+      <c r="C139" s="16">
+        <v>41745.894872685189</v>
+      </c>
+      <c r="D139" s="15">
+        <f t="shared" si="2"/>
+        <v>0.89888888888888885</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D140" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/report.xlsx
+++ b/Documents/report.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="32">
   <si>
     <t>Michael Warren</t>
   </si>
@@ -115,17 +115,17 @@
     <t>On Schedule</t>
   </si>
   <si>
-    <t>Accomplishments: Unit tests for hit functions on Box and shpere are done and passing. Managed to get back on schedule mainly because schedule included travels on Saturday. Baby sleeping through the night. =D Marking end of research. May need a little more for later but calling it good for now.</t>
-  </si>
-  <si>
-    <t>Problems: Should have scheduled Monday off to reduce stress after travels. More planned travels this weekend.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Scripture
 " 15 For behold, we are in bondage to the [senior project] and are taxed with a tax which is grievous to be borne..." - Mosiah 7:15
 " 20 ¶And it came to pass the third day, which was Pharaoh’s birthday, that he made a feast unto all his servants: and he lifted up the head of the chief butler and of the chief baker among his servants.
  21 And he restored the chief butler unto his butlership again; and he gave the cup into Pharaoh’s hand:" Genisis 40:20-21
 </t>
+  </si>
+  <si>
+    <t>Problems: Inlaws are in town and sick and tire of traveling my self.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accomplishments: I can draw flat boxes and spheres (they don't look 3d yet) drawing to a close for the sequential ray tracing. Finished math section kind of there is a blurry line for math and sequentail ray tracer. </t>
   </si>
 </sst>
 </file>
@@ -135,7 +135,7 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="dd/mm\ h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="168" formatCode="m/d/yyyy\ h:mm\ AM/PM"/>
+    <numFmt numFmtId="165" formatCode="m/d/yyyy\ h:mm\ AM/PM"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -446,6 +446,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -506,7 +507,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -814,37 +814,37 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36" t="s">
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36" t="s">
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="M2" s="37">
-        <v>41738.878807870373</v>
-      </c>
-      <c r="N2" s="37">
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="M2" s="17">
         <v>41745.894872685189</v>
       </c>
+      <c r="N2" s="16">
+        <v>41753.789664351854</v>
+      </c>
     </row>
     <row r="3" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
@@ -902,13 +902,14 @@
         <f>SUMIF(Time!A:A,A4,Time!D:D)</f>
         <v>14.164999999999999</v>
       </c>
+      <c r="N4" s="16"/>
     </row>
     <row r="5" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" s="3">
         <v>41711</v>
@@ -968,7 +969,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" s="3">
         <v>41733</v>
@@ -998,7 +999,7 @@
         <v>26</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8" s="3">
         <v>41740</v>
@@ -1011,14 +1012,16 @@
         <v>41753</v>
       </c>
       <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="H8" s="3">
+        <v>41753</v>
+      </c>
       <c r="I8" s="4">
         <v>18</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="5">
         <f>SUMIF(Time!A:A,A8,Time!D:D)</f>
-        <v>5.2519444444444447</v>
+        <v>9.8055555555555554</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1046,7 +1049,7 @@
       <c r="J9" s="4"/>
       <c r="K9" s="5">
         <f>SUMIF(Time!A:A,A9,Time!D:D)</f>
-        <v>12.414999999999999</v>
+        <v>18.527222222222221</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1133,92 +1136,92 @@
       <c r="J12" s="4"/>
       <c r="K12" s="5">
         <f>SUM(K4:K11)</f>
-        <v>71.356666666666683</v>
+        <v>82.022500000000008</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
+      <c r="A13" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
     </row>
     <row r="14" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
     </row>
     <row r="15" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
     </row>
     <row r="16" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
     </row>
     <row r="17" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
     </row>
     <row r="18" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
@@ -1241,7 +1244,7 @@
       </c>
       <c r="B20" s="12">
         <f>SUMIFS(Time!D:D,Time!B:B,"&gt;="&amp;M2)</f>
-        <v>9.3375000000000004</v>
+        <v>10.665833333333333</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
@@ -1286,136 +1289,136 @@
       <c r="K22" s="14"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="20"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="21"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="21"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="23"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="24"/>
     </row>
     <row r="25" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="26"/>
+      <c r="A25" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="27"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="27"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="29"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="30"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="29"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="30"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="27"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="29"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="30"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="27"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="29"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="30"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="29"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="30"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="29"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="30"/>
     </row>
     <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="30"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="32"/>
+      <c r="A32" s="31"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="33"/>
     </row>
     <row r="33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -1438,10 +1441,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D140"/>
+  <dimension ref="A1:D158"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="C139" sqref="C139"/>
+    <sheetView topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="C157" sqref="C157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3397,7 +3400,7 @@
         <v>41739.92328703704</v>
       </c>
       <c r="D130" s="15">
-        <f t="shared" ref="D130:D140" si="2">IFERROR(MINUTE(C130-B130)/60+HOUR(C130-B130)+SECOND(C130-B130)/3600,0)</f>
+        <f t="shared" ref="D130:D158" si="2">IFERROR(MINUTE(C130-B130)/60+HOUR(C130-B130)+SECOND(C130-B130)/3600,0)</f>
         <v>1.5702777777777777</v>
       </c>
     </row>
@@ -3537,7 +3540,277 @@
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D140" s="15"/>
+      <c r="A140" t="s">
+        <v>17</v>
+      </c>
+      <c r="B140" s="16">
+        <v>41745.894884259258</v>
+      </c>
+      <c r="C140" s="16">
+        <v>41745.915902777779</v>
+      </c>
+      <c r="D140" s="15">
+        <f t="shared" si="2"/>
+        <v>0.50444444444444447</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>17</v>
+      </c>
+      <c r="B141" s="16">
+        <v>41748.372025462966</v>
+      </c>
+      <c r="C141" s="16">
+        <v>41748.39502314815</v>
+      </c>
+      <c r="D141" s="15">
+        <f t="shared" si="2"/>
+        <v>0.55194444444444446</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>26</v>
+      </c>
+      <c r="B142" s="16">
+        <v>41748.39502314815</v>
+      </c>
+      <c r="C142" s="16">
+        <v>41748.41333333333</v>
+      </c>
+      <c r="D142" s="15">
+        <f t="shared" si="2"/>
+        <v>0.43944444444444447</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>26</v>
+      </c>
+      <c r="B143" s="16">
+        <v>41748.829085648147</v>
+      </c>
+      <c r="C143" s="16">
+        <v>41748.884016203701</v>
+      </c>
+      <c r="D143" s="15">
+        <f t="shared" si="2"/>
+        <v>1.3183333333333334</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>26</v>
+      </c>
+      <c r="B144" s="16">
+        <v>41750.842002314814</v>
+      </c>
+      <c r="C144" s="16">
+        <v>41750.904317129629</v>
+      </c>
+      <c r="D144" s="15">
+        <f t="shared" si="2"/>
+        <v>1.4955555555555555</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>17</v>
+      </c>
+      <c r="B145" s="16">
+        <v>41751.735277777778</v>
+      </c>
+      <c r="C145" s="16">
+        <v>41751.778703703705</v>
+      </c>
+      <c r="D145" s="15">
+        <f t="shared" si="2"/>
+        <v>1.0422222222222224</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>17</v>
+      </c>
+      <c r="B146" s="16">
+        <v>41751.811562499999</v>
+      </c>
+      <c r="C146" s="16">
+        <v>41751.826631944445</v>
+      </c>
+      <c r="D146" s="15">
+        <f t="shared" si="2"/>
+        <v>0.36166666666666664</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>17</v>
+      </c>
+      <c r="B147" s="16">
+        <v>41751.830335648148</v>
+      </c>
+      <c r="C147" s="16">
+        <v>41751.844780092593</v>
+      </c>
+      <c r="D147" s="15">
+        <f t="shared" si="2"/>
+        <v>0.34666666666666662</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>17</v>
+      </c>
+      <c r="B148" s="16">
+        <v>41751.847326388888</v>
+      </c>
+      <c r="C148" s="16">
+        <v>41751.872835648152</v>
+      </c>
+      <c r="D148" s="15">
+        <f t="shared" si="2"/>
+        <v>0.61222222222222222</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>17</v>
+      </c>
+      <c r="B149" s="16">
+        <v>41751.894201388888</v>
+      </c>
+      <c r="C149" s="16">
+        <v>41751.932905092595</v>
+      </c>
+      <c r="D149" s="15">
+        <f t="shared" si="2"/>
+        <v>0.92888888888888888</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>17</v>
+      </c>
+      <c r="B150" s="16">
+        <v>41752.73228009259</v>
+      </c>
+      <c r="C150" s="16">
+        <v>41752.740393518521</v>
+      </c>
+      <c r="D150" s="15">
+        <f t="shared" si="2"/>
+        <v>0.19472222222222221</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>17</v>
+      </c>
+      <c r="B151" s="16">
+        <v>41752.751342592594</v>
+      </c>
+      <c r="C151" s="16">
+        <v>41752.769143518519</v>
+      </c>
+      <c r="D151" s="15">
+        <f t="shared" si="2"/>
+        <v>0.42722222222222223</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>17</v>
+      </c>
+      <c r="B152" s="16">
+        <v>41752.797407407408</v>
+      </c>
+      <c r="C152" s="16">
+        <v>41752.81690972222</v>
+      </c>
+      <c r="D152" s="15">
+        <f t="shared" si="2"/>
+        <v>0.46805555555555556</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>17</v>
+      </c>
+      <c r="B153" s="16">
+        <v>41752.837418981479</v>
+      </c>
+      <c r="C153" s="16">
+        <v>41752.850219907406</v>
+      </c>
+      <c r="D153" s="15">
+        <f t="shared" si="2"/>
+        <v>0.30722222222222223</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>17</v>
+      </c>
+      <c r="B154" s="16">
+        <v>41752.85560185185</v>
+      </c>
+      <c r="C154" s="16">
+        <v>41752.870891203704</v>
+      </c>
+      <c r="D154" s="15">
+        <f t="shared" si="2"/>
+        <v>0.36694444444444441</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>26</v>
+      </c>
+      <c r="B155" s="16">
+        <v>41752.871041666665</v>
+      </c>
+      <c r="C155" s="16">
+        <v>41752.873726851853</v>
+      </c>
+      <c r="D155" s="15">
+        <f t="shared" si="2"/>
+        <v>6.4444444444444443E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>26</v>
+      </c>
+      <c r="B156" s="16">
+        <v>41752.873761574076</v>
+      </c>
+      <c r="C156" s="16">
+        <v>41752.924849537034</v>
+      </c>
+      <c r="D156" s="15">
+        <f t="shared" si="2"/>
+        <v>1.2261111111111112</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>26</v>
+      </c>
+      <c r="B157" s="16">
+        <v>41753.789259259262</v>
+      </c>
+      <c r="C157" s="16">
+        <v>41753.789664351854</v>
+      </c>
+      <c r="D157" s="15">
+        <f t="shared" si="2"/>
+        <v>9.7222222222222224E-3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D158" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/report.xlsx
+++ b/Documents/report.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="3840" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="32">
   <si>
     <t>Michael Warren</t>
   </si>
@@ -103,9 +103,6 @@
     <t>Total anticipated actual hours:</t>
   </si>
   <si>
-    <t xml:space="preserve">Changes in Scope, Schedule, and Cost: </t>
-  </si>
-  <si>
     <t>Math Unit Test and code</t>
   </si>
   <si>
@@ -115,17 +112,22 @@
     <t>On Schedule</t>
   </si>
   <si>
+    <t>Problems: Missed last report by one day… opps</t>
+  </si>
+  <si>
+    <t>Accomplishments: Can draw 3d lookng boxes and spheres. Showdows working. Last thing for rendering is reflections!!!!!</t>
+  </si>
+  <si>
+    <t>Changes in Scope, Schedule, and Cost: Currently unused hours from other sections are being allocated to sequential ray tracing.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Scripture
 " 15 For behold, we are in bondage to the [senior project] and are taxed with a tax which is grievous to be borne..." - Mosiah 7:15
-" 20 ¶And it came to pass the third day, which was Pharaoh’s birthday, that he made a feast unto all his servants: and he lifted up the head of the chief butler and of the chief baker among his servants.
- 21 And he restored the chief butler unto his butlership again; and he gave the cup into Pharaoh’s hand:" Genisis 40:20-21
+" 2 And the earth was without form, and void; and darkness was upon the face of the deep. And the Spirit of God moved upon the face of the waters.
+ 3 And God said, Let there be light: and there was light.
+ 4 And God saw the light, that it was good: and God divided the light from the darkness.
+ 5 And God called the light Day, and the darkness he called Night. And the evening and the morning were the first day." Genisis 1:2-5
 </t>
-  </si>
-  <si>
-    <t>Problems: Inlaws are in town and sick and tire of traveling my self.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accomplishments: I can draw flat boxes and spheres (they don't look 3d yet) drawing to a close for the sequential ray tracing. Finished math section kind of there is a blurry line for math and sequentail ray tracer. </t>
   </si>
 </sst>
 </file>
@@ -790,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -799,7 +801,8 @@
     <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -810,7 +813,7 @@
         <v>1</v>
       </c>
       <c r="N1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -838,8 +841,8 @@
       <c r="M2" s="17">
         <v>41745.894872685189</v>
       </c>
-      <c r="N2" s="16">
-        <v>41753.789664351854</v>
+      <c r="N2" s="17">
+        <v>41759.918796296297</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -996,7 +999,7 @@
     </row>
     <row r="8" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>11</v>
@@ -1049,7 +1052,7 @@
       <c r="J9" s="4"/>
       <c r="K9" s="5">
         <f>SUMIF(Time!A:A,A9,Time!D:D)</f>
-        <v>18.527222222222221</v>
+        <v>29.653055555555557</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1136,12 +1139,12 @@
       <c r="J12" s="4"/>
       <c r="K12" s="5">
         <f>SUM(K4:K11)</f>
-        <v>82.022500000000008</v>
+        <v>93.148333333333355</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
@@ -1169,7 +1172,7 @@
     </row>
     <row r="15" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
@@ -1197,7 +1200,7 @@
     </row>
     <row r="17" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -1244,7 +1247,7 @@
       </c>
       <c r="B20" s="12">
         <f>SUMIFS(Time!D:D,Time!B:B,"&gt;="&amp;M2)</f>
-        <v>10.665833333333333</v>
+        <v>21.791666666666668</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
@@ -1275,7 +1278,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -1316,7 +1319,7 @@
     </row>
     <row r="25" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B25" s="26"/>
       <c r="C25" s="26"/>
@@ -1441,10 +1444,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D158"/>
+  <dimension ref="A1:D171"/>
   <sheetViews>
-    <sheetView topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="C157" sqref="C157"/>
+    <sheetView topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="C170" sqref="C170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2866,7 +2869,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B95" s="16">
         <v>41730.887291666666</v>
@@ -3061,7 +3064,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B108" s="16">
         <v>41734.506724537037</v>
@@ -3271,7 +3274,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B122" s="16">
         <v>41737.859618055554</v>
@@ -3286,7 +3289,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B123" s="16">
         <v>41737.880543981482</v>
@@ -3301,7 +3304,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B124" s="16">
         <v>41737.882893518516</v>
@@ -3316,7 +3319,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B125" s="16">
         <v>41738.751921296294</v>
@@ -3346,7 +3349,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B127" s="16">
         <v>41738.843564814815</v>
@@ -3361,7 +3364,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B128" s="16">
         <v>41738.87909722222</v>
@@ -3400,7 +3403,7 @@
         <v>41739.92328703704</v>
       </c>
       <c r="D130" s="15">
-        <f t="shared" ref="D130:D158" si="2">IFERROR(MINUTE(C130-B130)/60+HOUR(C130-B130)+SECOND(C130-B130)/3600,0)</f>
+        <f t="shared" ref="D130:D171" si="2">IFERROR(MINUTE(C130-B130)/60+HOUR(C130-B130)+SECOND(C130-B130)/3600,0)</f>
         <v>1.5702777777777777</v>
       </c>
     </row>
@@ -3436,7 +3439,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B133" s="16">
         <v>41744.773263888892</v>
@@ -3466,7 +3469,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B135" s="16">
         <v>41744.884664351855</v>
@@ -3571,7 +3574,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B142" s="16">
         <v>41748.39502314815</v>
@@ -3586,7 +3589,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B143" s="16">
         <v>41748.829085648147</v>
@@ -3601,7 +3604,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B144" s="16">
         <v>41750.842002314814</v>
@@ -3766,7 +3769,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B155" s="16">
         <v>41752.871041666665</v>
@@ -3781,7 +3784,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B156" s="16">
         <v>41752.873761574076</v>
@@ -3796,7 +3799,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B157" s="16">
         <v>41753.789259259262</v>
@@ -3810,7 +3813,202 @@
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D158" s="15"/>
+      <c r="A158" t="s">
+        <v>17</v>
+      </c>
+      <c r="B158" s="16">
+        <v>41753.789675925924</v>
+      </c>
+      <c r="C158" s="16">
+        <v>41753.845520833333</v>
+      </c>
+      <c r="D158" s="15">
+        <f t="shared" si="2"/>
+        <v>1.3402777777777777</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>17</v>
+      </c>
+      <c r="B159" s="16">
+        <v>41755.329351851855</v>
+      </c>
+      <c r="C159" s="16">
+        <v>41755.38071759259</v>
+      </c>
+      <c r="D159" s="15">
+        <f t="shared" si="2"/>
+        <v>1.232777777777778</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>17</v>
+      </c>
+      <c r="B160" s="16">
+        <v>41757.796331018515</v>
+      </c>
+      <c r="C160" s="16">
+        <v>41757.797858796293</v>
+      </c>
+      <c r="D160" s="15">
+        <f t="shared" si="2"/>
+        <v>3.6666666666666667E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>17</v>
+      </c>
+      <c r="B161" s="16">
+        <v>41757.802905092591</v>
+      </c>
+      <c r="C161" s="16">
+        <v>41757.815046296295</v>
+      </c>
+      <c r="D161" s="15">
+        <f t="shared" si="2"/>
+        <v>0.29138888888888886</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>17</v>
+      </c>
+      <c r="B162" s="16">
+        <v>41757.85015046296</v>
+      </c>
+      <c r="C162" s="16">
+        <v>41757.892071759263</v>
+      </c>
+      <c r="D162" s="15">
+        <f t="shared" si="2"/>
+        <v>1.0061111111111112</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>17</v>
+      </c>
+      <c r="B163" s="16">
+        <v>41758.752245370371</v>
+      </c>
+      <c r="C163" s="16">
+        <v>41758.786377314813</v>
+      </c>
+      <c r="D163" s="15">
+        <f t="shared" si="2"/>
+        <v>0.8191666666666666</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>17</v>
+      </c>
+      <c r="B164" s="16">
+        <v>41758.784722222219</v>
+      </c>
+      <c r="C164" s="16">
+        <v>41758.819201388891</v>
+      </c>
+      <c r="D164" s="15">
+        <f t="shared" si="2"/>
+        <v>0.82750000000000001</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>17</v>
+      </c>
+      <c r="B165" s="16">
+        <v>41758.826388888891</v>
+      </c>
+      <c r="C165" s="16">
+        <v>41758.913877314815</v>
+      </c>
+      <c r="D165" s="15">
+        <f t="shared" si="2"/>
+        <v>2.0997222222222223</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>17</v>
+      </c>
+      <c r="B166" s="16">
+        <v>41759.759456018517</v>
+      </c>
+      <c r="C166" s="16">
+        <v>41759.82880787037</v>
+      </c>
+      <c r="D166" s="15">
+        <f t="shared" si="2"/>
+        <v>1.6644444444444444</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>17</v>
+      </c>
+      <c r="B167" s="16">
+        <v>41759.82880787037</v>
+      </c>
+      <c r="C167" s="16">
+        <v>41759.828969907408</v>
+      </c>
+      <c r="D167" s="15">
+        <f t="shared" si="2"/>
+        <v>3.8888888888888888E-3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>17</v>
+      </c>
+      <c r="B168" s="16">
+        <v>41759.838402777779</v>
+      </c>
+      <c r="C168" s="16">
+        <v>41759.841203703705</v>
+      </c>
+      <c r="D168" s="15">
+        <f t="shared" si="2"/>
+        <v>6.7222222222222225E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>17</v>
+      </c>
+      <c r="B169" s="16">
+        <v>41759.843576388892</v>
+      </c>
+      <c r="C169" s="16">
+        <v>41759.885868055557</v>
+      </c>
+      <c r="D169" s="15">
+        <f t="shared" si="2"/>
+        <v>1.0149999999999999</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>17</v>
+      </c>
+      <c r="B170" s="16">
+        <v>41759.888726851852</v>
+      </c>
+      <c r="C170" s="16">
+        <v>41759.918796296297</v>
+      </c>
+      <c r="D170" s="15">
+        <f t="shared" si="2"/>
+        <v>0.72166666666666668</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D171" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/report.xlsx
+++ b/Documents/report.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="31">
   <si>
     <t>Michael Warren</t>
   </si>
@@ -67,9 +67,6 @@
     <t>Research</t>
   </si>
   <si>
-    <t>In Progress</t>
-  </si>
-  <si>
     <t>Requirements</t>
   </si>
   <si>
@@ -109,18 +106,6 @@
     <t>Report as of</t>
   </si>
   <si>
-    <t>On Schedule</t>
-  </si>
-  <si>
-    <t>Problems: Missed last report by one day… opps</t>
-  </si>
-  <si>
-    <t>Accomplishments: Can draw 3d lookng boxes and spheres. Showdows working. Last thing for rendering is reflections!!!!!</t>
-  </si>
-  <si>
-    <t>Changes in Scope, Schedule, and Cost: Currently unused hours from other sections are being allocated to sequential ray tracing.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Scripture
 " 15 For behold, we are in bondage to the [senior project] and are taxed with a tax which is grievous to be borne..." - Mosiah 7:15
 " 2 And the earth was without form, and void; and darkness was upon the face of the deep. And the Spirit of God moved upon the face of the waters.
@@ -129,15 +114,28 @@
  5 And God called the light Day, and the darkness he called Night. And the evening and the morning were the first day." Genisis 1:2-5
 </t>
   </si>
+  <si>
+    <t>Behind in hours</t>
+  </si>
+  <si>
+    <t>Problems: Not enough sleep. In-laws came into town. House hunting has begun.</t>
+  </si>
+  <si>
+    <t>Changes in Scope, Schedule, and Cost:</t>
+  </si>
+  <si>
+    <t>Accomplishments: Reflection and shadows work. Requirement scene built. Parallel Ray tracing done. Last thing left is the cluster.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="dd/mm\ h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy\ h:mm\ AM/PM"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -426,7 +424,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -449,6 +447,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -792,8 +791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,8 +800,7 @@
     <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -813,41 +811,41 @@
         <v>1</v>
       </c>
       <c r="N1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37" t="s">
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37" t="s">
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
       <c r="M2" s="17">
-        <v>41745.894872685189</v>
+        <v>41759.918796296297</v>
       </c>
       <c r="N2" s="17">
-        <v>41759.918796296297</v>
+        <v>41766.933067129627</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="35"/>
-      <c r="B3" s="36"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="37"/>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
@@ -905,6 +903,7 @@
         <f>SUMIF(Time!A:A,A4,Time!D:D)</f>
         <v>14.164999999999999</v>
       </c>
+      <c r="L4" s="18"/>
       <c r="N4" s="16"/>
     </row>
     <row r="5" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -936,10 +935,11 @@
         <f>SUMIF(Time!A:A,A5,Time!D:D)</f>
         <v>27.455277777777784</v>
       </c>
+      <c r="L5" s="18"/>
     </row>
     <row r="6" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>11</v>
@@ -966,10 +966,11 @@
         <f>SUMIF(Time!A:A,A6,Time!D:D)</f>
         <v>3.7972222222222216</v>
       </c>
+      <c r="L6" s="18"/>
     </row>
     <row r="7" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>11</v>
@@ -996,10 +997,11 @@
         <f>SUMIF(Time!A:A,A7,Time!D:D)</f>
         <v>8.2722222222222239</v>
       </c>
+      <c r="L7" s="18"/>
     </row>
     <row r="8" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>11</v>
@@ -1026,13 +1028,14 @@
         <f>SUMIF(Time!A:A,A8,Time!D:D)</f>
         <v>9.8055555555555554</v>
       </c>
+      <c r="L8" s="18"/>
     </row>
     <row r="9" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C9" s="3">
         <v>41753</v>
@@ -1045,54 +1048,64 @@
         <v>41764</v>
       </c>
       <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="H9" s="3">
+        <v>41765</v>
+      </c>
       <c r="I9" s="4">
         <v>18</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="5">
         <f>SUMIF(Time!A:A,A9,Time!D:D)</f>
-        <v>29.653055555555557</v>
-      </c>
+        <v>34.465277777777779</v>
+      </c>
+      <c r="L9" s="18"/>
     </row>
     <row r="10" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C10" s="3">
         <v>41764</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="E10" s="3">
+        <v>41765</v>
+      </c>
       <c r="F10" s="3">
         <v>41774</v>
       </c>
       <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="H10" s="3">
+        <v>41765</v>
+      </c>
       <c r="I10" s="4">
         <v>18</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="5">
         <f>SUMIF(Time!A:A,A10,Time!D:D)</f>
-        <v>0</v>
-      </c>
+        <v>1.9530555555555555</v>
+      </c>
+      <c r="L10" s="18"/>
     </row>
     <row r="11" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="3">
         <v>41774</v>
       </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="E11" s="3">
+        <v>41766</v>
+      </c>
       <c r="F11" s="3">
         <v>41799</v>
       </c>
@@ -1104,33 +1117,34 @@
       <c r="J11" s="4"/>
       <c r="K11" s="5">
         <f>SUMIF(Time!A:A,A11,Time!D:D)</f>
-        <v>0</v>
-      </c>
+        <v>2.6488888888888891</v>
+      </c>
+      <c r="L11" s="18"/>
     </row>
     <row r="12" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="C12" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I12" s="4">
         <f>SUM(I4:I11)</f>
@@ -1139,96 +1153,103 @@
       <c r="J12" s="4"/>
       <c r="K12" s="5">
         <f>SUM(K4:K11)</f>
-        <v>93.148333333333355</v>
-      </c>
+        <v>102.56250000000001</v>
+      </c>
+      <c r="L12" s="18"/>
     </row>
     <row r="13" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="18"/>
+    </row>
+    <row r="14" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="18"/>
+    </row>
+    <row r="15" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="18"/>
+    </row>
+    <row r="16" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="18"/>
+    </row>
+    <row r="17" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-    </row>
-    <row r="14" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-    </row>
-    <row r="15" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-    </row>
-    <row r="16" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-    </row>
-    <row r="17" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-    </row>
-    <row r="18" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-    </row>
-    <row r="19" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="18"/>
+    </row>
+    <row r="18" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="18"/>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -1240,14 +1261,15 @@
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="10"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19" s="18"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="12">
         <f>SUMIFS(Time!D:D,Time!B:B,"&gt;="&amp;M2)</f>
-        <v>21.791666666666668</v>
+        <v>9.4141666666666666</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
@@ -1258,10 +1280,11 @@
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
       <c r="K20" s="14"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20" s="18"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" s="13">
         <v>156</v>
@@ -1275,8 +1298,9 @@
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
       <c r="K21" s="14"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21" s="18"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>27</v>
       </c>
@@ -1290,138 +1314,139 @@
       <c r="I22" s="13"/>
       <c r="J22" s="13"/>
       <c r="K22" s="14"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="21"/>
-    </row>
-    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="22"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="24"/>
-    </row>
-    <row r="25" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="27"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="30"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="28"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="30"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="28"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="30"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="28"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="30"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="28"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="30"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="28"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="30"/>
-    </row>
-    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="31"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="32"/>
-      <c r="K32" s="33"/>
+      <c r="L22" s="18"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="20"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="22"/>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="23"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="25"/>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="28"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="29"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="31"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="29"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="31"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="29"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="31"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="29"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="31"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="29"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="31"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="29"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="31"/>
+    </row>
+    <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="32"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="34"/>
     </row>
     <row r="33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -1444,10 +1469,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D171"/>
+  <dimension ref="A1:D180"/>
   <sheetViews>
-    <sheetView topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="C170" sqref="C170"/>
+    <sheetView topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="C180" sqref="C180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1894,7 +1919,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B30" s="16">
         <v>41713.720983796295</v>
@@ -1924,7 +1949,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B32" s="16">
         <v>41713.73060185185</v>
@@ -1984,7 +2009,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B36" s="16">
         <v>41715.807743055557</v>
@@ -2044,7 +2069,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B40" s="16">
         <v>41715.858807870369</v>
@@ -2059,7 +2084,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B41" s="16">
         <v>41715.864108796297</v>
@@ -2074,7 +2099,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B42" s="16">
         <v>41715.871111111112</v>
@@ -2254,7 +2279,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B54" s="16">
         <v>41717.899317129632</v>
@@ -2269,7 +2294,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B55" s="16">
         <v>41717.90284722222</v>
@@ -2314,7 +2339,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B58" s="16">
         <v>41718.846319444441</v>
@@ -2329,7 +2354,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B59" s="16">
         <v>41720.644143518519</v>
@@ -2434,7 +2459,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B66" s="16">
         <v>41722.833854166667</v>
@@ -2449,7 +2474,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B67" s="16">
         <v>41722.837152777778</v>
@@ -2464,7 +2489,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B68" s="16">
         <v>41722.848564814813</v>
@@ -2509,7 +2534,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B71" s="16">
         <v>41723.838125000002</v>
@@ -2524,7 +2549,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B72" s="16">
         <v>41723.858171296299</v>
@@ -2539,7 +2564,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B73" s="16">
         <v>41723.891516203701</v>
@@ -2554,7 +2579,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B74" s="16">
         <v>41723.909409722219</v>
@@ -2569,7 +2594,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B75" s="16">
         <v>41724.770567129628</v>
@@ -2584,7 +2609,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B76" s="16">
         <v>41724.772870370369</v>
@@ -2629,7 +2654,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B79" s="16">
         <v>41724.817685185182</v>
@@ -2644,7 +2669,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B80" s="16">
         <v>41724.867314814815</v>
@@ -2674,7 +2699,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B82" s="16">
         <v>41726.255115740743</v>
@@ -2689,7 +2714,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B83" s="16">
         <v>41726.530868055554</v>
@@ -2734,7 +2759,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B86" s="16">
         <v>41727.557962962965</v>
@@ -2749,7 +2774,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B87" s="16">
         <v>41727.620462962965</v>
@@ -2764,7 +2789,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B88" s="16">
         <v>41727.667754629627</v>
@@ -2779,7 +2804,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B89" s="16">
         <v>41729.423993055556</v>
@@ -2794,7 +2819,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B90" s="16">
         <v>41730.765289351853</v>
@@ -2809,7 +2834,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B91" s="16">
         <v>41730.817442129628</v>
@@ -2824,7 +2849,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B92" s="16">
         <v>41730.83666666667</v>
@@ -2869,7 +2894,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B95" s="16">
         <v>41730.887291666666</v>
@@ -2884,7 +2909,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B96" s="16">
         <v>41730.892222222225</v>
@@ -2899,7 +2924,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B97" s="16">
         <v>41731.749699074076</v>
@@ -2929,7 +2954,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B99" s="16">
         <v>41731.755532407406</v>
@@ -2959,7 +2984,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B101" s="16">
         <v>41731.804942129631</v>
@@ -2974,7 +2999,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B102" s="16">
         <v>41731.811168981483</v>
@@ -2989,7 +3014,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B103" s="16">
         <v>41731.832708333335</v>
@@ -3004,7 +3029,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B104" s="16">
         <v>41731.867361111108</v>
@@ -3019,7 +3044,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B105" s="16">
         <v>41731.892604166664</v>
@@ -3049,7 +3074,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B107" s="16">
         <v>41734.503229166665</v>
@@ -3064,7 +3089,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B108" s="16">
         <v>41734.506724537037</v>
@@ -3079,7 +3104,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B109" s="16">
         <v>41734.520879629628</v>
@@ -3109,7 +3134,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B111" s="16">
         <v>41734.584108796298</v>
@@ -3124,7 +3149,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B112" s="16">
         <v>41734.588125000002</v>
@@ -3139,7 +3164,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B113" s="16">
         <v>41734.608981481484</v>
@@ -3154,7 +3179,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B114" s="16">
         <v>41734.618368055555</v>
@@ -3169,7 +3194,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B115" s="16">
         <v>41734.632384259261</v>
@@ -3184,7 +3209,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B116" s="16">
         <v>41734.662800925929</v>
@@ -3199,7 +3224,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B117" s="16">
         <v>41734.692870370367</v>
@@ -3214,7 +3239,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B118" s="16">
         <v>41736.897430555553</v>
@@ -3229,7 +3254,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B119" s="16">
         <v>41737.775752314818</v>
@@ -3274,7 +3299,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B122" s="16">
         <v>41737.859618055554</v>
@@ -3289,7 +3314,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B123" s="16">
         <v>41737.880543981482</v>
@@ -3304,7 +3329,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B124" s="16">
         <v>41737.882893518516</v>
@@ -3319,7 +3344,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B125" s="16">
         <v>41738.751921296294</v>
@@ -3349,7 +3374,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B127" s="16">
         <v>41738.843564814815</v>
@@ -3364,7 +3389,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B128" s="16">
         <v>41738.87909722222</v>
@@ -3379,7 +3404,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B129" s="16">
         <v>41739.798310185186</v>
@@ -3394,7 +3419,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B130" s="16">
         <v>41739.857858796298</v>
@@ -3403,13 +3428,13 @@
         <v>41739.92328703704</v>
       </c>
       <c r="D130" s="15">
-        <f t="shared" ref="D130:D171" si="2">IFERROR(MINUTE(C130-B130)/60+HOUR(C130-B130)+SECOND(C130-B130)/3600,0)</f>
+        <f t="shared" ref="D130:D180" si="2">IFERROR(MINUTE(C130-B130)/60+HOUR(C130-B130)+SECOND(C130-B130)/3600,0)</f>
         <v>1.5702777777777777</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B131" s="16">
         <v>41744.756944444445</v>
@@ -3424,7 +3449,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B132" s="16">
         <v>41744.768113425926</v>
@@ -3439,7 +3464,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B133" s="16">
         <v>41744.773263888892</v>
@@ -3454,7 +3479,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B134" s="16">
         <v>41744.840752314813</v>
@@ -3469,7 +3494,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B135" s="16">
         <v>41744.884664351855</v>
@@ -3499,7 +3524,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B137" s="16">
         <v>41744.911782407406</v>
@@ -3514,7 +3539,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B138" s="16">
         <v>41745.762870370374</v>
@@ -3529,7 +3554,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B139" s="16">
         <v>41745.857418981483</v>
@@ -3544,7 +3569,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B140" s="16">
         <v>41745.894884259258</v>
@@ -3559,7 +3584,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B141" s="16">
         <v>41748.372025462966</v>
@@ -3574,7 +3599,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B142" s="16">
         <v>41748.39502314815</v>
@@ -3589,7 +3614,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B143" s="16">
         <v>41748.829085648147</v>
@@ -3604,7 +3629,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B144" s="16">
         <v>41750.842002314814</v>
@@ -3619,7 +3644,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B145" s="16">
         <v>41751.735277777778</v>
@@ -3634,7 +3659,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B146" s="16">
         <v>41751.811562499999</v>
@@ -3649,7 +3674,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B147" s="16">
         <v>41751.830335648148</v>
@@ -3664,7 +3689,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B148" s="16">
         <v>41751.847326388888</v>
@@ -3679,7 +3704,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B149" s="16">
         <v>41751.894201388888</v>
@@ -3694,7 +3719,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B150" s="16">
         <v>41752.73228009259</v>
@@ -3709,7 +3734,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B151" s="16">
         <v>41752.751342592594</v>
@@ -3724,7 +3749,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B152" s="16">
         <v>41752.797407407408</v>
@@ -3739,7 +3764,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B153" s="16">
         <v>41752.837418981479</v>
@@ -3754,7 +3779,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B154" s="16">
         <v>41752.85560185185</v>
@@ -3769,7 +3794,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B155" s="16">
         <v>41752.871041666665</v>
@@ -3784,7 +3809,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B156" s="16">
         <v>41752.873761574076</v>
@@ -3799,7 +3824,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B157" s="16">
         <v>41753.789259259262</v>
@@ -3814,7 +3839,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B158" s="16">
         <v>41753.789675925924</v>
@@ -3829,7 +3854,7 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B159" s="16">
         <v>41755.329351851855</v>
@@ -3844,7 +3869,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B160" s="16">
         <v>41757.796331018515</v>
@@ -3859,7 +3884,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B161" s="16">
         <v>41757.802905092591</v>
@@ -3874,7 +3899,7 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B162" s="16">
         <v>41757.85015046296</v>
@@ -3889,7 +3914,7 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B163" s="16">
         <v>41758.752245370371</v>
@@ -3904,7 +3929,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B164" s="16">
         <v>41758.784722222219</v>
@@ -3919,7 +3944,7 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B165" s="16">
         <v>41758.826388888891</v>
@@ -3934,7 +3959,7 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B166" s="16">
         <v>41759.759456018517</v>
@@ -3949,7 +3974,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B167" s="16">
         <v>41759.82880787037</v>
@@ -3964,7 +3989,7 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B168" s="16">
         <v>41759.838402777779</v>
@@ -3979,7 +4004,7 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B169" s="16">
         <v>41759.843576388892</v>
@@ -3994,7 +4019,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B170" s="16">
         <v>41759.888726851852</v>
@@ -4008,7 +4033,154 @@
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D171" s="15"/>
+      <c r="A171" t="s">
+        <v>16</v>
+      </c>
+      <c r="B171" s="16">
+        <v>41759.918796296297</v>
+      </c>
+      <c r="C171" s="16">
+        <v>41759.931064814817</v>
+      </c>
+      <c r="D171" s="15">
+        <f t="shared" si="2"/>
+        <v>0.29444444444444445</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>16</v>
+      </c>
+      <c r="B172" s="16">
+        <v>41764.802210648151</v>
+      </c>
+      <c r="C172" s="16">
+        <v>41764.874016203707</v>
+      </c>
+      <c r="D172" s="15">
+        <f t="shared" si="2"/>
+        <v>1.7233333333333334</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>16</v>
+      </c>
+      <c r="B173" s="16">
+        <v>41764.877847222226</v>
+      </c>
+      <c r="C173" s="16">
+        <v>41764.919618055559</v>
+      </c>
+      <c r="D173" s="15">
+        <f t="shared" si="2"/>
+        <v>1.0024999999999999</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>16</v>
+      </c>
+      <c r="B174" s="16">
+        <v>41764.923101851855</v>
+      </c>
+      <c r="C174" s="16">
+        <v>41764.958831018521</v>
+      </c>
+      <c r="D174" s="15">
+        <f t="shared" si="2"/>
+        <v>0.85749999999999993</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>16</v>
+      </c>
+      <c r="B175" s="16">
+        <v>41765.761064814818</v>
+      </c>
+      <c r="C175" s="16">
+        <v>41765.781828703701</v>
+      </c>
+      <c r="D175" s="15">
+        <f t="shared" si="2"/>
+        <v>0.49833333333333335</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>16</v>
+      </c>
+      <c r="B176" s="16">
+        <v>41765.849606481483</v>
+      </c>
+      <c r="C176" s="16">
+        <v>41765.867777777778</v>
+      </c>
+      <c r="D176" s="15">
+        <f t="shared" si="2"/>
+        <v>0.43611111111111112</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>17</v>
+      </c>
+      <c r="B177" s="16">
+        <v>41765.867777777778</v>
+      </c>
+      <c r="C177" s="16">
+        <v>41765.885081018518</v>
+      </c>
+      <c r="D177" s="15">
+        <f t="shared" si="2"/>
+        <v>0.4152777777777778</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>17</v>
+      </c>
+      <c r="B178" s="16">
+        <v>41765.884710648148</v>
+      </c>
+      <c r="C178" s="16">
+        <v>41765.948784722219</v>
+      </c>
+      <c r="D178" s="15">
+        <f t="shared" si="2"/>
+        <v>1.5377777777777777</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>18</v>
+      </c>
+      <c r="B179" s="16">
+        <v>41766.81108796296</v>
+      </c>
+      <c r="C179" s="16">
+        <v>41766.842766203707</v>
+      </c>
+      <c r="D179" s="15">
+        <f t="shared" si="2"/>
+        <v>0.76027777777777783</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>18</v>
+      </c>
+      <c r="B180" s="16">
+        <v>41766.854375000003</v>
+      </c>
+      <c r="C180" s="16">
+        <v>41766.933067129627</v>
+      </c>
+      <c r="D180" s="15">
+        <f t="shared" si="2"/>
+        <v>1.888611111111111</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/report.xlsx
+++ b/Documents/report.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="31">
   <si>
     <t>Michael Warren</t>
   </si>
@@ -118,13 +118,13 @@
     <t>Behind in hours</t>
   </si>
   <si>
-    <t>Problems: Not enough sleep. In-laws came into town. House hunting has begun.</t>
-  </si>
-  <si>
     <t>Changes in Scope, Schedule, and Cost:</t>
   </si>
   <si>
-    <t>Accomplishments: Reflection and shadows work. Requirement scene built. Parallel Ray tracing done. Last thing left is the cluster.</t>
+    <t>Accomplishments: Have a version where I get an image and time for all matrix cells!</t>
+  </si>
+  <si>
+    <t>Problems: Cluster times for 2 computers using 1 core is slower than single core single computer. :(</t>
   </si>
 </sst>
 </file>
@@ -792,7 +792,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:K16"/>
+      <selection activeCell="A17" sqref="A17:K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -837,10 +837,10 @@
       <c r="J2" s="38"/>
       <c r="K2" s="38"/>
       <c r="M2" s="17">
-        <v>41759.918796296297</v>
+        <v>41766.933067129627</v>
       </c>
       <c r="N2" s="17">
-        <v>41766.933067129627</v>
+        <v>41773.856122685182</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -995,7 +995,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="5">
         <f>SUMIF(Time!A:A,A7,Time!D:D)</f>
-        <v>8.2722222222222239</v>
+        <v>10.162222222222224</v>
       </c>
       <c r="L7" s="18"/>
     </row>
@@ -1117,7 +1117,7 @@
       <c r="J11" s="4"/>
       <c r="K11" s="5">
         <f>SUMIF(Time!A:A,A11,Time!D:D)</f>
-        <v>2.6488888888888891</v>
+        <v>17.705277777777777</v>
       </c>
       <c r="L11" s="18"/>
     </row>
@@ -1153,13 +1153,13 @@
       <c r="J12" s="4"/>
       <c r="K12" s="5">
         <f>SUM(K4:K11)</f>
-        <v>102.56250000000001</v>
+        <v>119.50888888888889</v>
       </c>
       <c r="L12" s="18"/>
     </row>
     <row r="13" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -1189,7 +1189,7 @@
     </row>
     <row r="15" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
@@ -1219,7 +1219,7 @@
     </row>
     <row r="17" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="B20" s="12">
         <f>SUMIFS(Time!D:D,Time!B:B,"&gt;="&amp;M2)</f>
-        <v>9.4141666666666666</v>
+        <v>16.946388888888887</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
@@ -1469,10 +1469,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D180"/>
+  <dimension ref="A1:D193"/>
   <sheetViews>
-    <sheetView topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="C180" sqref="C180"/>
+    <sheetView topLeftCell="A186" workbookViewId="0">
+      <selection activeCell="C193" sqref="C193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3428,7 +3428,7 @@
         <v>41739.92328703704</v>
       </c>
       <c r="D130" s="15">
-        <f t="shared" ref="D130:D180" si="2">IFERROR(MINUTE(C130-B130)/60+HOUR(C130-B130)+SECOND(C130-B130)/3600,0)</f>
+        <f t="shared" ref="D130:D193" si="2">IFERROR(MINUTE(C130-B130)/60+HOUR(C130-B130)+SECOND(C130-B130)/3600,0)</f>
         <v>1.5702777777777777</v>
       </c>
     </row>
@@ -4180,6 +4180,201 @@
       <c r="D180" s="15">
         <f t="shared" si="2"/>
         <v>1.888611111111111</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>18</v>
+      </c>
+      <c r="B181" s="16">
+        <v>41769.419004629628</v>
+      </c>
+      <c r="C181" s="16">
+        <v>41769.423333333332</v>
+      </c>
+      <c r="D181" s="15">
+        <f t="shared" si="2"/>
+        <v>0.10388888888888889</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>15</v>
+      </c>
+      <c r="B182" s="16">
+        <v>41769.423333333332</v>
+      </c>
+      <c r="C182" s="16">
+        <v>41769.502083333333</v>
+      </c>
+      <c r="D182" s="15">
+        <f t="shared" si="2"/>
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>18</v>
+      </c>
+      <c r="B183" s="16">
+        <v>41769.502083333333</v>
+      </c>
+      <c r="C183" s="16">
+        <v>41769.586365740739</v>
+      </c>
+      <c r="D183" s="15">
+        <f t="shared" si="2"/>
+        <v>2.0227777777777778</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>18</v>
+      </c>
+      <c r="B184" s="16">
+        <v>41771.267534722225</v>
+      </c>
+      <c r="C184" s="16">
+        <v>41771.307870370372</v>
+      </c>
+      <c r="D184" s="15">
+        <f t="shared" si="2"/>
+        <v>0.96805555555555556</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>18</v>
+      </c>
+      <c r="B185" s="16">
+        <v>41771.720335648148</v>
+      </c>
+      <c r="C185" s="16">
+        <v>41771.724756944444</v>
+      </c>
+      <c r="D185" s="15">
+        <f t="shared" si="2"/>
+        <v>0.10611111111111111</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>18</v>
+      </c>
+      <c r="B186" s="16">
+        <v>41771.754618055558</v>
+      </c>
+      <c r="C186" s="16">
+        <v>41771.792129629626</v>
+      </c>
+      <c r="D186" s="15">
+        <f t="shared" si="2"/>
+        <v>0.90027777777777784</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>18</v>
+      </c>
+      <c r="B187" s="16">
+        <v>41771.793634259258</v>
+      </c>
+      <c r="C187" s="16">
+        <v>41771.918287037035</v>
+      </c>
+      <c r="D187" s="15">
+        <f t="shared" si="2"/>
+        <v>2.9916666666666667</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>18</v>
+      </c>
+      <c r="B188" s="16">
+        <v>41772.712453703702</v>
+      </c>
+      <c r="C188" s="16">
+        <v>41772.740844907406</v>
+      </c>
+      <c r="D188" s="15">
+        <f t="shared" si="2"/>
+        <v>0.68138888888888882</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>18</v>
+      </c>
+      <c r="B189" s="16">
+        <v>41772.749965277777</v>
+      </c>
+      <c r="C189" s="16">
+        <v>41772.84883101852</v>
+      </c>
+      <c r="D189" s="15">
+        <f t="shared" si="2"/>
+        <v>2.3727777777777779</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>18</v>
+      </c>
+      <c r="B190" s="16">
+        <v>41772.852083333331</v>
+      </c>
+      <c r="C190" s="16">
+        <v>41772.921747685185</v>
+      </c>
+      <c r="D190" s="15">
+        <f t="shared" si="2"/>
+        <v>1.6719444444444442</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>18</v>
+      </c>
+      <c r="B191" s="16">
+        <v>41773.702523148146</v>
+      </c>
+      <c r="C191" s="16">
+        <v>41773.777430555558</v>
+      </c>
+      <c r="D191" s="15">
+        <f t="shared" si="2"/>
+        <v>1.7977777777777777</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>18</v>
+      </c>
+      <c r="B192" s="16">
+        <v>41773.782256944447</v>
+      </c>
+      <c r="C192" s="16">
+        <v>41773.792685185188</v>
+      </c>
+      <c r="D192" s="15">
+        <f t="shared" si="2"/>
+        <v>0.25027777777777777</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>18</v>
+      </c>
+      <c r="B193" s="16">
+        <v>41773.806562500002</v>
+      </c>
+      <c r="C193" s="16">
+        <v>41773.856122685182</v>
+      </c>
+      <c r="D193" s="15">
+        <f t="shared" si="2"/>
+        <v>1.1894444444444445</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/report.xlsx
+++ b/Documents/report.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="30">
   <si>
     <t>Michael Warren</t>
   </si>
@@ -70,9 +70,6 @@
     <t>Requirements</t>
   </si>
   <si>
-    <t>Not Started</t>
-  </si>
-  <si>
     <t>Design</t>
   </si>
   <si>
@@ -106,15 +103,6 @@
     <t>Report as of</t>
   </si>
   <si>
-    <t xml:space="preserve">Scripture
-" 15 For behold, we are in bondage to the [senior project] and are taxed with a tax which is grievous to be borne..." - Mosiah 7:15
-" 2 And the earth was without form, and void; and darkness was upon the face of the deep. And the Spirit of God moved upon the face of the waters.
- 3 And God said, Let there be light: and there was light.
- 4 And God saw the light, that it was good: and God divided the light from the darkness.
- 5 And God called the light Day, and the darkness he called Night. And the evening and the morning were the first day." Genisis 1:2-5
-</t>
-  </si>
-  <si>
     <t>Behind in hours</t>
   </si>
   <si>
@@ -125,6 +113,16 @@
   </si>
   <si>
     <t>Problems: Cluster times for 2 computers using 1 core is slower than single core single computer. :(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scripture
+Alma 8:15
+"Blessed art thou, [Michael] therefore, lift up thy head and rejoice, for thou hast great cause to rejoice; for thou hast been faithful in [working on your seinor project ]from the time which thou receivedst thy [first project]. Behold, I am he that delivered it unto you."
+Alma 26:35
+"Now have we not reason to rejoice? Yea, I say unto you, there never were men that had so great reason to rejoice"
+Alma 55:24
+"Now behold, this was the desire of Moroni. He ... caused that all the prisoners should be liberated, who were Nephites; and they did join the army of Moroni, and were a great strength to his army."
+</t>
   </si>
 </sst>
 </file>
@@ -169,7 +167,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -371,17 +369,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="double">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="double">
@@ -390,41 +377,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="double">
-        <color auto="1"/>
-      </right>
-      <top style="double">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="double">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -469,33 +427,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -507,6 +438,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -789,10 +726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:K18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -811,41 +748,41 @@
         <v>1</v>
       </c>
       <c r="N1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38" t="s">
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38" t="s">
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
       <c r="M2" s="17">
-        <v>41766.933067129627</v>
+        <v>41773.856122685182</v>
       </c>
       <c r="N2" s="17">
         <v>41773.856122685182</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="36"/>
-      <c r="B3" s="37"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
@@ -970,7 +907,7 @@
     </row>
     <row r="7" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>11</v>
@@ -1001,7 +938,7 @@
     </row>
     <row r="8" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>11</v>
@@ -1032,7 +969,7 @@
     </row>
     <row r="9" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>11</v>
@@ -1063,7 +1000,7 @@
     </row>
     <row r="10" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>11</v>
@@ -1094,10 +1031,10 @@
     </row>
     <row r="11" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C11" s="3">
         <v>41774</v>
@@ -1110,56 +1047,63 @@
         <v>41799</v>
       </c>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="H11" s="3">
+        <v>41779</v>
+      </c>
       <c r="I11" s="4">
         <v>42</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="5">
         <f>SUMIF(Time!A:A,A11,Time!D:D)</f>
-        <v>17.705277777777777</v>
+        <v>33.31722222222222</v>
       </c>
       <c r="L11" s="18"/>
     </row>
     <row r="12" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="C12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I12" s="4">
         <f>SUM(I4:I11)</f>
         <v>156</v>
       </c>
-      <c r="J12" s="4"/>
+      <c r="J12" s="4">
+        <v>137</v>
+      </c>
       <c r="K12" s="5">
         <f>SUM(K4:K11)</f>
-        <v>119.50888888888889</v>
-      </c>
-      <c r="L12" s="18"/>
+        <v>135.12083333333334</v>
+      </c>
+      <c r="L12" s="18">
+        <f>K12-J12</f>
+        <v>-1.8791666666666629</v>
+      </c>
     </row>
     <row r="13" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -1189,7 +1133,7 @@
     </row>
     <row r="15" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
@@ -1219,7 +1163,7 @@
     </row>
     <row r="17" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
@@ -1249,7 +1193,7 @@
     </row>
     <row r="19" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -1265,11 +1209,11 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="12">
         <f>SUMIFS(Time!D:D,Time!B:B,"&gt;="&amp;M2)</f>
-        <v>16.946388888888887</v>
+        <v>15.611944444444445</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
@@ -1284,10 +1228,10 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="13">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
@@ -1302,7 +1246,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -1342,125 +1286,202 @@
       <c r="J24" s="24"/>
       <c r="K24" s="25"/>
     </row>
-    <row r="25" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="28"/>
+    <row r="25" spans="1:12" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="29"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
+      <c r="A26" s="31"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
       <c r="K26" s="31"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="29"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
       <c r="K27" s="31"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
       <c r="K28" s="31"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="29"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
+      <c r="A29" s="31"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
       <c r="K29" s="31"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="29"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
+      <c r="A30" s="31"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
       <c r="K30" s="31"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="29"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
+      <c r="A31" s="31"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
       <c r="K31" s="31"/>
     </row>
-    <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="32"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="34"/>
-    </row>
-    <row r="33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="31"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="31"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="31"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="31"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="31"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="31"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="31"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+    </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A15:K16"/>
     <mergeCell ref="A17:K18"/>
     <mergeCell ref="A23:K24"/>
-    <mergeCell ref="A25:K32"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="A13:K14"/>
+    <mergeCell ref="A25:K38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -1469,10 +1490,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D193"/>
+  <dimension ref="A1:D213"/>
   <sheetViews>
-    <sheetView topLeftCell="A186" workbookViewId="0">
-      <selection activeCell="C193" sqref="C193"/>
+    <sheetView topLeftCell="A191" workbookViewId="0">
+      <selection activeCell="C213" sqref="C213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2579,7 +2600,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B74" s="16">
         <v>41723.909409722219</v>
@@ -2594,7 +2615,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B75" s="16">
         <v>41724.770567129628</v>
@@ -2609,7 +2630,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B76" s="16">
         <v>41724.772870370369</v>
@@ -2654,7 +2675,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B79" s="16">
         <v>41724.817685185182</v>
@@ -2669,7 +2690,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B80" s="16">
         <v>41724.867314814815</v>
@@ -2699,7 +2720,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B82" s="16">
         <v>41726.255115740743</v>
@@ -2714,7 +2735,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B83" s="16">
         <v>41726.530868055554</v>
@@ -2759,7 +2780,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B86" s="16">
         <v>41727.557962962965</v>
@@ -2774,7 +2795,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B87" s="16">
         <v>41727.620462962965</v>
@@ -2789,7 +2810,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B88" s="16">
         <v>41727.667754629627</v>
@@ -2804,7 +2825,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B89" s="16">
         <v>41729.423993055556</v>
@@ -2819,7 +2840,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B90" s="16">
         <v>41730.765289351853</v>
@@ -2834,7 +2855,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B91" s="16">
         <v>41730.817442129628</v>
@@ -2849,7 +2870,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B92" s="16">
         <v>41730.83666666667</v>
@@ -2894,7 +2915,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B95" s="16">
         <v>41730.887291666666</v>
@@ -2909,7 +2930,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B96" s="16">
         <v>41730.892222222225</v>
@@ -2924,7 +2945,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B97" s="16">
         <v>41731.749699074076</v>
@@ -2954,7 +2975,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B99" s="16">
         <v>41731.755532407406</v>
@@ -2984,7 +3005,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B101" s="16">
         <v>41731.804942129631</v>
@@ -2999,7 +3020,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B102" s="16">
         <v>41731.811168981483</v>
@@ -3014,7 +3035,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B103" s="16">
         <v>41731.832708333335</v>
@@ -3029,7 +3050,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B104" s="16">
         <v>41731.867361111108</v>
@@ -3044,7 +3065,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B105" s="16">
         <v>41731.892604166664</v>
@@ -3074,7 +3095,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B107" s="16">
         <v>41734.503229166665</v>
@@ -3089,7 +3110,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B108" s="16">
         <v>41734.506724537037</v>
@@ -3104,7 +3125,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B109" s="16">
         <v>41734.520879629628</v>
@@ -3134,7 +3155,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B111" s="16">
         <v>41734.584108796298</v>
@@ -3149,7 +3170,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B112" s="16">
         <v>41734.588125000002</v>
@@ -3164,7 +3185,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B113" s="16">
         <v>41734.608981481484</v>
@@ -3179,7 +3200,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B114" s="16">
         <v>41734.618368055555</v>
@@ -3194,7 +3215,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B115" s="16">
         <v>41734.632384259261</v>
@@ -3209,7 +3230,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B116" s="16">
         <v>41734.662800925929</v>
@@ -3224,7 +3245,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B117" s="16">
         <v>41734.692870370367</v>
@@ -3239,7 +3260,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B118" s="16">
         <v>41736.897430555553</v>
@@ -3254,7 +3275,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B119" s="16">
         <v>41737.775752314818</v>
@@ -3299,7 +3320,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B122" s="16">
         <v>41737.859618055554</v>
@@ -3314,7 +3335,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B123" s="16">
         <v>41737.880543981482</v>
@@ -3329,7 +3350,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B124" s="16">
         <v>41737.882893518516</v>
@@ -3344,7 +3365,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B125" s="16">
         <v>41738.751921296294</v>
@@ -3374,7 +3395,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B127" s="16">
         <v>41738.843564814815</v>
@@ -3389,7 +3410,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B128" s="16">
         <v>41738.87909722222</v>
@@ -3404,7 +3425,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B129" s="16">
         <v>41739.798310185186</v>
@@ -3419,7 +3440,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B130" s="16">
         <v>41739.857858796298</v>
@@ -3428,13 +3449,13 @@
         <v>41739.92328703704</v>
       </c>
       <c r="D130" s="15">
-        <f t="shared" ref="D130:D193" si="2">IFERROR(MINUTE(C130-B130)/60+HOUR(C130-B130)+SECOND(C130-B130)/3600,0)</f>
+        <f t="shared" ref="D130:D194" si="2">IFERROR(MINUTE(C130-B130)/60+HOUR(C130-B130)+SECOND(C130-B130)/3600,0)</f>
         <v>1.5702777777777777</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B131" s="16">
         <v>41744.756944444445</v>
@@ -3449,7 +3470,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B132" s="16">
         <v>41744.768113425926</v>
@@ -3464,7 +3485,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B133" s="16">
         <v>41744.773263888892</v>
@@ -3479,7 +3500,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B134" s="16">
         <v>41744.840752314813</v>
@@ -3494,7 +3515,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B135" s="16">
         <v>41744.884664351855</v>
@@ -3524,7 +3545,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B137" s="16">
         <v>41744.911782407406</v>
@@ -3539,7 +3560,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B138" s="16">
         <v>41745.762870370374</v>
@@ -3554,7 +3575,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B139" s="16">
         <v>41745.857418981483</v>
@@ -3569,7 +3590,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B140" s="16">
         <v>41745.894884259258</v>
@@ -3584,7 +3605,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B141" s="16">
         <v>41748.372025462966</v>
@@ -3599,7 +3620,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B142" s="16">
         <v>41748.39502314815</v>
@@ -3614,7 +3635,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B143" s="16">
         <v>41748.829085648147</v>
@@ -3629,7 +3650,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B144" s="16">
         <v>41750.842002314814</v>
@@ -3644,7 +3665,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B145" s="16">
         <v>41751.735277777778</v>
@@ -3659,7 +3680,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B146" s="16">
         <v>41751.811562499999</v>
@@ -3674,7 +3695,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B147" s="16">
         <v>41751.830335648148</v>
@@ -3689,7 +3710,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B148" s="16">
         <v>41751.847326388888</v>
@@ -3704,7 +3725,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B149" s="16">
         <v>41751.894201388888</v>
@@ -3719,7 +3740,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B150" s="16">
         <v>41752.73228009259</v>
@@ -3734,7 +3755,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B151" s="16">
         <v>41752.751342592594</v>
@@ -3749,7 +3770,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B152" s="16">
         <v>41752.797407407408</v>
@@ -3764,7 +3785,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B153" s="16">
         <v>41752.837418981479</v>
@@ -3779,7 +3800,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B154" s="16">
         <v>41752.85560185185</v>
@@ -3794,7 +3815,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B155" s="16">
         <v>41752.871041666665</v>
@@ -3809,7 +3830,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B156" s="16">
         <v>41752.873761574076</v>
@@ -3824,7 +3845,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B157" s="16">
         <v>41753.789259259262</v>
@@ -3839,7 +3860,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B158" s="16">
         <v>41753.789675925924</v>
@@ -3854,7 +3875,7 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B159" s="16">
         <v>41755.329351851855</v>
@@ -3869,7 +3890,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B160" s="16">
         <v>41757.796331018515</v>
@@ -3884,7 +3905,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B161" s="16">
         <v>41757.802905092591</v>
@@ -3899,7 +3920,7 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B162" s="16">
         <v>41757.85015046296</v>
@@ -3914,7 +3935,7 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B163" s="16">
         <v>41758.752245370371</v>
@@ -3929,7 +3950,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B164" s="16">
         <v>41758.784722222219</v>
@@ -3944,7 +3965,7 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B165" s="16">
         <v>41758.826388888891</v>
@@ -3959,7 +3980,7 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B166" s="16">
         <v>41759.759456018517</v>
@@ -3974,7 +3995,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B167" s="16">
         <v>41759.82880787037</v>
@@ -3989,7 +4010,7 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B168" s="16">
         <v>41759.838402777779</v>
@@ -4004,7 +4025,7 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B169" s="16">
         <v>41759.843576388892</v>
@@ -4019,7 +4040,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B170" s="16">
         <v>41759.888726851852</v>
@@ -4034,7 +4055,7 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B171" s="16">
         <v>41759.918796296297</v>
@@ -4049,7 +4070,7 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B172" s="16">
         <v>41764.802210648151</v>
@@ -4064,7 +4085,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B173" s="16">
         <v>41764.877847222226</v>
@@ -4079,7 +4100,7 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B174" s="16">
         <v>41764.923101851855</v>
@@ -4094,7 +4115,7 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B175" s="16">
         <v>41765.761064814818</v>
@@ -4109,7 +4130,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B176" s="16">
         <v>41765.849606481483</v>
@@ -4124,7 +4145,7 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B177" s="16">
         <v>41765.867777777778</v>
@@ -4139,7 +4160,7 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B178" s="16">
         <v>41765.884710648148</v>
@@ -4154,7 +4175,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B179" s="16">
         <v>41766.81108796296</v>
@@ -4169,7 +4190,7 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B180" s="16">
         <v>41766.854375000003</v>
@@ -4184,7 +4205,7 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B181" s="16">
         <v>41769.419004629628</v>
@@ -4199,7 +4220,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B182" s="16">
         <v>41769.423333333332</v>
@@ -4214,7 +4235,7 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B183" s="16">
         <v>41769.502083333333</v>
@@ -4229,7 +4250,7 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B184" s="16">
         <v>41771.267534722225</v>
@@ -4244,7 +4265,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B185" s="16">
         <v>41771.720335648148</v>
@@ -4259,7 +4280,7 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B186" s="16">
         <v>41771.754618055558</v>
@@ -4274,7 +4295,7 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B187" s="16">
         <v>41771.793634259258</v>
@@ -4289,7 +4310,7 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B188" s="16">
         <v>41772.712453703702</v>
@@ -4304,7 +4325,7 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B189" s="16">
         <v>41772.749965277777</v>
@@ -4319,7 +4340,7 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B190" s="16">
         <v>41772.852083333331</v>
@@ -4334,7 +4355,7 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B191" s="16">
         <v>41773.702523148146</v>
@@ -4349,7 +4370,7 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B192" s="16">
         <v>41773.782256944447</v>
@@ -4364,7 +4385,7 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B193" s="16">
         <v>41773.806562500002</v>
@@ -4375,6 +4396,306 @@
       <c r="D193" s="15">
         <f t="shared" si="2"/>
         <v>1.1894444444444445</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>17</v>
+      </c>
+      <c r="B194" s="16">
+        <v>41774.708865740744</v>
+      </c>
+      <c r="C194" s="16">
+        <v>41774.726412037038</v>
+      </c>
+      <c r="D194" s="15">
+        <f t="shared" si="2"/>
+        <v>0.4211111111111111</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>17</v>
+      </c>
+      <c r="B195" s="16">
+        <v>41774.748912037037</v>
+      </c>
+      <c r="C195" s="16">
+        <v>41774.752754629626</v>
+      </c>
+      <c r="D195" s="15">
+        <f t="shared" ref="D195:D213" si="3">IFERROR(MINUTE(C195-B195)/60+HOUR(C195-B195)+SECOND(C195-B195)/3600,0)</f>
+        <v>9.2222222222222219E-2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>17</v>
+      </c>
+      <c r="B196" s="16">
+        <v>41774.755983796298</v>
+      </c>
+      <c r="C196" s="16">
+        <v>41774.77449074074</v>
+      </c>
+      <c r="D196" s="15">
+        <f t="shared" si="3"/>
+        <v>0.44416666666666671</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>17</v>
+      </c>
+      <c r="B197" s="16">
+        <v>41774.779236111113</v>
+      </c>
+      <c r="C197" s="16">
+        <v>41774.92728009259</v>
+      </c>
+      <c r="D197" s="15">
+        <f t="shared" si="3"/>
+        <v>3.5530555555555554</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>17</v>
+      </c>
+      <c r="B198" s="16">
+        <v>41775.307743055557</v>
+      </c>
+      <c r="C198" s="16">
+        <v>41775.323599537034</v>
+      </c>
+      <c r="D198" s="15">
+        <f t="shared" si="3"/>
+        <v>0.38055555555555554</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>17</v>
+      </c>
+      <c r="B199" s="16">
+        <v>41775.701678240737</v>
+      </c>
+      <c r="C199" s="16">
+        <v>41775.709791666668</v>
+      </c>
+      <c r="D199" s="15">
+        <f t="shared" si="3"/>
+        <v>0.19472222222222221</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>17</v>
+      </c>
+      <c r="B200" s="16">
+        <v>41775.725497685184</v>
+      </c>
+      <c r="C200" s="16">
+        <v>41775.753333333334</v>
+      </c>
+      <c r="D200" s="15">
+        <f t="shared" si="3"/>
+        <v>0.66805555555555551</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>17</v>
+      </c>
+      <c r="B201" s="16">
+        <v>41775.781736111108</v>
+      </c>
+      <c r="C201" s="16">
+        <v>41775.799872685187</v>
+      </c>
+      <c r="D201" s="15">
+        <f t="shared" si="3"/>
+        <v>0.43527777777777782</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>17</v>
+      </c>
+      <c r="B202" s="16">
+        <v>41775.805648148147</v>
+      </c>
+      <c r="C202" s="16">
+        <v>41775.808749999997</v>
+      </c>
+      <c r="D202" s="15">
+        <f t="shared" si="3"/>
+        <v>7.4444444444444438E-2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>17</v>
+      </c>
+      <c r="B203" s="16">
+        <v>41776.358738425923</v>
+      </c>
+      <c r="C203" s="16">
+        <v>41776.395601851851</v>
+      </c>
+      <c r="D203" s="15">
+        <f t="shared" si="3"/>
+        <v>0.88472222222222219</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>17</v>
+      </c>
+      <c r="B204" s="16">
+        <v>41776.601238425923</v>
+      </c>
+      <c r="C204" s="16">
+        <v>41776.647118055553</v>
+      </c>
+      <c r="D204" s="15">
+        <f t="shared" si="3"/>
+        <v>1.1011111111111112</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>17</v>
+      </c>
+      <c r="B205" s="16">
+        <v>41778.712314814817</v>
+      </c>
+      <c r="C205" s="16">
+        <v>41778.729155092595</v>
+      </c>
+      <c r="D205" s="15">
+        <f t="shared" si="3"/>
+        <v>0.40416666666666667</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>17</v>
+      </c>
+      <c r="B206" s="16">
+        <v>41778.731851851851</v>
+      </c>
+      <c r="C206" s="16">
+        <v>41778.754479166666</v>
+      </c>
+      <c r="D206" s="15">
+        <f t="shared" si="3"/>
+        <v>0.54305555555555551</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>17</v>
+      </c>
+      <c r="B207" s="16">
+        <v>41778.789652777778</v>
+      </c>
+      <c r="C207" s="16">
+        <v>41778.852685185186</v>
+      </c>
+      <c r="D207" s="15">
+        <f t="shared" si="3"/>
+        <v>1.5127777777777778</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>17</v>
+      </c>
+      <c r="B208" s="16">
+        <v>41778.896226851852</v>
+      </c>
+      <c r="C208" s="16">
+        <v>41778.947500000002</v>
+      </c>
+      <c r="D208" s="15">
+        <f t="shared" si="3"/>
+        <v>1.2305555555555556</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>17</v>
+      </c>
+      <c r="B209" s="16">
+        <v>41779.721898148149</v>
+      </c>
+      <c r="C209" s="16">
+        <v>41779.739479166667</v>
+      </c>
+      <c r="D209" s="15">
+        <f t="shared" si="3"/>
+        <v>0.42194444444444446</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>17</v>
+      </c>
+      <c r="B210" s="16">
+        <v>41779.751087962963</v>
+      </c>
+      <c r="C210" s="16">
+        <v>41779.817789351851</v>
+      </c>
+      <c r="D210" s="15">
+        <f t="shared" si="3"/>
+        <v>1.6008333333333333</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>17</v>
+      </c>
+      <c r="B211" s="16">
+        <v>41779.818425925929</v>
+      </c>
+      <c r="C211" s="16">
+        <v>41779.820138888892</v>
+      </c>
+      <c r="D211" s="15">
+        <f t="shared" si="3"/>
+        <v>4.1111111111111112E-2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>17</v>
+      </c>
+      <c r="B212" s="16">
+        <v>41779.824143518519</v>
+      </c>
+      <c r="C212" s="16">
+        <v>41779.831805555557</v>
+      </c>
+      <c r="D212" s="15">
+        <f t="shared" si="3"/>
+        <v>0.18388888888888888</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>17</v>
+      </c>
+      <c r="B213" s="16">
+        <v>41779.855694444443</v>
+      </c>
+      <c r="C213" s="16">
+        <v>41779.915033217592</v>
+      </c>
+      <c r="D213" s="15">
+        <f t="shared" si="3"/>
+        <v>1.4241666666666668</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/report.xlsx
+++ b/Documents/report.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="30">
   <si>
     <t>Michael Warren</t>
   </si>
@@ -103,18 +103,6 @@
     <t>Report as of</t>
   </si>
   <si>
-    <t>Behind in hours</t>
-  </si>
-  <si>
-    <t>Changes in Scope, Schedule, and Cost:</t>
-  </si>
-  <si>
-    <t>Accomplishments: Have a version where I get an image and time for all matrix cells!</t>
-  </si>
-  <si>
-    <t>Problems: Cluster times for 2 computers using 1 core is slower than single core single computer. :(</t>
-  </si>
-  <si>
     <t xml:space="preserve">Scripture
 Alma 8:15
 "Blessed art thou, [Michael] therefore, lift up thy head and rejoice, for thou hast great cause to rejoice; for thou hast been faithful in [working on your seinor project ]from the time which thou receivedst thy [first project]. Behold, I am he that delivered it unto you."
@@ -123,6 +111,18 @@
 Alma 55:24
 "Now behold, this was the desire of Moroni. He ... caused that all the prisoners should be liberated, who were Nephites; and they did join the army of Moroni, and were a great strength to his army."
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Problems: </t>
+  </si>
+  <si>
+    <t>Ahead of Schedule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accomplishments: Everything is done. Just have summary, and demo left to do!!! :D </t>
+  </si>
+  <si>
+    <t>Changes in Scope, Schedule, and Cost: End total hours reduced to 137 (B)</t>
   </si>
 </sst>
 </file>
@@ -728,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,7 +777,7 @@
         <v>41773.856122685182</v>
       </c>
       <c r="N2" s="17">
-        <v>41773.856122685182</v>
+        <v>41780.903969907406</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1056,7 +1056,7 @@
       <c r="J11" s="4"/>
       <c r="K11" s="5">
         <f>SUMIF(Time!A:A,A11,Time!D:D)</f>
-        <v>33.31722222222222</v>
+        <v>34.706388888888881</v>
       </c>
       <c r="L11" s="18"/>
     </row>
@@ -1094,16 +1094,16 @@
       </c>
       <c r="K12" s="5">
         <f>SUM(K4:K11)</f>
-        <v>135.12083333333334</v>
+        <v>136.51</v>
       </c>
       <c r="L12" s="18">
         <f>K12-J12</f>
-        <v>-1.8791666666666629</v>
+        <v>-0.49000000000000909</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="15" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="17" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="19" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B20" s="12">
         <f>SUMIFS(Time!D:D,Time!B:B,"&gt;="&amp;M2)</f>
-        <v>15.611944444444445</v>
+        <v>17.001111111111111</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
@@ -1246,7 +1246,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -1288,7 +1288,7 @@
     </row>
     <row r="25" spans="1:12" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A25" s="30" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
@@ -1472,6 +1472,7 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A25:K38"/>
     <mergeCell ref="A15:K16"/>
     <mergeCell ref="A17:K18"/>
     <mergeCell ref="A23:K24"/>
@@ -1481,7 +1482,6 @@
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="A13:K14"/>
-    <mergeCell ref="A25:K38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -1490,10 +1490,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D213"/>
+  <dimension ref="A1:D216"/>
   <sheetViews>
-    <sheetView topLeftCell="A191" workbookViewId="0">
-      <selection activeCell="C213" sqref="C213"/>
+    <sheetView topLeftCell="A206" workbookViewId="0">
+      <selection activeCell="E216" sqref="A216:E216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4424,7 +4424,7 @@
         <v>41774.752754629626</v>
       </c>
       <c r="D195" s="15">
-        <f t="shared" ref="D195:D213" si="3">IFERROR(MINUTE(C195-B195)/60+HOUR(C195-B195)+SECOND(C195-B195)/3600,0)</f>
+        <f t="shared" ref="D195:D216" si="3">IFERROR(MINUTE(C195-B195)/60+HOUR(C195-B195)+SECOND(C195-B195)/3600,0)</f>
         <v>9.2222222222222219E-2</v>
       </c>
     </row>
@@ -4691,12 +4691,45 @@
         <v>41779.855694444443</v>
       </c>
       <c r="C213" s="16">
-        <v>41779.915033217592</v>
+        <v>41779.915243055555</v>
       </c>
       <c r="D213" s="15">
         <f t="shared" si="3"/>
-        <v>1.4241666666666668</v>
-      </c>
+        <v>1.4291666666666667</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>17</v>
+      </c>
+      <c r="B214" s="16">
+        <v>41780.842638888891</v>
+      </c>
+      <c r="C214" s="16">
+        <v>41780.852870370371</v>
+      </c>
+      <c r="D214" s="15">
+        <f t="shared" si="3"/>
+        <v>0.24555555555555555</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>17</v>
+      </c>
+      <c r="B215" s="16">
+        <v>41780.856527777774</v>
+      </c>
+      <c r="C215" s="16">
+        <v>41780.903969907406</v>
+      </c>
+      <c r="D215" s="15">
+        <f t="shared" si="3"/>
+        <v>1.138611111111111</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D216" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
